--- a/Benchmarking/clinopyroxene/Final_Versions/Putirka_2008_eq32c_default_Benchmark.xlsx
+++ b/Benchmarking/clinopyroxene/Final_Versions/Putirka_2008_eq32c_default_Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\clinopyroxene\Final_Versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\clinopyroxene\Final_Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DD1E9-5466-4773-8058-A3B693519922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ECABC7-C566-420B-8C70-AF956AB25656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Rhodes Diag" sheetId="13" r:id="rId7"/>
     <sheet name="Rhodes Diag Calcs" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1405,52 +1405,51 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1465,13 +1464,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1485,12 +1481,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,58 +1493,50 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1560,113 +1544,95 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,31 +1641,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1711,54 +1668,42 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1768,12 +1713,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1781,10 +1724,10 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,21 +1739,11 @@
     <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6159,7 +6092,7 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6177,123 +6110,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CG13" sqref="CG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" style="129" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="129" customWidth="1"/>
-    <col min="3" max="17" width="10.7265625" style="3"/>
-    <col min="18" max="18" width="10.7265625" style="15"/>
-    <col min="19" max="19" width="4.453125" customWidth="1"/>
-    <col min="20" max="29" width="10.7265625" style="3"/>
-    <col min="30" max="30" width="10.7265625" style="1"/>
-    <col min="31" max="32" width="18.453125" style="27" customWidth="1"/>
-    <col min="33" max="33" width="30.26953125" style="27" customWidth="1"/>
-    <col min="34" max="35" width="15" style="27" customWidth="1"/>
-    <col min="36" max="36" width="4.1796875" style="27" customWidth="1"/>
-    <col min="37" max="37" width="14.453125" style="27" customWidth="1"/>
-    <col min="38" max="38" width="18.453125" style="27" customWidth="1"/>
-    <col min="39" max="39" width="1.453125" customWidth="1"/>
-    <col min="40" max="40" width="18.453125" style="27" customWidth="1"/>
-    <col min="41" max="41" width="7.1796875" style="27" customWidth="1"/>
-    <col min="42" max="42" width="13.1796875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="2.453125" style="27" customWidth="1"/>
-    <col min="44" max="44" width="19.1796875" style="27" customWidth="1"/>
-    <col min="45" max="45" width="12.1796875" style="27" customWidth="1"/>
-    <col min="46" max="46" width="18.453125" style="27" customWidth="1"/>
-    <col min="47" max="47" width="6.81640625" style="1" customWidth="1"/>
-    <col min="48" max="52" width="10.7265625" style="3"/>
-    <col min="53" max="53" width="1.453125" style="3" customWidth="1"/>
-    <col min="54" max="56" width="13.453125" style="3" customWidth="1"/>
-    <col min="57" max="58" width="10.7265625" style="3"/>
-    <col min="59" max="60" width="12.453125" style="3" customWidth="1"/>
-    <col min="61" max="61" width="10.7265625" style="3"/>
-    <col min="62" max="62" width="13.453125" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.1796875" style="3" customWidth="1"/>
-    <col min="64" max="68" width="6.453125" style="3" customWidth="1"/>
-    <col min="69" max="69" width="9.1796875" style="3" customWidth="1"/>
-    <col min="70" max="71" width="6.453125" style="3" customWidth="1"/>
-    <col min="72" max="72" width="7.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.15234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69140625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="10.69140625" style="3"/>
+    <col min="18" max="18" width="10.69140625" style="14"/>
+    <col min="19" max="19" width="4.4609375" customWidth="1"/>
+    <col min="20" max="29" width="10.69140625" style="3"/>
+    <col min="30" max="30" width="10.69140625" style="1"/>
+    <col min="31" max="32" width="18.4609375" style="25" customWidth="1"/>
+    <col min="33" max="33" width="30.23046875" style="25" customWidth="1"/>
+    <col min="34" max="35" width="15" style="25" customWidth="1"/>
+    <col min="36" max="36" width="4.15234375" style="25" customWidth="1"/>
+    <col min="37" max="37" width="14.4609375" style="25" customWidth="1"/>
+    <col min="38" max="38" width="18.4609375" style="25" customWidth="1"/>
+    <col min="39" max="39" width="1.4609375" customWidth="1"/>
+    <col min="40" max="40" width="18.4609375" style="25" customWidth="1"/>
+    <col min="41" max="41" width="7.15234375" style="25" customWidth="1"/>
+    <col min="42" max="42" width="13.15234375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="2.4609375" style="25" customWidth="1"/>
+    <col min="44" max="44" width="19.15234375" style="25" customWidth="1"/>
+    <col min="45" max="45" width="12.15234375" style="25" customWidth="1"/>
+    <col min="46" max="46" width="18.4609375" style="25" customWidth="1"/>
+    <col min="47" max="47" width="6.84375" style="1" customWidth="1"/>
+    <col min="48" max="52" width="10.69140625" style="3"/>
+    <col min="53" max="53" width="1.4609375" style="3" customWidth="1"/>
+    <col min="54" max="56" width="13.4609375" style="3" customWidth="1"/>
+    <col min="57" max="58" width="10.69140625" style="3"/>
+    <col min="59" max="60" width="12.4609375" style="3" customWidth="1"/>
+    <col min="61" max="61" width="10.69140625" style="3"/>
+    <col min="62" max="62" width="13.4609375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.15234375" style="3" customWidth="1"/>
+    <col min="64" max="68" width="6.4609375" style="3" customWidth="1"/>
+    <col min="69" max="69" width="9.15234375" style="3" customWidth="1"/>
+    <col min="70" max="71" width="6.4609375" style="3" customWidth="1"/>
+    <col min="72" max="72" width="7.69140625" style="3" customWidth="1"/>
     <col min="73" max="73" width="8" style="3" customWidth="1"/>
-    <col min="74" max="74" width="7.453125" style="3" customWidth="1"/>
-    <col min="75" max="75" width="7.26953125" style="3" customWidth="1"/>
-    <col min="76" max="76" width="7.453125" style="3" customWidth="1"/>
+    <col min="74" max="74" width="7.4609375" style="3" customWidth="1"/>
+    <col min="75" max="75" width="7.23046875" style="3" customWidth="1"/>
+    <col min="76" max="76" width="7.4609375" style="3" customWidth="1"/>
     <col min="77" max="77" width="8" style="3" customWidth="1"/>
-    <col min="78" max="78" width="7.26953125" style="3" customWidth="1"/>
+    <col min="78" max="78" width="7.23046875" style="3" customWidth="1"/>
     <col min="79" max="79" width="8" style="3" customWidth="1"/>
-    <col min="80" max="80" width="8.453125" style="3" customWidth="1"/>
-    <col min="81" max="81" width="1.453125" style="3" customWidth="1"/>
-    <col min="82" max="82" width="10.7265625" style="1"/>
+    <col min="80" max="80" width="8.4609375" style="3" customWidth="1"/>
+    <col min="81" max="81" width="1.4609375" style="3" customWidth="1"/>
+    <col min="82" max="82" width="10.69140625" style="1"/>
     <col min="83" max="83" width="15" style="1" customWidth="1"/>
-    <col min="84" max="84" width="12.26953125" style="1" customWidth="1"/>
-    <col min="85" max="86" width="9.81640625" style="1" customWidth="1"/>
+    <col min="84" max="84" width="12.23046875" style="1" customWidth="1"/>
+    <col min="85" max="86" width="9.84375" style="1" customWidth="1"/>
     <col min="87" max="87" width="1" style="1" customWidth="1"/>
-    <col min="88" max="88" width="15.26953125" style="1" customWidth="1"/>
-    <col min="89" max="89" width="19.453125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="15.23046875" style="1" customWidth="1"/>
+    <col min="89" max="89" width="19.4609375" style="1" customWidth="1"/>
     <col min="90" max="90" width="18" style="1" customWidth="1"/>
     <col min="91" max="91" width="5" style="1" customWidth="1"/>
-    <col min="92" max="103" width="10.7265625" style="1"/>
+    <col min="92" max="103" width="10.69140625" style="1"/>
     <col min="104" max="104" width="3" style="1" customWidth="1"/>
-    <col min="105" max="115" width="10.7265625" style="1"/>
-    <col min="116" max="116" width="3.453125" style="1" customWidth="1"/>
-    <col min="117" max="117" width="6.81640625" style="1" customWidth="1"/>
-    <col min="118" max="125" width="7.7265625" style="1" customWidth="1"/>
-    <col min="126" max="126" width="5.1796875" style="1" customWidth="1"/>
-    <col min="127" max="127" width="7.7265625" style="1" customWidth="1"/>
-    <col min="128" max="128" width="4.453125" style="1" customWidth="1"/>
-    <col min="129" max="129" width="2.453125" style="1" customWidth="1"/>
-    <col min="130" max="139" width="10.7265625" style="1"/>
-    <col min="140" max="140" width="5.81640625" style="1" customWidth="1"/>
+    <col min="105" max="115" width="10.69140625" style="1"/>
+    <col min="116" max="116" width="3.4609375" style="1" customWidth="1"/>
+    <col min="117" max="117" width="6.84375" style="1" customWidth="1"/>
+    <col min="118" max="125" width="7.69140625" style="1" customWidth="1"/>
+    <col min="126" max="126" width="5.15234375" style="1" customWidth="1"/>
+    <col min="127" max="127" width="7.69140625" style="1" customWidth="1"/>
+    <col min="128" max="128" width="4.4609375" style="1" customWidth="1"/>
+    <col min="129" max="129" width="2.4609375" style="1" customWidth="1"/>
+    <col min="130" max="139" width="10.69140625" style="1"/>
+    <col min="140" max="140" width="5.84375" style="1" customWidth="1"/>
     <col min="141" max="141" width="17" style="1" customWidth="1"/>
-    <col min="142" max="142" width="2.453125" style="1" customWidth="1"/>
-    <col min="143" max="146" width="10.7265625" style="1"/>
+    <col min="142" max="142" width="2.4609375" style="1" customWidth="1"/>
+    <col min="143" max="146" width="10.69140625" style="1"/>
     <col min="147" max="147" width="7" style="1" customWidth="1"/>
-    <col min="148" max="152" width="10.7265625" style="1"/>
+    <col min="148" max="152" width="10.69140625" style="1"/>
     <col min="153" max="153" width="9" style="1" customWidth="1"/>
-    <col min="154" max="154" width="10.7265625" style="1"/>
+    <col min="154" max="154" width="10.69140625" style="1"/>
     <col min="155" max="155" width="6" style="1" customWidth="1"/>
-    <col min="156" max="157" width="14.81640625" style="1" customWidth="1"/>
-    <col min="158" max="161" width="10.7265625" style="1"/>
-    <col min="162" max="162" width="11.26953125" style="1" customWidth="1"/>
-    <col min="163" max="163" width="10.7265625" style="1"/>
-    <col min="164" max="164" width="9.1796875" style="1" customWidth="1"/>
-    <col min="165" max="165" width="10.81640625" style="1" customWidth="1"/>
-    <col min="166" max="166" width="9.1796875" style="1" customWidth="1"/>
-    <col min="167" max="167" width="9.453125" style="1" customWidth="1"/>
-    <col min="168" max="169" width="9.1796875" style="1" customWidth="1"/>
-    <col min="170" max="174" width="10.7265625" style="1"/>
-    <col min="175" max="175" width="21.26953125" style="1" customWidth="1"/>
-    <col min="176" max="183" width="10.7265625" style="1"/>
-    <col min="184" max="184" width="12.453125" style="1" customWidth="1"/>
-    <col min="185" max="198" width="10.7265625" style="1"/>
-    <col min="199" max="200" width="10.453125" style="1" customWidth="1"/>
-    <col min="201" max="233" width="10.7265625" style="1"/>
-    <col min="234" max="234" width="14.453125" style="1" customWidth="1"/>
-    <col min="235" max="235" width="10.7265625" style="1"/>
-    <col min="236" max="236" width="13.7265625" style="1" customWidth="1"/>
-    <col min="237" max="247" width="10.7265625" style="1"/>
-    <col min="248" max="250" width="10.7265625" style="166"/>
-    <col min="251" max="251" width="2.453125" style="166" customWidth="1"/>
-    <col min="252" max="254" width="10.7265625" style="166"/>
-    <col min="255" max="255" width="16.1796875" style="166" customWidth="1"/>
-    <col min="256" max="257" width="15.1796875" style="166" customWidth="1"/>
-    <col min="258" max="258" width="3.1796875" style="166" customWidth="1"/>
-    <col min="259" max="260" width="10.7265625" style="166"/>
-    <col min="261" max="16384" width="10.7265625" style="1"/>
+    <col min="156" max="157" width="14.84375" style="1" customWidth="1"/>
+    <col min="158" max="161" width="10.69140625" style="1"/>
+    <col min="162" max="162" width="11.23046875" style="1" customWidth="1"/>
+    <col min="163" max="163" width="10.69140625" style="1"/>
+    <col min="164" max="164" width="9.15234375" style="1" customWidth="1"/>
+    <col min="165" max="165" width="10.84375" style="1" customWidth="1"/>
+    <col min="166" max="166" width="9.15234375" style="1" customWidth="1"/>
+    <col min="167" max="167" width="9.4609375" style="1" customWidth="1"/>
+    <col min="168" max="169" width="9.15234375" style="1" customWidth="1"/>
+    <col min="170" max="174" width="10.69140625" style="1"/>
+    <col min="175" max="175" width="21.23046875" style="1" customWidth="1"/>
+    <col min="176" max="183" width="10.69140625" style="1"/>
+    <col min="184" max="184" width="12.4609375" style="1" customWidth="1"/>
+    <col min="185" max="198" width="10.69140625" style="1"/>
+    <col min="199" max="200" width="10.4609375" style="1" customWidth="1"/>
+    <col min="201" max="233" width="10.69140625" style="1"/>
+    <col min="234" max="234" width="14.4609375" style="1" customWidth="1"/>
+    <col min="235" max="235" width="10.69140625" style="1"/>
+    <col min="236" max="236" width="13.69140625" style="1" customWidth="1"/>
+    <col min="237" max="250" width="10.69140625" style="1"/>
+    <col min="251" max="251" width="2.4609375" style="1" customWidth="1"/>
+    <col min="252" max="254" width="10.69140625" style="1"/>
+    <col min="255" max="255" width="16.15234375" style="1" customWidth="1"/>
+    <col min="256" max="257" width="15.15234375" style="1" customWidth="1"/>
+    <col min="258" max="258" width="3.15234375" style="1" customWidth="1"/>
+    <col min="259" max="16384" width="10.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" ht="22.2">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:260" ht="23">
+      <c r="A1" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -6313,12 +6244,12 @@
       <c r="BJ1"/>
     </row>
     <row r="2" spans="1:260">
-      <c r="A2" s="135"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -6338,30 +6269,30 @@
       <c r="BJ2"/>
       <c r="BL2"/>
     </row>
-    <row r="3" spans="1:260" ht="22.2">
-      <c r="A3" s="136" t="s">
+    <row r="3" spans="1:260" ht="23">
+      <c r="A3" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="118"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="101"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="53"/>
+      <c r="AG3" s="47"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
@@ -6376,38 +6307,38 @@
       <c r="AT3" s="3"/>
       <c r="BD3"/>
       <c r="BJ3"/>
-      <c r="BR3" s="41" t="s">
+      <c r="BR3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="BS3" s="42"/>
+      <c r="BS3" s="38"/>
       <c r="IU3"/>
       <c r="IV3"/>
       <c r="IW3"/>
     </row>
-    <row r="4" spans="1:260" ht="22.2">
-      <c r="A4" s="136" t="s">
+    <row r="4" spans="1:260" ht="23">
+      <c r="A4" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="118"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="101"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="53"/>
+      <c r="AG4" s="47"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
@@ -6422,27 +6353,27 @@
       <c r="AT4" s="3"/>
       <c r="BD4"/>
       <c r="BJ4"/>
-      <c r="BR4" s="72">
+      <c r="BR4" s="64">
         <v>0</v>
       </c>
-      <c r="BS4" s="73">
+      <c r="BS4" s="65">
         <f>BR4</f>
         <v>0</v>
       </c>
-      <c r="IN4" s="166">
+      <c r="IN4" s="1">
         <v>0</v>
       </c>
-      <c r="IO4" s="166">
+      <c r="IO4" s="1">
         <v>0.5</v>
       </c>
-      <c r="IP4" s="166">
+      <c r="IP4" s="1">
         <v>0.5</v>
       </c>
-      <c r="IR4" s="167">
+      <c r="IR4" s="141">
         <f t="shared" ref="IR4:IR5" si="0">IO4/(COS(RADIANS(30)))+IP4*TAN(RADIANS(30))</f>
         <v>0.8660254037844386</v>
       </c>
-      <c r="IS4" s="167">
+      <c r="IS4" s="141">
         <f t="shared" ref="IS4:IS5" si="1">IP4</f>
         <v>0.5</v>
       </c>
@@ -6451,24 +6382,24 @@
       <c r="IW4"/>
     </row>
     <row r="5" spans="1:260">
-      <c r="A5" s="135"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="118"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="101"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -6482,27 +6413,27 @@
       <c r="AQ5" s="3"/>
       <c r="BD5"/>
       <c r="BJ5"/>
-      <c r="BR5" s="72">
+      <c r="BR5" s="64">
         <v>0.1</v>
       </c>
-      <c r="BS5" s="73">
+      <c r="BS5" s="65">
         <f>BR5</f>
         <v>0.1</v>
       </c>
-      <c r="IN5" s="166">
+      <c r="IN5" s="1">
         <v>0.5</v>
       </c>
-      <c r="IO5" s="166">
+      <c r="IO5" s="1">
         <v>0</v>
       </c>
-      <c r="IP5" s="166">
+      <c r="IP5" s="1">
         <v>0.5</v>
       </c>
-      <c r="IR5" s="167">
+      <c r="IR5" s="141">
         <f t="shared" si="0"/>
         <v>0.28867513459481287</v>
       </c>
-      <c r="IS5" s="167">
+      <c r="IS5" s="141">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -6510,30 +6441,30 @@
       <c r="IV5"/>
       <c r="IW5"/>
     </row>
-    <row r="6" spans="1:260" ht="17.399999999999999">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:260" ht="17.5">
+      <c r="A6" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="118"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="115"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="101"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
@@ -6542,10 +6473,10 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="115"/>
-      <c r="AT6" s="115"/>
-      <c r="AU6" s="113"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="22"/>
       <c r="AV6"/>
       <c r="AW6"/>
       <c r="AX6"/>
@@ -6556,28 +6487,28 @@
       <c r="BC6"/>
       <c r="BD6"/>
       <c r="BJ6"/>
-      <c r="BR6" s="74">
+      <c r="BR6" s="66">
         <v>0.5</v>
       </c>
-      <c r="BS6" s="73">
+      <c r="BS6" s="65">
         <f>BR6</f>
         <v>0.5</v>
       </c>
-      <c r="IN6" s="166">
+      <c r="IN6" s="1">
         <v>0</v>
       </c>
-      <c r="IO6" s="166">
+      <c r="IO6" s="1">
         <v>1</v>
       </c>
-      <c r="IP6" s="166">
+      <c r="IP6" s="1">
         <f>GN6</f>
         <v>0</v>
       </c>
-      <c r="IR6" s="167">
+      <c r="IR6" s="141">
         <f t="shared" ref="IR6:IR11" si="2">IO6/(COS(RADIANS(30)))+IP6*TAN(RADIANS(30))</f>
         <v>1.1547005383792515</v>
       </c>
-      <c r="IS6" s="167">
+      <c r="IS6" s="141">
         <f t="shared" ref="IS6:IS11" si="3">IP6</f>
         <v>0</v>
       </c>
@@ -6585,32 +6516,32 @@
       <c r="IV6"/>
       <c r="IW6"/>
     </row>
-    <row r="7" spans="1:260" ht="17.399999999999999">
-      <c r="A7" s="137" t="s">
+    <row r="7" spans="1:260" ht="17.5">
+      <c r="A7" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82" t="s">
+      <c r="B7" s="111"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="118"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="101"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
@@ -6619,43 +6550,43 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="96" t="s">
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
       <c r="BD7"/>
       <c r="BJ7"/>
-      <c r="BR7" s="75">
+      <c r="BR7" s="67">
         <v>1</v>
       </c>
-      <c r="BS7" s="43">
+      <c r="BS7" s="39">
         <f>BR7</f>
         <v>1</v>
       </c>
-      <c r="IN7" s="166">
+      <c r="IN7" s="1">
         <v>1</v>
       </c>
-      <c r="IO7" s="166">
+      <c r="IO7" s="1">
         <v>0</v>
       </c>
-      <c r="IP7" s="166">
+      <c r="IP7" s="1">
         <v>0</v>
       </c>
-      <c r="IR7" s="167">
+      <c r="IR7" s="141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="IS7" s="167">
+      <c r="IS7" s="141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6663,67 +6594,67 @@
       <c r="IV7"/>
       <c r="IW7"/>
     </row>
-    <row r="8" spans="1:260" ht="17.399999999999999">
-      <c r="A8" s="137"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="159">
+    <row r="8" spans="1:260" ht="17.5">
+      <c r="A8" s="117"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="134">
         <v>1</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="118"/>
-      <c r="AH8" s="96" t="s">
+      <c r="H8" s="44"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="101"/>
+      <c r="AH8" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="42"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="38"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
       <c r="AU8" s="3"/>
-      <c r="AV8" s="86" t="s">
+      <c r="AV8" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="88"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="74"/>
       <c r="BD8"/>
       <c r="BJ8"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="93" t="s">
+      <c r="BK8" s="22"/>
+      <c r="BL8" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="69"/>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="69"/>
-      <c r="BQ8" s="69"/>
-      <c r="BR8" s="69"/>
-      <c r="BS8" s="69"/>
-      <c r="BT8" s="69"/>
-      <c r="BU8" s="69"/>
-      <c r="BY8" s="69"/>
+      <c r="BM8" s="22"/>
+      <c r="BN8" s="22"/>
+      <c r="BO8" s="22"/>
+      <c r="BP8" s="22"/>
+      <c r="BQ8" s="22"/>
+      <c r="BR8" s="22"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BY8" s="22"/>
       <c r="CD8"/>
       <c r="CN8" s="1" t="s">
         <v>154</v>
@@ -6743,20 +6674,20 @@
       <c r="IC8" s="1">
         <v>621.15099999999995</v>
       </c>
-      <c r="IN8" s="166">
+      <c r="IN8" s="1">
         <v>0</v>
       </c>
-      <c r="IO8" s="166">
+      <c r="IO8" s="1">
         <v>0</v>
       </c>
-      <c r="IP8" s="166">
+      <c r="IP8" s="1">
         <v>1</v>
       </c>
-      <c r="IR8" s="167">
+      <c r="IR8" s="141">
         <f t="shared" ref="IR8:IR9" si="4">IO8/(COS(RADIANS(30)))+IP8*TAN(RADIANS(30))</f>
         <v>0.57735026918962573</v>
       </c>
-      <c r="IS8" s="167">
+      <c r="IS8" s="141">
         <f t="shared" ref="IS8:IS9" si="5">IP8</f>
         <v>1</v>
       </c>
@@ -6764,71 +6695,66 @@
       <c r="IV8"/>
       <c r="IW8"/>
     </row>
-    <row r="9" spans="1:260" ht="17.399999999999999">
-      <c r="A9" s="137"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="118"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="86" t="s">
+    <row r="9" spans="1:260" ht="17.5">
+      <c r="A9" s="117"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="101"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="42"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="85" t="s">
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="38"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="46"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="41"/>
       <c r="BD9"/>
       <c r="BJ9"/>
-      <c r="BK9" s="69"/>
-      <c r="BL9" s="77" t="s">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="78"/>
-      <c r="BO9" s="78"/>
-      <c r="BP9" s="78"/>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="78"/>
-      <c r="BU9" s="78"/>
-      <c r="BV9" s="26"/>
-      <c r="BW9" s="26"/>
-      <c r="BX9" s="26"/>
-      <c r="BY9" s="78"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22"/>
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BY9" s="22"/>
       <c r="CD9"/>
       <c r="CN9" s="1" t="s">
         <v>1</v>
@@ -6901,20 +6827,20 @@
       <c r="IC9" s="1">
         <v>-1.22</v>
       </c>
-      <c r="IN9" s="166">
+      <c r="IN9" s="1">
         <v>1</v>
       </c>
-      <c r="IO9" s="166">
+      <c r="IO9" s="1">
         <v>0</v>
       </c>
-      <c r="IP9" s="166">
+      <c r="IP9" s="1">
         <v>0</v>
       </c>
-      <c r="IR9" s="167">
+      <c r="IR9" s="141">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="IS9" s="167">
+      <c r="IS9" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6923,75 +6849,66 @@
       <c r="IW9"/>
     </row>
     <row r="10" spans="1:260" ht="18" thickBot="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="118"/>
-      <c r="AE10" s="161" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="101"/>
+      <c r="AE10" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="142"/>
-      <c r="AH10" s="85" t="s">
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="95"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="116"/>
-      <c r="AS10" s="116"/>
-      <c r="AT10" s="116"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="85" t="s">
+      <c r="AL10" s="83"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="73"/>
+      <c r="BC10" s="65"/>
       <c r="BD10"/>
       <c r="BJ10"/>
-      <c r="BK10" s="69"/>
-      <c r="BL10" s="79" t="s">
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="BM10" s="80"/>
-      <c r="BN10" s="80"/>
-      <c r="BO10" s="80"/>
-      <c r="BP10" s="80"/>
-      <c r="BQ10" s="80"/>
-      <c r="BR10" s="80"/>
-      <c r="BS10" s="80"/>
-      <c r="BT10" s="80"/>
-      <c r="BU10" s="80"/>
-      <c r="BV10" s="80"/>
-      <c r="BW10" s="80"/>
-      <c r="BX10" s="80"/>
-      <c r="BY10" s="80"/>
-      <c r="BZ10" s="80"/>
-      <c r="CA10" s="78"/>
-      <c r="CB10" s="69"/>
+      <c r="BM10" s="71"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="71"/>
+      <c r="BP10" s="71"/>
+      <c r="BQ10" s="71"/>
+      <c r="BR10" s="71"/>
+      <c r="BS10" s="71"/>
+      <c r="BT10" s="71"/>
+      <c r="BU10" s="71"/>
+      <c r="BV10" s="71"/>
+      <c r="BW10" s="71"/>
+      <c r="BX10" s="71"/>
+      <c r="BY10" s="71"/>
+      <c r="BZ10" s="71"/>
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
       <c r="CD10"/>
       <c r="CN10" s="1">
         <v>60.084299999999999</v>
@@ -7061,20 +6978,20 @@
       <c r="IC10" s="1">
         <v>-4.62</v>
       </c>
-      <c r="IN10" s="166">
+      <c r="IN10" s="1">
         <v>0</v>
       </c>
-      <c r="IO10" s="166">
+      <c r="IO10" s="1">
         <v>0</v>
       </c>
-      <c r="IP10" s="166">
+      <c r="IP10" s="1">
         <v>1</v>
       </c>
-      <c r="IR10" s="167">
+      <c r="IR10" s="141">
         <f t="shared" si="2"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="IS10" s="167">
+      <c r="IS10" s="141">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7083,97 +7000,97 @@
       <c r="IW10"/>
     </row>
     <row r="11" spans="1:260" ht="18" thickBot="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="124" t="s">
+      <c r="A11" s="117"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="Q11" s="113"/>
-      <c r="T11" s="124" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="Q11" s="22"/>
+      <c r="T11" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="126"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="100" t="s">
+      <c r="U11" s="108"/>
+      <c r="V11" s="109"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="99"/>
-      <c r="AN11" s="102" t="s">
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="87"/>
+      <c r="AN11" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AV11" s="47" t="s">
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AV11" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
-      <c r="BC11" s="49"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="44"/>
       <c r="BD11"/>
-      <c r="BE11" s="28" t="s">
+      <c r="BE11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="BF11" s="28"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="28"/>
-      <c r="BI11" s="28"/>
-      <c r="BJ11" s="28"/>
-      <c r="BK11" s="68"/>
-      <c r="BL11" s="28" t="s">
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BM11" s="28"/>
-      <c r="BN11" s="28"/>
-      <c r="BO11" s="28"/>
-      <c r="BP11" s="28"/>
-      <c r="BQ11" s="28"/>
-      <c r="BR11" s="28"/>
-      <c r="BS11" s="68"/>
-      <c r="BT11" s="28" t="s">
+      <c r="BM11" s="26"/>
+      <c r="BN11" s="26"/>
+      <c r="BO11" s="26"/>
+      <c r="BP11" s="26"/>
+      <c r="BQ11" s="26"/>
+      <c r="BR11" s="26"/>
+      <c r="BS11" s="61"/>
+      <c r="BT11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="BU11" s="28"/>
-      <c r="BV11" s="28"/>
-      <c r="BW11" s="28"/>
-      <c r="BX11" s="28"/>
-      <c r="BY11" s="28"/>
-      <c r="BZ11" s="28"/>
-      <c r="CA11" s="28"/>
-      <c r="CB11" s="68"/>
-      <c r="CC11" s="28"/>
-      <c r="CD11" s="158" t="s">
+      <c r="BU11" s="26"/>
+      <c r="BV11" s="26"/>
+      <c r="BW11" s="26"/>
+      <c r="BX11" s="26"/>
+      <c r="BY11" s="26"/>
+      <c r="BZ11" s="26"/>
+      <c r="CA11" s="26"/>
+      <c r="CB11" s="61"/>
+      <c r="CC11" s="26"/>
+      <c r="CD11" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="CE11" s="30"/>
-      <c r="CF11" s="30"/>
-      <c r="CG11" s="29"/>
-      <c r="CH11" s="29"/>
-      <c r="CI11" s="50"/>
-      <c r="CJ11" s="30"/>
-      <c r="CK11" s="30"/>
-      <c r="CL11" s="30"/>
+      <c r="CE11" s="28"/>
+      <c r="CF11" s="28"/>
+      <c r="CG11" s="27"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="28"/>
       <c r="EQ11"/>
       <c r="ER11"/>
       <c r="ES11"/>
@@ -7207,147 +7124,145 @@
       <c r="IC11" s="1">
         <v>-7.7729999999999997</v>
       </c>
-      <c r="IN11" s="166">
+      <c r="IN11" s="1">
         <v>0</v>
       </c>
-      <c r="IO11" s="166">
+      <c r="IO11" s="1">
         <v>1</v>
       </c>
-      <c r="IP11" s="166">
+      <c r="IP11" s="1">
         <v>0</v>
       </c>
-      <c r="IR11" s="167">
+      <c r="IR11" s="141">
         <f t="shared" si="2"/>
         <v>1.1547005383792515</v>
       </c>
-      <c r="IS11" s="167">
+      <c r="IS11" s="141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:260" ht="18" thickBot="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="76" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="68"/>
-      <c r="AE12" s="144" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="61"/>
+      <c r="AE12" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="103" t="s">
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="AN12" s="104" t="s">
+      <c r="AN12" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="105"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="107" t="s">
+      <c r="AO12" s="91"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="106"/>
-      <c r="AV12" s="28" t="s">
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="93"/>
+      <c r="AV12" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28" t="s">
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="28"/>
-      <c r="BL12" s="71" t="s">
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="26"/>
+      <c r="BL12" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="BM12" s="31"/>
-      <c r="BN12" s="31"/>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="31"/>
-      <c r="BQ12" s="31"/>
-      <c r="BR12" s="31"/>
-      <c r="BT12" s="71" t="s">
+      <c r="BM12" s="29"/>
+      <c r="BN12" s="29"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="29"/>
+      <c r="BR12" s="29"/>
+      <c r="BT12" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BX12" s="31"/>
-      <c r="BY12" s="31"/>
-      <c r="BZ12" s="31"/>
-      <c r="CA12" s="31"/>
-      <c r="CC12" s="33"/>
-      <c r="CD12" s="34" t="s">
+      <c r="BU12" s="29"/>
+      <c r="BV12" s="29"/>
+      <c r="BW12" s="29"/>
+      <c r="BX12" s="29"/>
+      <c r="BY12" s="29"/>
+      <c r="BZ12" s="29"/>
+      <c r="CA12" s="29"/>
+      <c r="CC12" s="30"/>
+      <c r="CD12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="CE12" s="34"/>
-      <c r="CF12" s="34"/>
-      <c r="CG12" s="35"/>
-      <c r="CH12" s="35"/>
-      <c r="CI12" s="51"/>
-      <c r="CJ12" s="34"/>
-      <c r="CK12" s="34"/>
-      <c r="CL12" s="34"/>
-      <c r="CM12" s="5"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="32"/>
+      <c r="CH12" s="32"/>
+      <c r="CI12" s="45"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
       <c r="CN12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DA12" s="55" t="s">
+      <c r="DA12" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="DB12" s="56"/>
-      <c r="DC12" s="56"/>
-      <c r="DD12" s="56"/>
-      <c r="DE12" s="56"/>
-      <c r="DF12" s="56"/>
-      <c r="DG12" s="56"/>
-      <c r="DH12" s="56"/>
-      <c r="DI12" s="56"/>
-      <c r="DJ12" s="56"/>
-      <c r="DK12" s="57"/>
+      <c r="DB12" s="50"/>
+      <c r="DC12" s="50"/>
+      <c r="DD12" s="50"/>
+      <c r="DE12" s="50"/>
+      <c r="DF12" s="50"/>
+      <c r="DG12" s="50"/>
+      <c r="DH12" s="50"/>
+      <c r="DI12" s="50"/>
+      <c r="DJ12" s="50"/>
+      <c r="DK12" s="51"/>
       <c r="DN12" s="1" t="s">
         <v>120</v>
       </c>
       <c r="DZ12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="EM12" s="55" t="s">
+      <c r="EM12" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="EN12" s="56"/>
-      <c r="EO12" s="56"/>
-      <c r="EP12" s="56"/>
-      <c r="EQ12" s="63"/>
-      <c r="ER12" s="63"/>
-      <c r="ES12" s="63"/>
-      <c r="ET12" s="56"/>
-      <c r="EU12" s="56"/>
-      <c r="EV12" s="56"/>
-      <c r="EW12" s="56"/>
-      <c r="EX12" s="56"/>
-      <c r="EY12" s="57"/>
+      <c r="EN12" s="50"/>
+      <c r="EO12" s="50"/>
+      <c r="EP12" s="50"/>
+      <c r="EQ12" s="56"/>
+      <c r="ER12" s="56"/>
+      <c r="ES12" s="56"/>
+      <c r="ET12" s="50"/>
+      <c r="EU12" s="50"/>
+      <c r="EV12" s="50"/>
+      <c r="EW12" s="50"/>
+      <c r="EX12" s="50"/>
+      <c r="EY12" s="51"/>
       <c r="EZ12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="FQ12" s="5" t="s">
+      <c r="FQ12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="FR12" s="5"/>
       <c r="FS12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7367,178 +7282,167 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:260" ht="20.399999999999999" thickBot="1">
-      <c r="A13" s="135" t="s">
+    <row r="13" spans="1:260" ht="20" thickBot="1">
+      <c r="A13" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="120" t="s">
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="T13" s="127" t="s">
+      <c r="T13" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
       <c r="AD13"/>
-      <c r="AE13" s="111" t="s">
+      <c r="AE13" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="108" t="s">
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="108" t="s">
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="97" t="s">
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="97" t="s">
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="98"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="86"/>
       <c r="AU13"/>
-      <c r="AV13" s="33" t="s">
+      <c r="AV13" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33" t="s">
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33" t="s">
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="33" t="s">
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="BF13" s="33" t="s">
+      <c r="BF13" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="BG13" s="33" t="s">
+      <c r="BG13" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="BH13" s="33" t="s">
+      <c r="BH13" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="BI13" s="33" t="s">
+      <c r="BI13" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="BJ13" s="117" t="s">
+      <c r="BJ13" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="BL13" s="117" t="s">
+      <c r="BL13" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="BM13" s="33">
+      <c r="BM13" s="30">
         <v>3.2</v>
       </c>
-      <c r="BN13" s="33">
+      <c r="BN13" s="30">
         <v>3.4</v>
       </c>
-      <c r="BO13" s="33">
+      <c r="BO13" s="30">
         <v>3.5</v>
       </c>
-      <c r="BP13" s="33">
+      <c r="BP13" s="30">
         <v>3.6</v>
       </c>
-      <c r="BQ13" s="33">
+      <c r="BQ13" s="30">
         <v>3.7</v>
       </c>
-      <c r="BR13" s="33"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="33"/>
-      <c r="BY13" s="33"/>
-      <c r="BZ13" s="33"/>
-      <c r="CA13" s="33"/>
-      <c r="CC13" s="33"/>
-      <c r="CD13" s="36" t="s">
+      <c r="BR13" s="30"/>
+      <c r="BT13" s="30"/>
+      <c r="BU13" s="30"/>
+      <c r="BV13" s="30"/>
+      <c r="BW13" s="30"/>
+      <c r="BX13" s="30"/>
+      <c r="BY13" s="30"/>
+      <c r="BZ13" s="30"/>
+      <c r="CA13" s="30"/>
+      <c r="CC13" s="30"/>
+      <c r="CD13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="CE13" s="36" t="s">
+      <c r="CE13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="CF13" s="36" t="s">
+      <c r="CF13" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="CG13" s="36" t="s">
+      <c r="CG13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="CH13" s="36" t="s">
+      <c r="CH13" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="36" t="s">
+      <c r="CJ13" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="CK13" s="36" t="s">
+      <c r="CK13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="CL13" s="30" t="s">
+      <c r="CL13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="CM13" s="5"/>
       <c r="CN13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DA13" s="58" t="s">
+      <c r="DA13" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="DB13" s="5"/>
-      <c r="DC13" s="5"/>
-      <c r="DD13" s="5"/>
-      <c r="DE13" s="5"/>
-      <c r="DF13" s="5"/>
-      <c r="DG13" s="5"/>
-      <c r="DH13" s="5"/>
-      <c r="DI13" s="5"/>
-      <c r="DJ13" s="5"/>
-      <c r="DK13" s="59"/>
+      <c r="DK13" s="53"/>
       <c r="DN13" s="1" t="s">
         <v>45</v>
       </c>
@@ -7551,21 +7455,10 @@
       <c r="EK13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EM13" s="58" t="s">
+      <c r="EM13" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="EN13" s="5"/>
-      <c r="EO13" s="5"/>
-      <c r="EP13" s="5"/>
-      <c r="EQ13" s="5"/>
-      <c r="ER13" s="5"/>
-      <c r="ES13" s="5"/>
-      <c r="ET13" s="5"/>
-      <c r="EU13" s="5"/>
-      <c r="EV13" s="5"/>
-      <c r="EW13" s="5"/>
-      <c r="EX13" s="5"/>
-      <c r="EY13" s="59" t="s">
+      <c r="EY13" s="53" t="s">
         <v>6</v>
       </c>
       <c r="EZ13" s="1" t="s">
@@ -7574,28 +7467,28 @@
       <c r="FA13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="FB13" s="55" t="s">
+      <c r="FB13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="FC13" s="56"/>
-      <c r="FD13" s="56"/>
-      <c r="FE13" s="56"/>
-      <c r="FF13" s="56"/>
-      <c r="FG13" s="56"/>
-      <c r="FH13" s="56" t="s">
+      <c r="FC13" s="50"/>
+      <c r="FD13" s="50"/>
+      <c r="FE13" s="50"/>
+      <c r="FF13" s="50"/>
+      <c r="FG13" s="50"/>
+      <c r="FH13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="FI13" s="57"/>
+      <c r="FI13" s="51"/>
       <c r="FK13" s="1">
         <v>1996</v>
       </c>
       <c r="FL13" s="1">
         <v>2003</v>
       </c>
-      <c r="FQ13" s="5" t="s">
+      <c r="FQ13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="FR13" s="5" t="s">
+      <c r="FR13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="FS13" s="1" t="s">
@@ -7634,274 +7527,273 @@
       <c r="GY13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="HZ13" s="6" t="s">
+      <c r="HZ13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="IA13" s="6"/>
-      <c r="IB13" s="6" t="s">
+      <c r="IA13" s="5"/>
+      <c r="IB13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="IC13" s="6"/>
-      <c r="ID13" s="6" t="s">
+      <c r="IC13" s="5"/>
+      <c r="ID13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="IE13" s="26"/>
-      <c r="IN13" s="168" t="s">
+      <c r="IE13" s="3"/>
+      <c r="IN13" s="142" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:260" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="121" t="s">
+      <c r="R14" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="U14" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="V14" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="W14" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Z14" s="22" t="s">
+      <c r="Z14" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AA14" s="22" t="s">
+      <c r="AA14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AB14" s="22" t="s">
+      <c r="AB14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AC14" s="22" t="s">
+      <c r="AC14" s="21" t="s">
         <v>130</v>
       </c>
       <c r="AD14"/>
-      <c r="AE14" s="160" t="s">
+      <c r="AE14" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="AF14" s="164" t="s">
+      <c r="AF14" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="AG14" s="164" t="s">
+      <c r="AG14" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="AH14" s="89" t="s">
+      <c r="AH14" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="AI14" s="89" t="s">
+      <c r="AI14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="89" t="s">
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="AL14" s="89" t="s">
+      <c r="AL14" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="89" t="s">
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="AO14" s="89" t="s">
+      <c r="AO14" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="AP14" s="89" t="s">
+      <c r="AP14" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="89" t="s">
+      <c r="AQ14" s="79"/>
+      <c r="AR14" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="AS14" s="89" t="s">
+      <c r="AS14" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AT14" s="89" t="s">
+      <c r="AT14" s="78" t="s">
         <v>215</v>
       </c>
       <c r="AU14"/>
-      <c r="AV14" s="37" t="s">
+      <c r="AV14" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="AW14" s="37" t="s">
+      <c r="AW14" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="AX14" s="37" t="s">
+      <c r="AX14" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="AY14" s="37" t="s">
+      <c r="AY14" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="AZ14" s="37" t="s">
+      <c r="AZ14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="BA14" s="32"/>
-      <c r="BB14" s="37" t="s">
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="BC14" s="37" t="s">
+      <c r="BC14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="BD14" s="37" t="s">
+      <c r="BD14" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="BE14" s="37" t="s">
+      <c r="BE14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="BF14" s="37" t="s">
+      <c r="BF14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="BG14" s="37" t="s">
+      <c r="BG14" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="BH14" s="37" t="s">
+      <c r="BH14" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="BI14" s="37" t="s">
+      <c r="BI14" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="BJ14" s="117" t="s">
+      <c r="BJ14" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="BK14" s="113" t="s">
+      <c r="BK14" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="BL14" s="37" t="s">
+      <c r="BL14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BM14" s="37" t="s">
+      <c r="BM14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="BN14" s="37" t="s">
+      <c r="BN14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BO14" s="37" t="s">
+      <c r="BO14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="BP14" s="37" t="s">
+      <c r="BP14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BQ14" s="37" t="s">
+      <c r="BQ14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="BR14" s="37" t="s">
+      <c r="BR14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="BT14" s="37" t="s">
+      <c r="BT14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BU14" s="37" t="str">
+      <c r="BU14" s="33" t="str">
         <f t="shared" ref="BU14:BU18" si="6">FG14</f>
         <v>EnFs</v>
       </c>
-      <c r="BV14" s="37" t="str">
+      <c r="BV14" s="33" t="str">
         <f t="shared" ref="BV14:BV18" si="7">FC14</f>
         <v>CaTs</v>
       </c>
-      <c r="BW14" s="37" t="str">
+      <c r="BW14" s="33" t="str">
         <f t="shared" ref="BW14:BW18" si="8">FB14</f>
         <v>Jd</v>
       </c>
-      <c r="BX14" s="37" t="str">
+      <c r="BX14" s="33" t="str">
         <f t="shared" ref="BX14:BY18" si="9">FD14</f>
         <v>CaTi</v>
       </c>
-      <c r="BY14" s="37" t="str">
+      <c r="BY14" s="33" t="str">
         <f t="shared" si="9"/>
         <v>CrCaTs</v>
       </c>
-      <c r="BZ14" s="37" t="s">
+      <c r="BZ14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="CA14" s="37" t="s">
+      <c r="CA14" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="CC14" s="33"/>
-      <c r="CD14" s="38" t="s">
+      <c r="CC14" s="30"/>
+      <c r="CD14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="CE14" s="38" t="s">
+      <c r="CE14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="CF14" s="38" t="s">
+      <c r="CF14" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="CG14" s="38" t="s">
+      <c r="CG14" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="CH14" s="38" t="s">
+      <c r="CH14" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="CI14" s="52"/>
-      <c r="CJ14" s="38" t="s">
+      <c r="CI14" s="46"/>
+      <c r="CJ14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="CK14" s="38" t="s">
+      <c r="CK14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="CL14" s="39" t="s">
+      <c r="CL14" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="CM14" s="5"/>
       <c r="CN14" s="1" t="s">
         <v>1</v>
       </c>
@@ -7938,40 +7830,40 @@
       <c r="CY14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DA14" s="60" t="s">
+      <c r="DA14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="DB14" s="61" t="s">
+      <c r="DB14" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="DC14" s="61" t="s">
+      <c r="DC14" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="DD14" s="61" t="s">
+      <c r="DD14" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="DE14" s="61" t="s">
+      <c r="DE14" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="DF14" s="61" t="s">
+      <c r="DF14" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="DG14" s="61" t="s">
+      <c r="DG14" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="DH14" s="61" t="s">
+      <c r="DH14" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="DI14" s="61" t="s">
+      <c r="DI14" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="DJ14" s="61" t="s">
+      <c r="DJ14" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="DK14" s="62" t="s">
+      <c r="DK14" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="DM14" s="157" t="s">
+      <c r="DM14" t="s">
         <v>236</v>
       </c>
       <c r="DN14" s="1" t="s">
@@ -8043,43 +7935,43 @@
       <c r="EK14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="EM14" s="60" t="s">
+      <c r="EM14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="EN14" s="61" t="s">
+      <c r="EN14" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="EO14" s="61" t="s">
+      <c r="EO14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="EP14" s="61" t="s">
+      <c r="EP14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="EQ14" s="61" t="s">
+      <c r="EQ14" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="ER14" s="61" t="s">
+      <c r="ER14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="ES14" s="61" t="s">
+      <c r="ES14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="ET14" s="61" t="s">
+      <c r="ET14" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="EU14" s="61" t="s">
+      <c r="EU14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="EV14" s="61" t="s">
+      <c r="EV14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="EW14" s="61" t="s">
+      <c r="EW14" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="EX14" s="61" t="s">
+      <c r="EX14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="EY14" s="62" t="s">
+      <c r="EY14" s="55" t="s">
         <v>56</v>
       </c>
       <c r="EZ14" s="1" t="s">
@@ -8088,28 +7980,28 @@
       <c r="FA14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="FB14" s="64" t="s">
+      <c r="FB14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="FC14" s="65" t="s">
+      <c r="FC14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="FD14" s="65" t="s">
+      <c r="FD14" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="FE14" s="65" t="s">
+      <c r="FE14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="FF14" s="65" t="s">
+      <c r="FF14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="FG14" s="65" t="s">
+      <c r="FG14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="FH14" s="61" t="s">
+      <c r="FH14" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="FI14" s="62" t="s">
+      <c r="FI14" s="55" t="s">
         <v>34</v>
       </c>
       <c r="FJ14" s="1" t="s">
@@ -8133,19 +8025,19 @@
       <c r="FP14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FQ14" s="5" t="s">
+      <c r="FQ14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="FR14" s="5" t="s">
+      <c r="FR14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="FS14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="FT14" s="66" t="s">
+      <c r="FT14" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="FU14" s="157" t="s">
+      <c r="FU14" t="s">
         <v>235</v>
       </c>
       <c r="FW14" s="1" t="s">
@@ -8245,86 +8137,86 @@
         <v>92</v>
       </c>
       <c r="HD14" s="4"/>
-      <c r="HE14" s="7" t="s">
+      <c r="HE14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="HF14" s="7" t="s">
+      <c r="HF14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="HG14" s="7" t="s">
+      <c r="HG14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="HH14" s="7" t="s">
+      <c r="HH14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="HI14" s="8" t="s">
+      <c r="HI14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="HJ14" s="7" t="s">
+      <c r="HJ14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="HK14" s="7" t="s">
+      <c r="HK14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="HL14" s="7" t="s">
+      <c r="HL14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="HM14" s="7" t="s">
+      <c r="HM14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="HN14" s="7" t="s">
+      <c r="HN14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="HO14" s="7" t="s">
+      <c r="HO14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="HP14" s="7" t="s">
+      <c r="HP14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="HQ14" s="7" t="s">
+      <c r="HQ14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="HR14" s="7" t="s">
+      <c r="HR14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="HS14" s="9" t="s">
+      <c r="HS14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="HT14" s="10"/>
-      <c r="HU14" s="11" t="s">
+      <c r="HT14" s="9"/>
+      <c r="HU14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="HV14" s="11" t="s">
+      <c r="HV14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="HW14" s="11" t="s">
+      <c r="HW14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="HX14" s="11" t="s">
+      <c r="HX14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="HY14" s="12" t="s">
+      <c r="HY14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="HZ14" s="13" t="s">
+      <c r="HZ14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="IA14" s="13" t="s">
+      <c r="IA14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="IB14" s="13" t="s">
+      <c r="IB14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="IC14" s="13" t="s">
+      <c r="IC14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="ID14" s="13" t="s">
+      <c r="ID14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="IE14" s="171" t="s">
+      <c r="IE14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="IF14" s="12" t="s">
+      <c r="IF14" s="11" t="s">
         <v>76</v>
       </c>
       <c r="IG14" s="3" t="s">
@@ -8333,347 +8225,347 @@
       <c r="IH14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="II14" s="8" t="s">
+      <c r="II14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="IJ14" s="14" t="s">
+      <c r="IJ14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="IK14" s="11" t="s">
+      <c r="IK14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="IN14" s="170" t="s">
+      <c r="IN14" s="143" t="s">
         <v>241</v>
       </c>
-      <c r="IO14" s="170" t="s">
+      <c r="IO14" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="IP14" s="170" t="s">
+      <c r="IP14" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="IR14" s="169" t="s">
+      <c r="IR14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="IS14" s="169" t="s">
+      <c r="IS14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="IU14" s="169" t="str">
+      <c r="IU14" s="3" t="str">
         <f>IN14</f>
         <v>En</v>
       </c>
-      <c r="IV14" s="169" t="str">
+      <c r="IV14" s="3" t="str">
         <f>IO14</f>
         <v>Fs</v>
       </c>
-      <c r="IW14" s="169" t="str">
+      <c r="IW14" s="3" t="str">
         <f>IP14</f>
         <v>Wo</v>
       </c>
-      <c r="IX14" s="169"/>
-      <c r="IY14" s="169" t="s">
+      <c r="IX14" s="3"/>
+      <c r="IY14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="IZ14" s="169" t="s">
+      <c r="IZ14" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:260" ht="13.2">
-      <c r="A15" s="139" t="s">
+    <row r="15" spans="1:260">
+      <c r="A15" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="22">
         <f>10*J15</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="99">
         <f ca="1">AK15-273.15</f>
         <v>1156.5368752259269</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <f ca="1">BL15-BT15</f>
         <v>1.2400560687270357E-2</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="106">
         <v>51.1</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="106">
         <v>0.93</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="106">
         <v>17.5</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="106">
         <v>8.91</v>
       </c>
-      <c r="J15" s="123">
+      <c r="J15" s="106">
         <v>0.18</v>
       </c>
-      <c r="K15" s="132">
+      <c r="K15" s="114">
         <v>6.09</v>
       </c>
-      <c r="L15" s="123">
+      <c r="L15" s="106">
         <v>11.5</v>
       </c>
-      <c r="M15" s="123">
+      <c r="M15" s="106">
         <v>3.53</v>
       </c>
-      <c r="N15" s="123">
+      <c r="N15" s="106">
         <v>0.17</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="106">
         <v>0</v>
       </c>
-      <c r="P15" s="123">
+      <c r="P15" s="106">
         <v>0.15</v>
       </c>
-      <c r="Q15" s="123">
+      <c r="Q15" s="106">
         <v>3.8</v>
       </c>
-      <c r="R15" s="119">
+      <c r="R15" s="102">
         <f t="shared" ref="R15:R18" ca="1" si="10">0.7996+15.347*(AI15/10)^0.5-0.00233*(AH15-273.15)+0.06248*(N15+M15)</f>
         <v>-0.21657732846339656</v>
       </c>
-      <c r="T15" s="123">
+      <c r="T15" s="106">
         <v>51.5</v>
       </c>
-      <c r="U15" s="123">
+      <c r="U15" s="106">
         <v>0.5</v>
       </c>
-      <c r="V15" s="123">
+      <c r="V15" s="106">
         <v>3.7</v>
       </c>
-      <c r="W15" s="123">
+      <c r="W15" s="106">
         <v>5.18</v>
       </c>
-      <c r="X15" s="123">
+      <c r="X15" s="106">
         <v>0.09</v>
       </c>
-      <c r="Y15" s="123">
+      <c r="Y15" s="106">
         <v>15.8</v>
       </c>
-      <c r="Z15" s="123">
+      <c r="Z15" s="106">
         <v>22.8</v>
       </c>
-      <c r="AA15" s="123">
+      <c r="AA15" s="106">
         <v>0.24</v>
       </c>
-      <c r="AB15" s="123">
+      <c r="AB15" s="106">
         <v>0</v>
       </c>
-      <c r="AC15" s="123">
+      <c r="AC15" s="106">
         <v>0.66</v>
       </c>
-      <c r="AE15" s="112">
+      <c r="AE15" s="98">
         <f ca="1">10^4/(7.53-0.14*FK15+0.07*Q15-14.9*DG15*DA15-0.08*LN(DB15)-3.62*(DH15+DI15)-1.1*DF15/(DF15+DD15)-0.18*LN(FG15)-0.027*AG15)</f>
         <v>1344.7001329487964</v>
       </c>
-      <c r="AF15" s="165">
+      <c r="AF15" s="140">
         <f ca="1">AE15-273.15</f>
         <v>1071.5501329487965</v>
       </c>
-      <c r="AG15" s="165">
+      <c r="AG15" s="140">
         <f ca="1">-26.2712+39.16138*AE15*FJ15/10^4-4.21676*LN(FI15)+78.43463*DC15+393.8126*(DH15+DI15)^2</f>
         <v>0.96064373117069501</v>
       </c>
-      <c r="AH15" s="91">
+      <c r="AH15" s="80">
         <f ca="1">AX15</f>
         <v>1421.0407376170358</v>
       </c>
-      <c r="AI15" s="91">
+      <c r="AI15" s="80">
         <f ca="1">AT15</f>
         <v>8.6485284337609158E-2</v>
       </c>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="91">
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80">
         <f t="shared" ref="AK15:AL19" ca="1" si="11">BB15</f>
         <v>1429.686875225927</v>
       </c>
-      <c r="AL15" s="91">
+      <c r="AL15" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>0.94800232896399406</v>
       </c>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91">
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80">
         <f ca="1">10^4/(7.53-0.14*FK15+0.07*Q15-14.9*DG15*DA15-0.08*LN(DB15)-3.62*(DH15+DI15)-1.1*DF15/(DF15+DD15)-0.18*LN(FG15)-0.027*AP15)</f>
         <v>1335.5800858545699</v>
       </c>
-      <c r="AO15" s="91">
+      <c r="AO15" s="80">
         <f ca="1">AN15-273.15</f>
         <v>1062.4300858545698</v>
       </c>
-      <c r="AP15" s="91">
+      <c r="AP15" s="80">
         <f ca="1">IF(ABS(FB15)&gt;0,-54.3+299*(AN15)/10^4+36.4*(AN15)*FJ15/10^4+367*DH15*DC15,0)</f>
         <v>-0.92013599246362432</v>
       </c>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91">
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80">
         <f ca="1">10^4/(6.39+0.076*Q15-5.55*DG15*DA15-0.386*LN(DF15)-0.046*AT15+2.2*10^-4*(AT15^2))</f>
         <v>1363.023673699824</v>
       </c>
-      <c r="AS15" s="91">
+      <c r="AS15" s="80">
         <f ca="1">AR15-273.15</f>
         <v>1089.8736736998239</v>
       </c>
-      <c r="AT15" s="40">
+      <c r="AT15" s="36">
         <f ca="1">-54.3+299*(AR15)/10^4+36.4*(AR15)*FJ15/10^4+367*DH15*DC15</f>
         <v>8.6485284337609158E-2</v>
       </c>
-      <c r="AV15" s="40">
+      <c r="AV15" s="36">
         <f>IF(ABS(FB15)&gt;0,10^4/(6.73-0.26*FK15-0.86*LN(FM15)+0.52*LN(DG15)),0)</f>
         <v>1423.8053656325776</v>
       </c>
-      <c r="AW15" s="40">
+      <c r="AW15" s="36">
         <f>IF(AV15&gt;0,AV15-273.15,0)</f>
         <v>1150.6553656325777</v>
       </c>
-      <c r="AX15" s="40">
+      <c r="AX15" s="36">
         <f ca="1">IF(ABS(FB15)&gt;0,10^4/(6.59-0.16*FK15-0.65*LN(FM15)+0.23*LN(DG15)-0.02*AT15),0)</f>
         <v>1421.0407376170358</v>
       </c>
-      <c r="AY15" s="40">
+      <c r="AY15" s="36">
         <f ca="1">IF(AX15&gt;0,AX15-273.15,0)</f>
         <v>1147.8907376170359</v>
       </c>
-      <c r="AZ15" s="40">
+      <c r="AZ15" s="36">
         <f ca="1">IF(ABS(FB15)&gt;0,-54.3+299*(AX15)/10^4+36.4*(AX15)*FJ15/10^4+367*DH15*DC15,0)</f>
         <v>2.2145310517463539</v>
       </c>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="40">
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36">
         <f ca="1">IF(ABS(FB15)&gt;0,10^4/(4.6-0.437*FL15-0.654*LN(FM15)-0.326*LN(DH15)-0.92*LN(DA15)+0.274*LN(FB15)-0.00632*BC15),0)</f>
         <v>1429.686875225927</v>
       </c>
-      <c r="BC15" s="40">
+      <c r="BC15" s="36">
         <f ca="1">IF(ABS(FB15)&gt;0,-88.3+0.00282*(BB15)*FJ15+0.0219*(BB15)-25.1*LN(DG15*DA15)+12.4*LN(DG15)+7.03*FM15,0)</f>
         <v>0.94800232896399406</v>
       </c>
-      <c r="BD15" s="40">
+      <c r="BD15" s="36">
         <f ca="1">BB15-273.15</f>
         <v>1156.5368752259269</v>
       </c>
-      <c r="BE15" s="40">
+      <c r="BE15" s="36">
         <f ca="1">-48.7+271.3*AH15/10^4+31.96*(AH15/10^4)*FJ15-8.2*LN(DD15)+4.6*LN(DF15)-0.96*LN(DI15)-2.2*LN(FI15)-31*FM15+56.2*(DH15+DI15)+0.76*Q15</f>
         <v>4.8011868052980464</v>
       </c>
-      <c r="BF15" s="40">
+      <c r="BF15" s="36">
         <f ca="1">-40.73+358*AH15/10^4+21.7*(AH15/10^4)*FJ15-106*DG15-166*(DH15+DI15)^2-50.2*DA15*(DD15+DF15)-3.2*LN(FI15)-2.2*LN(FG15)+0.86*LN(EQ15)+0.4*Q15</f>
         <v>5.1490615818901198</v>
       </c>
-      <c r="BG15" s="40">
+      <c r="BG15" s="36">
         <f ca="1">-273.15+10^4/(7.53+0.07*Q15-1.1*FM15-14.9*DG15*DA15-0.08*LN(DB15)-3.62*(DH15+DI15)-0.18*LN(FG15)-0.026*AI15-0.14*FL15)</f>
         <v>1067.2802883440268</v>
       </c>
-      <c r="BH15" s="40">
+      <c r="BH15" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q15-5.55*DG15*DA15-0.386*LN(DF15)-0.046*FO15+2.2*10^-4*AI15^2)</f>
         <v>1089.8736736998239</v>
       </c>
-      <c r="BI15" s="40">
+      <c r="BI15" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q15-5.55*(DG15*DA15)-0.386*LN(DF15)-0.046*AI15+0.00022*AI15^2)</f>
         <v>1089.8736736998239</v>
       </c>
-      <c r="BJ15" s="40">
+      <c r="BJ15" s="36">
         <f ca="1">10^4/(3.12-0.0259*BC15-0.37*LN(DF15/(DF15+DD15))+0.47*LN(DG15*(DF15+DD15)*DA15^2)-0.78*LN((DF15+DD15)^2*DA15^2)-0.34*LN(DG15*DC15^2*DA15))-273.15</f>
         <v>1167.7951240626771</v>
       </c>
-      <c r="BK15" s="70">
+      <c r="BK15" s="62">
         <f ca="1">EXP(-9.8+0.24*LN(DG15*(DD15+DF15)*DA15^2)+17558/AE15+8.7*LN(AE15/1670)-4.61*10^3*(FG15^2/AE15))</f>
         <v>0.99922539439608238</v>
       </c>
-      <c r="BL15" s="70">
+      <c r="BL15" s="62">
         <f ca="1">EXP(-0.482-0.439*LN(DA15)+101.03*(DH15+DI15)^3-51.69*AG15/AE15-3742.5*FG15^2/AE15)</f>
         <v>0.82683671188343988</v>
       </c>
-      <c r="BM15" s="70">
+      <c r="BM15" s="62">
         <f ca="1">EXP(-6.96+18438/AE15+8*LN(AE15/1670)+0.66*LN((DD15+DF15)^2*DA15^2)-5.1*10^3*(FF15^2/AE15)+1.81*LN(DA15))</f>
         <v>9.6081536124996772E-2</v>
       </c>
-      <c r="BN15" s="70">
+      <c r="BN15" s="62">
         <f ca="1">EXP(2.58+0.12*AI15/AN15-9*10^-7*AI15^2/AN15+0.78*LN(DG15*DC15^2*DA15)-4.3*10^3*(FF15^2/AN15))</f>
         <v>1.187866161618027E-2</v>
       </c>
-      <c r="BO15" s="70">
+      <c r="BO15" s="62">
         <f ca="1">EXP(-1.06+0.23*AI15/AN15-6*10^-7*AI15^2/AN15+1.02*LN(DH15*DC15*DA15^2)-0.8*LN(DC15)-2.2*LN(DA15))</f>
         <v>1.617085578127293E-2</v>
       </c>
-      <c r="BP15" s="70">
+      <c r="BP15" s="62">
         <f ca="1">EXP(5.1+0.52*LN(DG15*DB15*DC15^2)+2.04*10^3*FF15^2/AN15-6.2*DA15+42.5*DH15*DC15-45.1*(DD15+DF15)*DC15)</f>
         <v>4.5889350870768529E-2</v>
       </c>
-      <c r="BQ15" s="70">
+      <c r="BQ15" s="62">
         <f>EXP(12.8)*DG15*DJ15^2*DA15</f>
         <v>0</v>
       </c>
-      <c r="BR15" s="40">
+      <c r="BR15" s="36">
         <f ca="1">SUM(BL15:BQ15)</f>
         <v>0.99685711627665841</v>
       </c>
-      <c r="BS15" s="53"/>
-      <c r="BT15" s="70">
+      <c r="BS15" s="47"/>
+      <c r="BT15" s="62">
         <f>FF15</f>
         <v>0.81443615119616952</v>
       </c>
-      <c r="BU15" s="70">
+      <c r="BU15" s="62">
         <f t="shared" si="6"/>
         <v>0.10382693656686925</v>
       </c>
-      <c r="BV15" s="70">
+      <c r="BV15" s="62">
         <f t="shared" si="7"/>
         <v>3.0374796890280439E-2</v>
       </c>
-      <c r="BW15" s="70">
+      <c r="BW15" s="62">
         <f t="shared" si="8"/>
         <v>1.705536082466275E-2</v>
       </c>
-      <c r="BX15" s="70">
+      <c r="BX15" s="62">
         <f t="shared" si="9"/>
         <v>4.1013051289162938E-2</v>
       </c>
-      <c r="BY15" s="70">
+      <c r="BY15" s="62">
         <f t="shared" si="9"/>
         <v>9.5624467371756647E-3</v>
       </c>
-      <c r="BZ15" s="70">
+      <c r="BZ15" s="62">
         <f>SUM(BT15:BY15)</f>
         <v>1.0162687435043207</v>
       </c>
-      <c r="CA15" s="70">
+      <c r="CA15" s="62">
         <f>(ER15/ET15)/($G$8*DD15/DF15)</f>
         <v>0.22408472914802025</v>
       </c>
-      <c r="CB15" s="53"/>
-      <c r="CC15" s="40"/>
-      <c r="CD15" s="40">
+      <c r="CB15" s="47"/>
+      <c r="CC15" s="36"/>
+      <c r="CD15" s="36">
         <f ca="1">3205-5.62*ET15+83.2*EV15+68.2*FI15+2.52*LN(EP15)-51.1*FI15^2+34.8*FG15^2+0.384*(AH15)-518*LN(AH15)</f>
         <v>1.352356277475792</v>
       </c>
-      <c r="CE15" s="40">
+      <c r="CE15" s="36">
         <f ca="1">1458+0.197*(AH15)-241*LN(AH15)+0.453*Q15+55.5*EP15+8.05*ER15-277*EW15+18*FB15+44.1*FF15+2.2*LN(FB15)-27.7*EQ15^2+97.3*GI15^2+30.7*GK15^2-27.6*FF15^2</f>
         <v>2.5439587952203695</v>
       </c>
-      <c r="CF15" s="40">
+      <c r="CF15" s="36">
         <f ca="1">-57.9+0.0475*(AH15)-40.6*DD15-47.7*FC15+0.67*Q15-153*DG15*DA15+6.89*(EQ15/DC15)</f>
         <v>5.5451056411643203</v>
       </c>
-      <c r="CG15" s="40">
+      <c r="CG15" s="36">
         <f ca="1">-273.15+(93100+544*AI15)/(61.1+36.6*EN15+10.9*ER15-0.95*(EQ15+EX15-EV15-EW15)+0.395*(LN(FT15))^2)</f>
         <v>1144.0316855130527</v>
       </c>
-      <c r="CH15" s="54">
+      <c r="CH15" s="48">
         <f ca="1">EXP(-0.107-1719/AH15)</f>
         <v>0.26802452500385088</v>
       </c>
-      <c r="CJ15" s="40">
+      <c r="CJ15" s="36">
         <f>698.443+4.985*EO15-26.826*GJ15-3.764*EZ15+53.989*EP15+3.948*EN15+14.651*EX15-700.431*EU15-666.629*EV15-682.848*GK15-691.138*GI15-688.384*ES15-6.267*GK15^2-4.144*GI15^2</f>
         <v>0.53399902426765189</v>
       </c>
-      <c r="CK15" s="40">
+      <c r="CK15" s="36">
         <f>771.48+4.956*EO15-28.756*GJ15-5.345*EZ15+56.904*EP15+1.848*EN15+14.827*EX15-773.74*EU15-736.57*EV15-754.81*GK15-763.2*GI15-759.66*ES15-1.185*GK15^2-1.876*GI15^2</f>
         <v>0.31797542729864264</v>
       </c>
-      <c r="CL15" s="40">
+      <c r="CL15" s="36">
         <f ca="1">-273.15+(23166+39.28*AI15)/(13.25+15.35*EN15+4.5*ER15-1.55*(EQ15-EX15-EV15-EW15)+(LN(IF15))^2)</f>
         <v>860.99696687858602</v>
       </c>
@@ -8774,7 +8666,7 @@
         <f>SUM(DA15:DK15)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DM15" s="156">
+      <c r="DM15">
         <f>100*DF15/(DF15+DD15)</f>
         <v>54.922594897140009</v>
       </c>
@@ -8978,11 +8870,11 @@
         <f>DF15/(DF15+DD15)</f>
         <v>0.54922594897140009</v>
       </c>
-      <c r="FN15" s="67">
+      <c r="FN15" s="60">
         <f t="shared" ref="FN15:FO19" ca="1" si="22">AH15</f>
         <v>1421.0407376170358</v>
       </c>
-      <c r="FO15" s="67">
+      <c r="FO15" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>8.6485284337609158E-2</v>
       </c>
@@ -9147,108 +9039,108 @@
         <v>0.47535747195061617</v>
       </c>
       <c r="HD15" s="4"/>
-      <c r="HE15" s="7">
+      <c r="HE15" s="6">
         <f>GI15+GJ15+ES15</f>
         <v>0.12623976689753125</v>
       </c>
-      <c r="HF15" s="7">
+      <c r="HF15" s="6">
         <f>GK15+GL15</f>
         <v>0.86331277042373711</v>
       </c>
-      <c r="HG15" s="7">
+      <c r="HG15" s="6">
         <f>IF(EV15&gt;EZ15,EZ15,EV15)</f>
         <v>1.705536082466275E-2</v>
       </c>
-      <c r="HH15" s="7">
+      <c r="HH15" s="6">
         <f>EV15-HG15</f>
         <v>0</v>
       </c>
-      <c r="HI15" s="7">
+      <c r="HI15" s="6">
         <f>EZ15-HG15</f>
         <v>1.8276150421022885E-2</v>
       </c>
-      <c r="HJ15" s="7">
+      <c r="HJ15" s="6">
         <f>IF(HH15&gt;EP15,EP15,HH15)</f>
         <v>0</v>
       </c>
-      <c r="HK15" s="7">
+      <c r="HK15" s="6">
         <f>HH15-HJ15</f>
         <v>0</v>
       </c>
-      <c r="HL15" s="7">
+      <c r="HL15" s="6">
         <f>EP15-HJ15</f>
         <v>4.7430157714943189E-2</v>
       </c>
-      <c r="HM15" s="7">
+      <c r="HM15" s="6">
         <f>HL15+EX15+2*EN15</f>
         <v>9.4124749047583417E-2</v>
       </c>
-      <c r="HN15" s="7">
+      <c r="HN15" s="6">
         <f>HE15/(HE15+HF15)</f>
         <v>0.12757257663071023</v>
       </c>
-      <c r="HO15" s="7">
+      <c r="HO15" s="6">
         <f>(EU15-HM15-HI15)*(1-HN15)</f>
         <v>0.68309806299417886</v>
       </c>
-      <c r="HP15" s="7">
+      <c r="HP15" s="6">
         <f>(EU15-HM15-HI15)*HN15</f>
         <v>9.9887483650003481E-2</v>
       </c>
-      <c r="HQ15" s="7">
+      <c r="HQ15" s="6">
         <f>(1-HG15-HJ15-HI15-HM15-HO15-HP15)*(1-HN15)</f>
         <v>7.6388168768430104E-2</v>
       </c>
-      <c r="HR15" s="7">
+      <c r="HR15" s="6">
         <f>(1-HG15-HJ15-HI15-HM15-HO15-HP15)*HN15</f>
         <v>1.1170024294118501E-2</v>
       </c>
-      <c r="HS15" s="7">
+      <c r="HS15" s="6">
         <f>HJ15+HG15</f>
         <v>1.705536082466275E-2</v>
       </c>
-      <c r="HT15" s="7"/>
-      <c r="HU15" s="16">
+      <c r="HT15" s="6"/>
+      <c r="HU15" s="15">
         <f>(-0.000000872*HO15)-(0.000000749*HQ15)-(0.000000993*HP15)-(0.00000087*(HM15+HI15))-(0.00000086*HS15)-(0.00000087*HR15)</f>
         <v>-8.7423883458571225E-7</v>
       </c>
-      <c r="HV15" s="16">
+      <c r="HV15" s="15">
         <f>(0.000000000001707*HO15)+(0.000000000000447*HQ15)+(0.0000000000014835*HP15)+(0.000000000002171*(HM15+HI15))+(0.000000000002149*HS15)+(0.0000000000002235*HR15)</f>
         <v>1.6315478105536119E-12</v>
       </c>
-      <c r="HW15" s="16">
+      <c r="HW15" s="15">
         <f>(0.000027795*HO15)+(0.000024656*HQ15)+(0.000031371*HP15)+(0.00002225*(HM15+HI15))+(0.000023118*HS15)+(0.000028232*HR15)</f>
         <v>2.7214265570254471E-5</v>
       </c>
-      <c r="HX15" s="16">
+      <c r="HX15" s="15">
         <f>(0.0000000083082*HO15)+(0.000000007467*HQ15)+(0.0000000083672*HP15)+(0.0000000052863*(HM15+HI15))+(0.0000000025785*HS15)+(0.000000007526*HR15)</f>
         <v>7.8037120619432373E-9</v>
       </c>
-      <c r="HY15" s="7">
+      <c r="HY15" s="6">
         <f>GQ15</f>
         <v>2.1647877715389576</v>
       </c>
-      <c r="HZ15" s="7">
+      <c r="HZ15" s="6">
         <f ca="1">HA15+HA15*(HU15*(IA15-0.001)+HV15*(IA15-0.001)^2+HW15*(D15-25)+HX15*(D15-25)^2)</f>
         <v>457.49321309472333</v>
       </c>
-      <c r="IA15" s="7">
+      <c r="IA15" s="6">
         <f ca="1">IA$8+IA$9*IB15+IA$10*HB15+IA$11*ET15/(ET15+ER15)</f>
         <v>2.6454353833791906</v>
       </c>
-      <c r="IB15" s="7">
+      <c r="IB15" s="6">
         <f ca="1">HA15+HA15*(HU15*(IC15-0.001)+HV15*(IC15-0.001)^2+HW15*(D15-25)+HX15*(D15-25)^2)</f>
         <v>457.49347776092321</v>
       </c>
-      <c r="IC15" s="7">
+      <c r="IC15" s="6">
         <f ca="1">IC$8+IC$9*IB15+IC$10*HB15+IC$11*(ET15/(ET15+ER15))</f>
         <v>1.956707315677054</v>
       </c>
-      <c r="ID15" s="7">
+      <c r="ID15" s="6">
         <f ca="1">IF(GX15&gt;GY15,IC15,IA15)</f>
         <v>2.6454353833791906</v>
       </c>
-      <c r="IE15" s="7">
+      <c r="IE15" s="6">
         <f>-0.3085*EO1</f>
         <v>0</v>
       </c>
@@ -9256,20 +9148,20 @@
         <f>(1-EU15-EV15-EW15)*(1-0.5*(EQ15+EX15+EV15+EW15))</f>
         <v>7.8976994935931799E-2</v>
       </c>
-      <c r="IG15" s="17">
+      <c r="IG15" s="16">
         <f ca="1">D15-25</f>
         <v>1131.5368752259269</v>
       </c>
-      <c r="IH15" s="17"/>
-      <c r="II15" s="7">
+      <c r="IH15" s="16"/>
+      <c r="II15" s="6">
         <f>1.4133+(0.05601*HB15)</f>
         <v>2.0738634114237717</v>
       </c>
-      <c r="IJ15" s="17">
+      <c r="IJ15" s="16">
         <f>(7500*HY15)/II15^3</f>
         <v>1820.2713801554285</v>
       </c>
-      <c r="IK15" s="16">
+      <c r="IK15" s="15">
         <f>0.0000329*(0.75-HY15/6)</f>
         <v>1.280474705272805E-5</v>
       </c>
@@ -9277,342 +9169,342 @@
         <f>SUM(IN15:IP15)</f>
         <v>1</v>
       </c>
-      <c r="IN15" s="166">
+      <c r="IN15" s="1">
         <f>ET15/(ER15+ET15+EU15)</f>
         <v>0.45023382749746083</v>
       </c>
-      <c r="IO15" s="166">
+      <c r="IO15" s="1">
         <f>ER15/(ER15+ET15+EU15)</f>
         <v>8.280532061471052E-2</v>
       </c>
-      <c r="IP15" s="166">
+      <c r="IP15" s="1">
         <f>EU15/(EU15+ET15+ER15)</f>
         <v>0.46696085188782871</v>
       </c>
-      <c r="IR15" s="167">
+      <c r="IR15" s="141">
         <f>IO15/(COS(RADIANS(30)))+IP15*TAN(RADIANS(30))</f>
         <v>0.3652153218329276</v>
       </c>
-      <c r="IS15" s="167">
+      <c r="IS15" s="141">
         <f>IP15</f>
         <v>0.46696085188782871</v>
       </c>
-      <c r="IU15" s="169">
+      <c r="IU15" s="3">
         <v>0</v>
       </c>
-      <c r="IV15" s="169">
+      <c r="IV15" s="3">
         <v>1</v>
       </c>
-      <c r="IW15" s="169">
+      <c r="IW15" s="3">
         <v>0</v>
       </c>
-      <c r="IX15" s="169"/>
-      <c r="IY15" s="167">
+      <c r="IX15" s="3"/>
+      <c r="IY15" s="141">
         <f>IV15/(COS(RADIANS(30)))+IW15*TAN(RADIANS(30))</f>
         <v>1.1547005383792515</v>
       </c>
-      <c r="IZ15" s="167">
+      <c r="IZ15" s="141">
         <f>IW15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:260" ht="13.2">
-      <c r="A16" s="139" t="s">
+    <row r="16" spans="1:260">
+      <c r="A16" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="22">
         <f t="shared" ref="C16:C19" si="24">10*J16</f>
         <v>1.9</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="99">
         <f ca="1">AK16-273.15</f>
         <v>1115.2314457049829</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <f ca="1">BL16-BT16</f>
         <v>-8.6355350625640925E-3</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="106">
         <v>51.5</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="106">
         <v>1.19</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="106">
         <v>19.2</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="106">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J16" s="123">
+      <c r="J16" s="106">
         <v>0.19</v>
       </c>
-      <c r="K16" s="132">
+      <c r="K16" s="114">
         <v>4.9800000000000004</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="106">
         <v>10</v>
       </c>
-      <c r="M16" s="123">
+      <c r="M16" s="106">
         <v>3.72</v>
       </c>
-      <c r="N16" s="123">
+      <c r="N16" s="106">
         <v>0.42</v>
       </c>
-      <c r="O16" s="123">
+      <c r="O16" s="106">
         <v>0</v>
       </c>
-      <c r="P16" s="123">
+      <c r="P16" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q16" s="123">
+      <c r="Q16" s="106">
         <v>6.2</v>
       </c>
-      <c r="R16" s="119">
+      <c r="R16" s="102">
         <f t="shared" ca="1" si="10"/>
         <v>4.8457944469974388</v>
       </c>
-      <c r="T16" s="123">
+      <c r="T16" s="106">
         <v>50.3</v>
       </c>
-      <c r="U16" s="123">
+      <c r="U16" s="106">
         <v>0.73</v>
       </c>
-      <c r="V16" s="123">
+      <c r="V16" s="106">
         <v>4.12</v>
       </c>
-      <c r="W16" s="123">
+      <c r="W16" s="106">
         <v>5.83</v>
       </c>
-      <c r="X16" s="123">
+      <c r="X16" s="106">
         <v>0</v>
       </c>
-      <c r="Y16" s="123">
+      <c r="Y16" s="106">
         <v>15</v>
       </c>
-      <c r="Z16" s="123">
+      <c r="Z16" s="106">
         <v>22.7</v>
       </c>
-      <c r="AA16" s="123">
+      <c r="AA16" s="106">
         <v>0.24</v>
       </c>
-      <c r="AB16" s="123">
+      <c r="AB16" s="106">
         <v>0</v>
       </c>
-      <c r="AC16" s="123">
+      <c r="AC16" s="106">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AE16" s="112">
+      <c r="AE16" s="98">
         <f ca="1">10^4/(7.53-0.14*FK16+0.07*Q16-14.9*DG16*DA16-0.08*LN(DB16)-3.62*(DH16+DI16)-1.1*DF16/(DF16+DD16)-0.18*LN(FG16)-0.027*AG16)</f>
         <v>1289.2408589429026</v>
       </c>
-      <c r="AF16" s="165">
+      <c r="AF16" s="140">
         <f ca="1">AE16-273.15</f>
         <v>1016.0908589429026</v>
       </c>
-      <c r="AG16" s="165">
+      <c r="AG16" s="140">
         <f ca="1">-26.2712+39.16138*AE16*FJ16/10^4-4.21676*LN(FI16)+78.43463*DC16+393.8126*(DH16+DI16)^2</f>
         <v>1.5837308153621108</v>
       </c>
-      <c r="AH16" s="91">
+      <c r="AH16" s="80">
         <f ca="1">AX16</f>
         <v>1410.5962433643192</v>
       </c>
-      <c r="AI16" s="91">
+      <c r="AI16" s="80">
         <f ca="1">AZ16</f>
         <v>1.7596442345133916</v>
       </c>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91">
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>1388.3814457049828</v>
       </c>
-      <c r="AL16" s="91">
+      <c r="AL16" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>0.45396961058632002</v>
       </c>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="91">
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80">
         <f ca="1">10^4/(7.53-0.14*FK16+0.07*Q16-14.9*DG16*DA16-0.08*LN(DB16)-3.62*(DH16+DI16)-1.1*DF16/(DF16+DD16)-0.18*LN(FG16)-0.027*AP16)</f>
         <v>1267.1556703021745</v>
       </c>
-      <c r="AO16" s="91">
+      <c r="AO16" s="80">
         <f t="shared" ref="AO16:AO19" ca="1" si="25">AN16-273.15</f>
         <v>994.00567030217451</v>
       </c>
-      <c r="AP16" s="91">
+      <c r="AP16" s="80">
         <f ca="1">IF(ABS(FB16)&gt;0,-54.3+299*(AN16)/10^4+36.4*(AN16)*FJ16/10^4+367*DH16*DC16,0)</f>
         <v>-3.4232199032547186</v>
       </c>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91">
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80">
         <f ca="1">10^4/(6.39+0.076*Q16-5.55*DG16*DA16-0.386*LN(DF16)-0.046*AT16+2.2*10^-4*(AT16^2))</f>
         <v>1288.8216644914385</v>
       </c>
-      <c r="AS16" s="91">
+      <c r="AS16" s="80">
         <f t="shared" ref="AS16:AS19" ca="1" si="26">AR16-273.15</f>
         <v>1015.6716644914385</v>
       </c>
-      <c r="AT16" s="40">
+      <c r="AT16" s="36">
         <f t="shared" ref="AT16:AT19" ca="1" si="27">-54.3+299*(AR16)/10^4+36.4*(AR16)*FJ16/10^4+367*DH16*DC16</f>
         <v>-2.6403737259463078</v>
       </c>
-      <c r="AV16" s="40">
+      <c r="AV16" s="36">
         <f>IF(ABS(FB16)&gt;0,10^4/(6.73-0.26*FK16-0.86*LN(FM16)+0.52*LN(DG16)),0)</f>
         <v>1403.3541688642288</v>
       </c>
-      <c r="AW16" s="40">
+      <c r="AW16" s="36">
         <f>IF(AV16&gt;0,AV16-273.15,0)</f>
         <v>1130.2041688642289</v>
       </c>
-      <c r="AX16" s="40">
+      <c r="AX16" s="36">
         <f ca="1">IF(ABS(FB16)&gt;0,10^4/(6.59-0.16*FK16-0.65*LN(FM16)+0.23*LN(DG16)-0.02*AZ16),0)</f>
         <v>1410.5962433643192</v>
       </c>
-      <c r="AY16" s="40">
+      <c r="AY16" s="36">
         <f ca="1">IF(AX16&gt;0,AX16-273.15,0)</f>
         <v>1137.4462433643193</v>
       </c>
-      <c r="AZ16" s="40">
+      <c r="AZ16" s="36">
         <f ca="1">IF(ABS(FB16)&gt;0,-54.3+299*(AX16)/10^4+36.4*(AX16)*FJ16/10^4+367*DH16*DC16,0)</f>
         <v>1.7596442345133916</v>
       </c>
-      <c r="BA16" s="40"/>
-      <c r="BB16" s="40">
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36">
         <f ca="1">IF(ABS(FB16)&gt;0,10^4/(4.6-0.437*FL16-0.654*LN(FM16)-0.326*LN(DH16)-0.92*LN(DA16)+0.274*LN(FB16)-0.00632*BC16),0)</f>
         <v>1388.3814457049828</v>
       </c>
-      <c r="BC16" s="40">
+      <c r="BC16" s="36">
         <f ca="1">IF(ABS(FB16)&gt;0,-88.3+0.00282*(BB16)*FJ16+0.0219*(BB16)-25.1*LN(DG16*DA16)+12.4*LN(DG16)+7.03*FM16,0)</f>
         <v>0.45396961058632002</v>
       </c>
-      <c r="BD16" s="40">
+      <c r="BD16" s="36">
         <f ca="1">BB16-273.15</f>
         <v>1115.2314457049829</v>
       </c>
-      <c r="BE16" s="40">
+      <c r="BE16" s="36">
         <f ca="1">-48.7+271.3*AH16/10^4+31.96*(AH16/10^4)*FJ16-8.2*LN(DD16)+4.6*LN(DF16)-0.96*LN(DI16)-2.2*LN(FI16)-31*FM16+56.2*(DH16+DI16)+0.76*Q16</f>
         <v>5.7133563403214911</v>
       </c>
-      <c r="BF16" s="40">
+      <c r="BF16" s="36">
         <f ca="1">-40.73+358*AH16/10^4+21.7*(AH16/10^4)*FJ16-106*DG16-166*(DH16+DI16)^2-50.2*DA16*(DD16+DF16)-3.2*LN(FI16)-2.2*LN(FG16)+0.86*LN(EQ16)+0.4*Q16</f>
         <v>7.2344104799515776</v>
       </c>
-      <c r="BG16" s="40">
+      <c r="BG16" s="36">
         <f ca="1">-273.15+10^4/(7.53+0.07*Q16-1.1*FM16-14.9*DG16*DA16-0.08*LN(DB16)-3.62*(DH16+DI16)-0.18*LN(FG16)-0.026*AI16-0.14*FL16)</f>
         <v>1016.5880340579228</v>
       </c>
-      <c r="BH16" s="40">
+      <c r="BH16" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q16-5.55*DG16*DA16-0.386*LN(DF16)-0.046*FO16+2.2*10^-4*AI16^2)</f>
         <v>1050.3414439809308</v>
       </c>
-      <c r="BI16" s="40">
+      <c r="BI16" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q16-5.55*(DG16*DA16)-0.386*LN(DF16)-0.046*AI16+0.00022*AI16^2)</f>
         <v>1050.3414439809308</v>
       </c>
-      <c r="BJ16" s="40">
+      <c r="BJ16" s="36">
         <f ca="1">10^4/(3.12-0.0259*BC16-0.37*LN(DF16/(DF16+DD16))+0.47*LN(DG16*(DF16+DD16)*DA16^2)-0.78*LN((DF16+DD16)^2*DA16^2)-0.34*LN(DG16*DC16^2*DA16))-273.15</f>
         <v>1151.4905101457266</v>
       </c>
-      <c r="BK16" s="70">
+      <c r="BK16" s="62">
         <f ca="1">EXP(-9.8+0.24*LN(DG16*(DD16+DF16)*DA16^2)+17558/AE16+8.7*LN(AE16/1670)-4.61*10^3*(FG16^2/AE16))</f>
         <v>1.1514419075560551</v>
       </c>
-      <c r="BL16" s="70">
+      <c r="BL16" s="62">
         <f ca="1">EXP(-0.482-0.439*LN(DA16)+101.03*(DH16+DI16)^3-51.69*AG16/AE16-3742.5*FG16^2/AE16)</f>
         <v>0.81130306805535424</v>
       </c>
-      <c r="BM16" s="70">
+      <c r="BM16" s="62">
         <f ca="1">EXP(-6.96+18438/AE16+8*LN(AE16/1670)+0.66*LN((DD16+DF16)^2*DA16^2)-5.1*10^3*(FF16^2/AE16)+1.81*LN(DA16))</f>
         <v>9.4631397596101688E-2</v>
       </c>
-      <c r="BN16" s="70">
+      <c r="BN16" s="62">
         <f ca="1">EXP(2.58+0.12*AI16/AN16-9*10^-7*AI16^2/AN16+0.78*LN(DG16*DC16^2*DA16)-4.3*10^3*(FF16^2/AN16))</f>
         <v>1.0752143355776364E-2</v>
       </c>
-      <c r="BO16" s="70">
+      <c r="BO16" s="62">
         <f ca="1">EXP(-1.06+0.23*AI16/AN16-6*10^-7*AI16^2/AN16+1.02*LN(DH16*DC16*DA16^2)-0.8*LN(DC16)-2.2*LN(DA16))</f>
         <v>1.7420386751389298E-2</v>
       </c>
-      <c r="BP16" s="70">
+      <c r="BP16" s="62">
         <f ca="1">EXP(5.1+0.52*LN(DG16*DB16*DC16^2)+2.04*10^3*FF16^2/AN16-6.2*DA16+42.5*DH16*DC16-45.1*(DD16+DF16)*DC16)</f>
         <v>6.2338065534168062E-2</v>
       </c>
-      <c r="BQ16" s="70">
+      <c r="BQ16" s="62">
         <f>EXP(12.8)*DG16*DJ16^2*DA16</f>
         <v>0</v>
       </c>
-      <c r="BR16" s="40">
+      <c r="BR16" s="36">
         <f ca="1">SUM(BL16:BQ16)</f>
         <v>0.99644506129278976</v>
       </c>
-      <c r="BS16" s="53"/>
-      <c r="BT16" s="70">
+      <c r="BS16" s="47"/>
+      <c r="BT16" s="62">
         <f>FF16</f>
         <v>0.81993860311791833</v>
       </c>
-      <c r="BU16" s="70">
+      <c r="BU16" s="62">
         <f t="shared" si="6"/>
         <v>9.7220166294938348E-2</v>
       </c>
-      <c r="BV16" s="70">
+      <c r="BV16" s="62">
         <f t="shared" si="7"/>
         <v>3.6816947960874952E-2</v>
       </c>
-      <c r="BW16" s="70">
+      <c r="BW16" s="62">
         <f t="shared" si="8"/>
         <v>1.7330029101953831E-2</v>
       </c>
-      <c r="BX16" s="70">
+      <c r="BX16" s="62">
         <f t="shared" si="9"/>
         <v>4.4938151136855245E-2</v>
       </c>
-      <c r="BY16" s="70">
+      <c r="BY16" s="62">
         <f t="shared" si="9"/>
         <v>4.1221283020399834E-3</v>
       </c>
-      <c r="BZ16" s="70">
+      <c r="BZ16" s="62">
         <f>SUM(BT16:BY16)</f>
         <v>1.0203660259145808</v>
       </c>
-      <c r="CA16" s="70">
+      <c r="CA16" s="62">
         <f>(ER16/ET16)/($G$8*DD16/DF16)</f>
         <v>0.22247816091954029</v>
       </c>
-      <c r="CB16" s="53"/>
-      <c r="CC16" s="40"/>
-      <c r="CD16" s="40">
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36">
         <f ca="1">3205-5.62*ET16+83.2*EV16+68.2*FI16+2.52*LN(EP16)-51.1*FI16^2+34.8*FG16^2+0.384*(AH16)-518*LN(AH16)</f>
         <v>1.5605645660134542</v>
       </c>
-      <c r="CE16" s="40">
+      <c r="CE16" s="36">
         <f ca="1">1458+0.197*(AH16)-241*LN(AH16)+0.453*Q16+55.5*EP16+8.05*ER16-277*EW16+18*FB16+44.1*FF16+2.2*LN(FB16)-27.7*EQ16^2+97.3*GI16^2+30.7*GK16^2-27.6*FF16^2</f>
         <v>3.71661791706941</v>
       </c>
-      <c r="CF16" s="40">
+      <c r="CF16" s="36">
         <f ca="1">-57.9+0.0475*(AH16)-40.6*DD16-47.7*FC16+0.67*Q16-153*DG16*DA16+6.89*(EQ16/DC16)</f>
         <v>7.5741126487404928</v>
       </c>
-      <c r="CG16" s="40">
+      <c r="CG16" s="36">
         <f ca="1">-273.15+(93100+544*AI16)/(61.1+36.6*EN16+10.9*ER16-0.95*(EQ16+EX16-EV16-EW16)+0.395*(LN(FT16))^2)</f>
         <v>1141.4464928566354</v>
       </c>
-      <c r="CH16" s="54">
+      <c r="CH16" s="48">
         <f ca="1">EXP(-0.107-1719/AH16)</f>
         <v>0.26563459557023961</v>
       </c>
-      <c r="CJ16" s="40">
+      <c r="CJ16" s="36">
         <f>698.443+4.985*EO16-26.826*GJ16-3.764*EZ16+53.989*EP16+3.948*EN16+14.651*EX16-700.431*EU16-666.629*EV16-682.848*GK16-691.138*GI16-688.384*ES16-6.267*GK16^2-4.144*GI16^2</f>
         <v>0.19493110653448706</v>
       </c>
-      <c r="CK16" s="40">
+      <c r="CK16" s="36">
         <f>771.48+4.956*EO16-28.756*GJ16-5.345*EZ16+56.904*EP16+1.848*EN16+14.827*EX16-773.74*EU16-736.57*EV16-754.81*GK16-763.2*GI16-759.66*ES16-1.185*GK16^2-1.876*GI16^2</f>
         <v>-7.9605295924928446E-2</v>
       </c>
-      <c r="CL16" s="40">
+      <c r="CL16" s="36">
         <f ca="1">-273.15+(23166+39.28*AI16)/(13.25+15.35*EN16+4.5*ER16-1.55*(EQ16-EX16-EV16-EW16)+(LN(IF16))^2)</f>
         <v>817.96807994744438</v>
       </c>
@@ -9713,7 +9605,7 @@
         <f>SUM(DA16:DK16)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DM16" s="156">
+      <c r="DM16">
         <f t="shared" ref="DM16:DM19" si="28">100*DF16/(DF16+DD16)</f>
         <v>50.504401091479224</v>
       </c>
@@ -9917,11 +9809,11 @@
         <f>DF16/(DF16+DD16)</f>
         <v>0.50504401091479223</v>
       </c>
-      <c r="FN16" s="67">
+      <c r="FN16" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1410.5962433643192</v>
       </c>
-      <c r="FO16" s="67">
+      <c r="FO16" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1.7596442345133916</v>
       </c>
@@ -10086,126 +9978,126 @@
         <v>9.7795680705360155E-2</v>
       </c>
       <c r="HD16" s="4"/>
-      <c r="HE16" s="7">
+      <c r="HE16" s="6">
         <f>GI16+GJ16+ES16</f>
         <v>0.14084688196577907</v>
       </c>
-      <c r="HF16" s="7">
+      <c r="HF16" s="6">
         <f>GK16+GL16</f>
         <v>0.83280000191285442</v>
       </c>
-      <c r="HG16" s="7">
+      <c r="HG16" s="6">
         <f>IF(EV16&gt;EZ16,EZ16,EV16)</f>
         <v>1.7330029101953831E-2</v>
       </c>
-      <c r="HH16" s="7">
+      <c r="HH16" s="6">
         <f>EV16-HG16</f>
         <v>0</v>
       </c>
-      <c r="HI16" s="7">
+      <c r="HI16" s="6">
         <f>EZ16-HG16</f>
         <v>2.3402022727207705E-2</v>
       </c>
-      <c r="HJ16" s="7">
+      <c r="HJ16" s="6">
         <f>IF(HH16&gt;EP16,EP16,HH16)</f>
         <v>0</v>
       </c>
-      <c r="HK16" s="7">
+      <c r="HK16" s="6">
         <f>HH16-HJ16</f>
         <v>0</v>
       </c>
-      <c r="HL16" s="7">
+      <c r="HL16" s="6">
         <f>EP16-HJ16</f>
         <v>5.4146977062828783E-2</v>
       </c>
-      <c r="HM16" s="7">
+      <c r="HM16" s="6">
         <f>HL16+EX16+2*EN16</f>
         <v>0.10329122750737774</v>
       </c>
-      <c r="HN16" s="7">
+      <c r="HN16" s="6">
         <f>HE16/(HE16+HF16)</f>
         <v>0.14465910002679763</v>
       </c>
-      <c r="HO16" s="7">
+      <c r="HO16" s="6">
         <f>(EU16-HM16-HI16)*(1-HN16)</f>
         <v>0.66641540900879304</v>
       </c>
-      <c r="HP16" s="7">
+      <c r="HP16" s="6">
         <f>(EU16-HM16-HI16)*HN16</f>
         <v>0.11270717127431008</v>
       </c>
-      <c r="HQ16" s="7">
+      <c r="HQ16" s="6">
         <f>(1-HG16-HJ16-HI16-HM16-HO16-HP16)*(1-HN16)</f>
         <v>6.5736489599601933E-2</v>
       </c>
-      <c r="HR16" s="7">
+      <c r="HR16" s="6">
         <f>(1-HG16-HJ16-HI16-HM16-HO16-HP16)*HN16</f>
         <v>1.1117650780755703E-2</v>
       </c>
-      <c r="HS16" s="7">
+      <c r="HS16" s="6">
         <f>HJ16+HG16</f>
         <v>1.7330029101953831E-2</v>
       </c>
-      <c r="HT16" s="7"/>
-      <c r="HU16" s="16">
+      <c r="HT16" s="6"/>
+      <c r="HU16" s="15">
         <f>(-0.000000872*HO16)-(0.000000749*HQ16)-(0.000000993*HP16)-(0.00000087*(HM16+HI16))-(0.00000086*HS16)-(0.00000087*HR16)</f>
         <v>-8.770683973521862E-7</v>
       </c>
-      <c r="HV16" s="16">
+      <c r="HV16" s="15">
         <f>(0.000000000001707*HO16)+(0.000000000000447*HQ16)+(0.0000000000014835*HP16)+(0.000000000002171*(HM16+HI16))+(0.000000000002149*HS16)+(0.0000000000002235*HR16)</f>
         <v>1.6489344763633537E-12</v>
       </c>
-      <c r="HW16" s="16">
+      <c r="HW16" s="15">
         <f>(0.000027795*HO16)+(0.000024656*HQ16)+(0.000031371*HP16)+(0.00002225*(HM16+HI16))+(0.000023118*HS16)+(0.000028232*HR16)</f>
         <v>2.7212985798354358E-5</v>
       </c>
-      <c r="HX16" s="16">
+      <c r="HX16" s="15">
         <f>(0.0000000083082*HO16)+(0.000000007467*HQ16)+(0.0000000083672*HP16)+(0.0000000052863*(HM16+HI16))+(0.0000000025785*HS16)+(0.000000007526*HR16)</f>
         <v>7.7687057609839341E-9</v>
       </c>
-      <c r="HY16" s="7">
+      <c r="HY16" s="6">
         <f>GQ16</f>
         <v>2.1847553311657006</v>
       </c>
-      <c r="HZ16" s="7">
+      <c r="HZ16" s="6">
         <f t="shared" ref="HZ16:HZ19" ca="1" si="32">HA16+HA16*(HU16*(IA16-0.001)+HV16*(IA16-0.001)^2+HW16*(D16-25)+HX16*(D16-25)^2)</f>
         <v>457.0223302820911</v>
       </c>
-      <c r="IA16" s="7">
+      <c r="IA16" s="6">
         <f t="shared" ref="IA16:IA19" ca="1" si="33">IA$8+IA$9*IB16+IA$10*HB16+IA$11*ET16/(ET16+ER16)</f>
         <v>3.2160428276957553</v>
       </c>
-      <c r="IB16" s="7">
+      <c r="IB16" s="6">
         <f t="shared" ref="IB16:IB19" ca="1" si="34">HA16+HA16*(HU16*(IC16-0.001)+HV16*(IC16-0.001)^2+HW16*(D16-25)+HX16*(D16-25)^2)</f>
         <v>457.02251495260089</v>
       </c>
-      <c r="IC16" s="7">
+      <c r="IC16" s="6">
         <f t="shared" ref="IC16:IC19" ca="1" si="35">IC$8+IC$9*IB16+IC$10*HB16+IC$11*(ET16/(ET16+ER16))</f>
         <v>2.7374071329311978</v>
       </c>
-      <c r="ID16" s="7">
+      <c r="ID16" s="6">
         <f t="shared" ref="ID16:ID19" ca="1" si="36">IF(GX16&gt;GY16,IC16,IA16)</f>
         <v>3.2160428276957553</v>
       </c>
-      <c r="IE16" s="7"/>
+      <c r="IE16" s="6"/>
       <c r="IF16" s="2">
         <f>(1-EU16-EV16-EW16)*(1-0.5*(EQ16+EX16+EV16+EW16))</f>
         <v>6.8922235400902546E-2</v>
       </c>
-      <c r="IG16" s="17">
+      <c r="IG16" s="16">
         <f ca="1">D16-25</f>
         <v>1090.2314457049829</v>
       </c>
-      <c r="IH16" s="17"/>
-      <c r="II16" s="7">
+      <c r="IH16" s="16"/>
+      <c r="II16" s="6">
         <f>1.4133+(0.05601*HB16)</f>
         <v>2.0735940187551152</v>
       </c>
-      <c r="IJ16" s="17">
+      <c r="IJ16" s="16">
         <f>(7500*HY16)/II16^3</f>
         <v>1837.7772740133462</v>
       </c>
-      <c r="IK16" s="16">
+      <c r="IK16" s="15">
         <f>0.0000329*(0.75-HY16/6)</f>
         <v>1.2695258267441407E-5</v>
       </c>
@@ -10213,342 +10105,342 @@
         <f t="shared" ref="IM16:IM17" si="37">SUM(IN16:IP16)</f>
         <v>1</v>
       </c>
-      <c r="IN16" s="166">
+      <c r="IN16" s="1">
         <f t="shared" ref="IN16:IN17" si="38">ET16/(ER16+ET16+EU16)</f>
         <v>0.43370600553707628</v>
       </c>
-      <c r="IO16" s="166">
+      <c r="IO16" s="1">
         <f t="shared" ref="IO16:IO17" si="39">ER16/(ER16+ET16+EU16)</f>
         <v>9.4562768834053929E-2</v>
       </c>
-      <c r="IP16" s="166">
+      <c r="IP16" s="1">
         <f t="shared" ref="IP16:IP17" si="40">EU16/(EU16+ET16+ER16)</f>
         <v>0.47173122562886988</v>
       </c>
-      <c r="IR16" s="167">
+      <c r="IR16" s="141">
         <f>IO16/(COS(RADIANS(30)))+IP16*TAN(RADIANS(30))</f>
         <v>0.38154583018529487</v>
       </c>
-      <c r="IS16" s="167">
+      <c r="IS16" s="141">
         <f>IP16</f>
         <v>0.47173122562886988</v>
       </c>
-      <c r="IU16" s="169">
+      <c r="IU16" s="3">
         <v>0.1</v>
       </c>
-      <c r="IV16" s="169">
+      <c r="IV16" s="3">
         <v>0.9</v>
       </c>
-      <c r="IW16" s="169">
+      <c r="IW16" s="3">
         <v>0</v>
       </c>
-      <c r="IX16" s="169"/>
-      <c r="IY16" s="167">
+      <c r="IX16" s="3"/>
+      <c r="IY16" s="141">
         <f>IV16/(COS(RADIANS(30)))+IW16*TAN(RADIANS(30))</f>
         <v>1.0392304845413263</v>
       </c>
-      <c r="IZ16" s="167">
+      <c r="IZ16" s="141">
         <f>IW16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:260" ht="13.2">
-      <c r="A17" s="139" t="s">
+    <row r="17" spans="1:260">
+      <c r="A17" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="22">
         <f t="shared" si="24"/>
         <v>1.9</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="99">
         <f ca="1">AK17-273.15</f>
         <v>1089.003722108444</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f ca="1">BL17-BT17</f>
         <v>6.4751879359012388E-2</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="106">
         <v>59.1</v>
       </c>
-      <c r="G17" s="123">
+      <c r="G17" s="106">
         <v>0.54</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="106">
         <v>19.100000000000001</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="106">
         <v>5.22</v>
       </c>
-      <c r="J17" s="123">
+      <c r="J17" s="106">
         <v>0.19</v>
       </c>
-      <c r="K17" s="132">
+      <c r="K17" s="114">
         <v>3.25</v>
       </c>
-      <c r="L17" s="123">
+      <c r="L17" s="106">
         <v>7.45</v>
       </c>
-      <c r="M17" s="123">
+      <c r="M17" s="106">
         <v>4</v>
       </c>
-      <c r="N17" s="123">
+      <c r="N17" s="106">
         <v>0.88</v>
       </c>
-      <c r="O17" s="123">
+      <c r="O17" s="106">
         <v>0</v>
       </c>
-      <c r="P17" s="123">
+      <c r="P17" s="106">
         <v>0.31</v>
       </c>
-      <c r="Q17" s="123">
+      <c r="Q17" s="106">
         <v>6.2</v>
       </c>
-      <c r="R17" s="119">
+      <c r="R17" s="102">
         <f t="shared" ca="1" si="10"/>
         <v>1.0354737905498657</v>
       </c>
-      <c r="T17" s="123">
+      <c r="T17" s="106">
         <v>47.3</v>
       </c>
-      <c r="U17" s="123">
+      <c r="U17" s="106">
         <v>1.75</v>
       </c>
-      <c r="V17" s="123">
+      <c r="V17" s="106">
         <v>7.85</v>
       </c>
-      <c r="W17" s="123">
+      <c r="W17" s="106">
         <v>6.51</v>
       </c>
-      <c r="X17" s="123">
+      <c r="X17" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y17" s="123">
+      <c r="Y17" s="106">
         <v>13.1</v>
       </c>
-      <c r="Z17" s="123">
+      <c r="Z17" s="106">
         <v>22.5</v>
       </c>
-      <c r="AA17" s="123">
+      <c r="AA17" s="106">
         <v>0.25</v>
       </c>
-      <c r="AB17" s="123">
+      <c r="AB17" s="106">
         <v>0</v>
       </c>
-      <c r="AC17" s="123">
+      <c r="AC17" s="106">
         <v>0.22</v>
       </c>
-      <c r="AE17" s="112">
+      <c r="AE17" s="98">
         <f ca="1">10^4/(7.53-0.14*FK17+0.07*Q17-14.9*DG17*DA17-0.08*LN(DB17)-3.62*(DH17+DI17)-1.1*DF17/(DF17+DD17)-0.18*LN(FG17)-0.027*AG17)</f>
         <v>1254.7612833982253</v>
       </c>
-      <c r="AF17" s="165">
+      <c r="AF17" s="140">
         <f ca="1">AE17-273.15</f>
         <v>981.61128339822528</v>
       </c>
-      <c r="AG17" s="165">
+      <c r="AG17" s="140">
         <f ca="1">-26.2712+39.16138*AE17*FJ17/10^4-4.21676*LN(FI17)+78.43463*DC17+393.8126*(DH17+DI17)^2</f>
         <v>0.89559739579306941</v>
       </c>
-      <c r="AH17" s="91">
+      <c r="AH17" s="80">
         <f ca="1">AX17</f>
         <v>1402.052416091813</v>
       </c>
-      <c r="AI17" s="91">
+      <c r="AI17" s="80">
         <f ca="1">AZ17</f>
         <v>0.27853428935678881</v>
       </c>
-      <c r="AJ17" s="91"/>
-      <c r="AK17" s="91">
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>1362.1537221084441</v>
       </c>
-      <c r="AL17" s="91">
+      <c r="AL17" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>-0.9461725452654921</v>
       </c>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91">
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="80">
         <f ca="1">10^4/(7.53-0.14*FK17+0.07*Q17-14.9*DG17*DA17-0.08*LN(DB17)-3.62*(DH17+DI17)-1.1*DF17/(DF17+DD17)-0.18*LN(FG17)-0.027*AP17)</f>
         <v>1226.6508552912815</v>
       </c>
-      <c r="AO17" s="91">
+      <c r="AO17" s="80">
         <f t="shared" ca="1" si="25"/>
         <v>953.50085529128148</v>
       </c>
-      <c r="AP17" s="91">
+      <c r="AP17" s="80">
         <f ca="1">IF(ABS(FB17)&gt;0,-54.3+299*(AN17)/10^4+36.4*(AN17)*FJ17/10^4+367*DH17*DC17,0)</f>
         <v>-5.8686832800304467</v>
       </c>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91">
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="80">
         <f ca="1">10^4/(6.39+0.076*Q17-5.55*DG17*DA17-0.386*LN(DF17)-0.046*AT17+2.2*10^-4*(AT17^2))</f>
         <v>1233.9615359070538</v>
       </c>
-      <c r="AS17" s="91">
+      <c r="AS17" s="80">
         <f t="shared" ca="1" si="26"/>
         <v>960.81153590705378</v>
       </c>
-      <c r="AT17" s="40">
+      <c r="AT17" s="36">
         <f t="shared" ca="1" si="27"/>
         <v>-5.6124692297087337</v>
       </c>
-      <c r="AV17" s="40">
+      <c r="AV17" s="36">
         <f>IF(ABS(FB17)&gt;0,10^4/(6.73-0.26*FK17-0.86*LN(FM17)+0.52*LN(DG17)),0)</f>
         <v>1405.9304586470664</v>
       </c>
-      <c r="AW17" s="40">
+      <c r="AW17" s="36">
         <f>IF(AV17&gt;0,AV17-273.15,0)</f>
         <v>1132.7804586470666</v>
       </c>
-      <c r="AX17" s="40">
+      <c r="AX17" s="36">
         <f ca="1">IF(ABS(FB17)&gt;0,10^4/(6.59-0.16*FK17-0.65*LN(FM17)+0.23*LN(DG17)-0.02*AZ17),0)</f>
         <v>1402.052416091813</v>
       </c>
-      <c r="AY17" s="40">
+      <c r="AY17" s="36">
         <f ca="1">IF(AX17&gt;0,AX17-273.15,0)</f>
         <v>1128.9024160918129</v>
       </c>
-      <c r="AZ17" s="40">
+      <c r="AZ17" s="36">
         <f ca="1">IF(ABS(FB17)&gt;0,-54.3+299*(AX17)/10^4+36.4*(AX17)*FJ17/10^4+367*DH17*DC17,0)</f>
         <v>0.27853428935678881</v>
       </c>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="40">
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36">
         <f ca="1">IF(ABS(FB17)&gt;0,10^4/(4.6-0.437*FL17-0.654*LN(FM17)-0.326*LN(DH17)-0.92*LN(DA17)+0.274*LN(FB17)-0.00632*BC17),0)</f>
         <v>1362.1537221084441</v>
       </c>
-      <c r="BC17" s="40">
+      <c r="BC17" s="36">
         <f ca="1">IF(ABS(FB17)&gt;0,-88.3+0.00282*(BB17)*FJ17+0.0219*(BB17)-25.1*LN(DG17*DA17)+12.4*LN(DG17)+7.03*FM17,0)</f>
         <v>-0.9461725452654921</v>
       </c>
-      <c r="BD17" s="40">
+      <c r="BD17" s="36">
         <f ca="1">BB17-273.15</f>
         <v>1089.003722108444</v>
       </c>
-      <c r="BE17" s="40">
+      <c r="BE17" s="36">
         <f ca="1">-48.7+271.3*AH17/10^4+31.96*(AH17/10^4)*FJ17-8.2*LN(DD17)+4.6*LN(DF17)-0.96*LN(DI17)-2.2*LN(FI17)-31*FM17+56.2*(DH17+DI17)+0.76*Q17</f>
         <v>5.7957344827642148</v>
       </c>
-      <c r="BF17" s="40">
+      <c r="BF17" s="36">
         <f ca="1">-40.73+358*AH17/10^4+21.7*(AH17/10^4)*FJ17-106*DG17-166*(DH17+DI17)^2-50.2*DA17*(DD17+DF17)-3.2*LN(FI17)-2.2*LN(FG17)+0.86*LN(EQ17)+0.4*Q17</f>
         <v>10.171984881891774</v>
       </c>
-      <c r="BG17" s="40">
+      <c r="BG17" s="36">
         <f ca="1">-273.15+10^4/(7.53+0.07*Q17-1.1*FM17-14.9*DG17*DA17-0.08*LN(DB17)-3.62*(DH17+DI17)-0.18*LN(FG17)-0.026*AI17-0.14*FL17)</f>
         <v>978.9499824213716</v>
       </c>
-      <c r="BH17" s="40">
+      <c r="BH17" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q17-5.55*DG17*DA17-0.386*LN(DF17)-0.046*FO17+2.2*10^-4*AI17^2)</f>
         <v>1004.628661682765</v>
       </c>
-      <c r="BI17" s="40">
+      <c r="BI17" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q17-5.55*(DG17*DA17)-0.386*LN(DF17)-0.046*AI17+0.00022*AI17^2)</f>
         <v>1004.628661682765</v>
       </c>
-      <c r="BJ17" s="40">
+      <c r="BJ17" s="36">
         <f ca="1">10^4/(3.12-0.0259*BC17-0.37*LN(DF17/(DF17+DD17))+0.47*LN(DG17*(DF17+DD17)*DA17^2)-0.78*LN((DF17+DD17)^2*DA17^2)-0.34*LN(DG17*DC17^2*DA17))-273.15</f>
         <v>1081.0732065728689</v>
       </c>
-      <c r="BK17" s="70">
+      <c r="BK17" s="62">
         <f ca="1">EXP(-9.8+0.24*LN(DG17*(DD17+DF17)*DA17^2)+17558/AE17+8.7*LN(AE17/1670)-4.61*10^3*(FG17^2/AE17))</f>
         <v>1.1730644621915556</v>
       </c>
-      <c r="BL17" s="70">
+      <c r="BL17" s="62">
         <f ca="1">EXP(-0.482-0.439*LN(DA17)+101.03*(DH17+DI17)^3-51.69*AG17/AE17-3742.5*FG17^2/AE17)</f>
         <v>0.7974226743968551</v>
       </c>
-      <c r="BM17" s="70">
+      <c r="BM17" s="62">
         <f ca="1">EXP(-6.96+18438/AE17+8*LN(AE17/1670)+0.66*LN((DD17+DF17)^2*DA17^2)-5.1*10^3*(FF17^2/AE17)+1.81*LN(DA17))</f>
         <v>0.15075184435524766</v>
       </c>
-      <c r="BN17" s="70">
+      <c r="BN17" s="62">
         <f ca="1">EXP(2.58+0.12*AI17/AN17-9*10^-7*AI17^2/AN17+0.78*LN(DG17*DC17^2*DA17)-4.3*10^3*(FF17^2/AN17))</f>
         <v>1.4053987278890241E-2</v>
       </c>
-      <c r="BO17" s="70">
+      <c r="BO17" s="62">
         <f ca="1">EXP(-1.06+0.23*AI17/AN17-6*10^-7*AI17^2/AN17+1.02*LN(DH17*DC17*DA17^2)-0.8*LN(DC17)-2.2*LN(DA17))</f>
         <v>1.8315943930553559E-2</v>
       </c>
-      <c r="BP17" s="70">
+      <c r="BP17" s="62">
         <f ca="1">EXP(5.1+0.52*LN(DG17*DB17*DC17^2)+2.04*10^3*FF17^2/AN17-6.2*DA17+42.5*DH17*DC17-45.1*(DD17+DF17)*DC17)</f>
         <v>3.1857436931426682E-2</v>
       </c>
-      <c r="BQ17" s="70">
+      <c r="BQ17" s="62">
         <f>EXP(12.8)*DG17*DJ17^2*DA17</f>
         <v>0</v>
       </c>
-      <c r="BR17" s="40">
+      <c r="BR17" s="36">
         <f ca="1">SUM(BL17:BQ17)</f>
         <v>1.0124018868929734</v>
       </c>
-      <c r="BS17" s="53"/>
-      <c r="BT17" s="70">
+      <c r="BS17" s="47"/>
+      <c r="BT17" s="62">
         <f>FF17</f>
         <v>0.73267079503784271</v>
       </c>
-      <c r="BU17" s="70">
+      <c r="BU17" s="62">
         <f t="shared" si="6"/>
         <v>9.9544976148765063E-2</v>
       </c>
-      <c r="BV17" s="70">
+      <c r="BV17" s="62">
         <f t="shared" si="7"/>
         <v>9.1884663549011758E-2</v>
       </c>
-      <c r="BW17" s="70">
+      <c r="BW17" s="62">
         <f t="shared" si="8"/>
         <v>1.8084930967527724E-2</v>
       </c>
-      <c r="BX17" s="70">
+      <c r="BX17" s="62">
         <f t="shared" si="9"/>
         <v>7.166710610330454E-2</v>
       </c>
-      <c r="BY17" s="70">
+      <c r="BY17" s="62">
         <f t="shared" si="9"/>
         <v>3.2447030050030442E-3</v>
       </c>
-      <c r="BZ17" s="70">
+      <c r="BZ17" s="62">
         <f>SUM(BT17:BY17)</f>
         <v>1.017097174811455</v>
       </c>
-      <c r="CA17" s="70">
+      <c r="CA17" s="62">
         <f>(ER17/ET17)/($G$8*DD17/DF17)</f>
         <v>0.3094015969114679</v>
       </c>
-      <c r="CB17" s="53"/>
-      <c r="CC17" s="40"/>
-      <c r="CD17" s="40">
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36">
         <f ca="1">3205-5.62*ET17+83.2*EV17+68.2*FI17+2.52*LN(EP17)-51.1*FI17^2+34.8*FG17^2+0.384*(AH17)-518*LN(AH17)</f>
         <v>4.8483260885986965</v>
       </c>
-      <c r="CE17" s="40">
+      <c r="CE17" s="36">
         <f ca="1">1458+0.197*(AH17)-241*LN(AH17)+0.453*Q17+55.5*EP17+8.05*ER17-277*EW17+18*FB17+44.1*FF17+2.2*LN(FB17)-27.7*EQ17^2+97.3*GI17^2+30.7*GK17^2-27.6*FF17^2</f>
         <v>4.3819089010610792</v>
       </c>
-      <c r="CF17" s="40">
+      <c r="CF17" s="36">
         <f ca="1">-57.9+0.0475*(AH17)-40.6*DD17-47.7*FC17+0.67*Q17-153*DG17*DA17+6.89*(EQ17/DC17)</f>
         <v>12.169878382061086</v>
       </c>
-      <c r="CG17" s="40">
+      <c r="CG17" s="36">
         <f ca="1">-273.15+(93100+544*AI17)/(61.1+36.6*EN17+10.9*ER17-0.95*(EQ17+EX17-EV17-EW17)+0.395*(LN(FT17))^2)</f>
         <v>1104.7962896640865</v>
       </c>
-      <c r="CH17" s="54">
+      <c r="CH17" s="48">
         <f ca="1">EXP(-0.107-1719/AH17)</f>
         <v>0.26366927030219534</v>
       </c>
-      <c r="CJ17" s="40">
+      <c r="CJ17" s="36">
         <f>698.443+4.985*EO17-26.826*GJ17-3.764*EZ17+53.989*EP17+3.948*EN17+14.651*EX17-700.431*EU17-666.629*EV17-682.848*GK17-691.138*GI17-688.384*ES17-6.267*GK17^2-4.144*GI17^2</f>
         <v>3.3658756863828527</v>
       </c>
-      <c r="CK17" s="40">
+      <c r="CK17" s="36">
         <f>771.48+4.956*EO17-28.756*GJ17-5.345*EZ17+56.904*EP17+1.848*EN17+14.827*EX17-773.74*EU17-736.57*EV17-754.81*GK17-763.2*GI17-759.66*ES17-1.185*GK17^2-1.876*GI17^2</f>
         <v>3.1660584264524116</v>
       </c>
-      <c r="CL17" s="40">
+      <c r="CL17" s="36">
         <f ca="1">-273.15+(23166+39.28*AI17)/(13.25+15.35*EN17+4.5*ER17-1.55*(EQ17-EX17-EV17-EW17)+(LN(IF17))^2)</f>
         <v>794.36741167671164</v>
       </c>
@@ -10649,7 +10541,7 @@
         <f>SUM(DA17:DK17)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DM17" s="156">
+      <c r="DM17">
         <f t="shared" si="28"/>
         <v>52.603330113254593</v>
       </c>
@@ -10853,11 +10745,11 @@
         <f>DF17/(DF17+DD17)</f>
         <v>0.52603330113254598</v>
       </c>
-      <c r="FN17" s="67">
+      <c r="FN17" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1402.052416091813</v>
       </c>
-      <c r="FO17" s="67">
+      <c r="FO17" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>0.27853428935678881</v>
       </c>
@@ -11022,126 +10914,126 @@
         <v>3.5117383244666769</v>
       </c>
       <c r="HD17" s="4"/>
-      <c r="HE17" s="7">
+      <c r="HE17" s="6">
         <f>GI17+GJ17+ES17</f>
         <v>0.16893220015302657</v>
       </c>
-      <c r="HF17" s="7">
+      <c r="HF17" s="6">
         <f>GK17+GL17</f>
         <v>0.7286341975594367</v>
       </c>
-      <c r="HG17" s="7">
+      <c r="HG17" s="6">
         <f>IF(EV17&gt;EZ17,EZ17,EV17)</f>
         <v>1.8084930967527724E-2</v>
       </c>
-      <c r="HH17" s="7">
+      <c r="HH17" s="6">
         <f>EV17-HG17</f>
         <v>0</v>
       </c>
-      <c r="HI17" s="7">
+      <c r="HI17" s="6">
         <f>EZ17-HG17</f>
         <v>2.0533701380655821E-2</v>
       </c>
-      <c r="HJ17" s="7">
+      <c r="HJ17" s="6">
         <f>IF(HH17&gt;EP17,EP17,HH17)</f>
         <v>0</v>
       </c>
-      <c r="HK17" s="7">
+      <c r="HK17" s="6">
         <f>HH17-HJ17</f>
         <v>0</v>
       </c>
-      <c r="HL17" s="7">
+      <c r="HL17" s="6">
         <f>EP17-HJ17</f>
         <v>0.10996959451653948</v>
       </c>
-      <c r="HM17" s="7">
+      <c r="HM17" s="6">
         <f>HL17+EX17+2*EN17</f>
         <v>0.21468517437496501</v>
       </c>
-      <c r="HN17" s="7">
+      <c r="HN17" s="6">
         <f>HE17/(HE17+HF17)</f>
         <v>0.18821136863363758</v>
       </c>
-      <c r="HO17" s="7">
+      <c r="HO17" s="6">
         <f>(EU17-HM17-HI17)*(1-HN17)</f>
         <v>0.53922929297990729</v>
       </c>
-      <c r="HP17" s="7">
+      <c r="HP17" s="6">
         <f>(EU17-HM17-HI17)*HN17</f>
         <v>0.12501909895963398</v>
       </c>
-      <c r="HQ17" s="7">
+      <c r="HQ17" s="6">
         <f>(1-HG17-HJ17-HI17-HM17-HO17-HP17)*(1-HN17)</f>
         <v>6.6930187806780769E-2</v>
       </c>
-      <c r="HR17" s="7">
+      <c r="HR17" s="6">
         <f>(1-HG17-HJ17-HI17-HM17-HO17-HP17)*HN17</f>
         <v>1.5517613530529401E-2</v>
       </c>
-      <c r="HS17" s="7">
+      <c r="HS17" s="6">
         <f>HJ17+HG17</f>
         <v>1.8084930967527724E-2</v>
       </c>
-      <c r="HT17" s="7"/>
-      <c r="HU17" s="16">
+      <c r="HT17" s="6"/>
+      <c r="HU17" s="15">
         <f>(-0.000000872*HO17)-(0.000000749*HQ17)-(0.000000993*HP17)-(0.00000087*(HM17+HI17))-(0.00000086*HS17)-(0.00000087*HR17)</f>
         <v>-8.78176405723699E-7</v>
       </c>
-      <c r="HV17" s="16">
+      <c r="HV17" s="15">
         <f>(0.000000000001707*HO17)+(0.000000000000447*HQ17)+(0.0000000000014835*HP17)+(0.000000000002171*(HM17+HI17))+(0.000000000002149*HS17)+(0.0000000000002235*HR17)</f>
         <v>1.6888409129116928E-12</v>
       </c>
-      <c r="HW17" s="16">
+      <c r="HW17" s="15">
         <f>(0.000027795*HO17)+(0.000024656*HQ17)+(0.000031371*HP17)+(0.00002225*(HM17+HI17))+(0.000023118*HS17)+(0.000028232*HR17)</f>
         <v>2.6649883747266961E-5</v>
       </c>
-      <c r="HX17" s="16">
+      <c r="HX17" s="15">
         <f>(0.0000000083082*HO17)+(0.000000007467*HQ17)+(0.0000000083672*HP17)+(0.0000000052863*(HM17+HI17))+(0.0000000025785*HS17)+(0.000000007526*HR17)</f>
         <v>7.432707425941421E-9</v>
       </c>
-      <c r="HY17" s="7">
+      <c r="HY17" s="6">
         <f>GQ17</f>
         <v>2.2919224390713322</v>
       </c>
-      <c r="HZ17" s="7">
+      <c r="HZ17" s="6">
         <f t="shared" ca="1" si="32"/>
         <v>455.53295447612015</v>
       </c>
-      <c r="IA17" s="7">
+      <c r="IA17" s="6">
         <f t="shared" ca="1" si="33"/>
         <v>5.7929240474398771</v>
       </c>
-      <c r="IB17" s="7">
+      <c r="IB17" s="6">
         <f t="shared" ca="1" si="34"/>
         <v>455.53301441537451</v>
       </c>
-      <c r="IC17" s="7">
+      <c r="IC17" s="6">
         <f t="shared" ca="1" si="35"/>
         <v>5.6375781888021335</v>
       </c>
-      <c r="ID17" s="7">
+      <c r="ID17" s="6">
         <f t="shared" ca="1" si="36"/>
         <v>5.7929240474398771</v>
       </c>
-      <c r="IE17" s="7"/>
+      <c r="IE17" s="6"/>
       <c r="IF17" s="2">
         <f>(1-EU17-EV17-EW17)*(1-0.5*(EQ17+EX17+EV17+EW17))</f>
         <v>6.7204736100285767E-2</v>
       </c>
-      <c r="IG17" s="17">
+      <c r="IG17" s="16">
         <f ca="1">D17-25</f>
         <v>1064.003722108444</v>
       </c>
-      <c r="IH17" s="17"/>
-      <c r="II17" s="7">
+      <c r="IH17" s="16"/>
+      <c r="II17" s="6">
         <f>1.4133+(0.05601*HB17)</f>
         <v>2.0641396043141347</v>
       </c>
-      <c r="IJ17" s="17">
+      <c r="IJ17" s="16">
         <f>(7500*HY17)/II17^3</f>
         <v>1954.5373772016726</v>
       </c>
-      <c r="IK17" s="16">
+      <c r="IK17" s="15">
         <f>0.0000329*(0.75-HY17/6)</f>
         <v>1.2107625292425529E-5</v>
       </c>
@@ -11149,342 +11041,342 @@
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="IN17" s="166">
+      <c r="IN17" s="1">
         <f t="shared" si="38"/>
         <v>0.39789375849368874</v>
       </c>
-      <c r="IO17" s="166">
+      <c r="IO17" s="1">
         <f t="shared" si="39"/>
         <v>0.11092367968854445</v>
       </c>
-      <c r="IP17" s="166">
+      <c r="IP17" s="1">
         <f t="shared" si="40"/>
         <v>0.49118256181776676</v>
       </c>
-      <c r="IR17" s="167">
+      <c r="IR17" s="141">
         <f>IO17/(COS(RADIANS(30)))+IP17*TAN(RADIANS(30))</f>
         <v>0.41166801694210753</v>
       </c>
-      <c r="IS17" s="167">
+      <c r="IS17" s="141">
         <f>IP17</f>
         <v>0.49118256181776676</v>
       </c>
-      <c r="IU17" s="169">
+      <c r="IU17" s="3">
         <v>0</v>
       </c>
-      <c r="IV17" s="169">
+      <c r="IV17" s="3">
         <v>0.9</v>
       </c>
-      <c r="IW17" s="169">
+      <c r="IW17" s="3">
         <v>0.1</v>
       </c>
-      <c r="IX17" s="169"/>
-      <c r="IY17" s="167">
+      <c r="IX17" s="3"/>
+      <c r="IY17" s="141">
         <f>IV17/(COS(RADIANS(30)))+IW17*TAN(RADIANS(30))</f>
         <v>1.0969655114602888</v>
       </c>
-      <c r="IZ17" s="167">
+      <c r="IZ17" s="141">
         <f>IW17</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:260" ht="13.2">
-      <c r="A18" s="139" t="s">
+    <row r="18" spans="1:260">
+      <c r="A18" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="139" t="s">
+      <c r="B18" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="78">
+      <c r="C18" s="22">
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="99">
         <f ca="1">AK18-273.15</f>
         <v>1113.9864189380728</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <f ca="1">BL18-BT18</f>
         <v>2.8429514155249191E-2</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="106">
         <v>52.5</v>
       </c>
-      <c r="G18" s="123">
+      <c r="G18" s="106">
         <v>0.98</v>
       </c>
-      <c r="H18" s="123">
+      <c r="H18" s="106">
         <v>19.2</v>
       </c>
-      <c r="I18" s="123">
+      <c r="I18" s="106">
         <v>8.0399999999999991</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="106">
         <v>0.2</v>
       </c>
-      <c r="K18" s="132">
+      <c r="K18" s="114">
         <v>4.99</v>
       </c>
-      <c r="L18" s="123">
+      <c r="L18" s="106">
         <v>9.64</v>
       </c>
-      <c r="M18" s="123">
+      <c r="M18" s="106">
         <v>4.1500000000000004</v>
       </c>
-      <c r="N18" s="123">
+      <c r="N18" s="106">
         <v>0.21</v>
       </c>
-      <c r="O18" s="123">
+      <c r="O18" s="106">
         <v>0</v>
       </c>
-      <c r="P18" s="123">
+      <c r="P18" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q18" s="123">
+      <c r="Q18" s="106">
         <v>6.2</v>
       </c>
-      <c r="R18" s="119">
+      <c r="R18" s="102">
         <f t="shared" ca="1" si="10"/>
         <v>3.8817599045884452</v>
       </c>
-      <c r="T18" s="123">
+      <c r="T18" s="106">
         <v>51.1</v>
       </c>
-      <c r="U18" s="123">
+      <c r="U18" s="106">
         <v>0.63</v>
       </c>
-      <c r="V18" s="123">
+      <c r="V18" s="106">
         <v>4.41</v>
       </c>
-      <c r="W18" s="123">
+      <c r="W18" s="106">
         <v>5.66</v>
       </c>
-      <c r="X18" s="123">
+      <c r="X18" s="106">
         <v>0.13</v>
       </c>
-      <c r="Y18" s="123">
+      <c r="Y18" s="106">
         <v>15.6</v>
       </c>
-      <c r="Z18" s="123">
+      <c r="Z18" s="106">
         <v>22.6</v>
       </c>
-      <c r="AA18" s="123">
+      <c r="AA18" s="106">
         <v>0.23</v>
       </c>
-      <c r="AB18" s="123">
+      <c r="AB18" s="106">
         <v>0</v>
       </c>
-      <c r="AC18" s="123">
+      <c r="AC18" s="106">
         <v>0.27</v>
       </c>
-      <c r="AE18" s="112">
+      <c r="AE18" s="98">
         <f ca="1">10^4/(7.53-0.14*FK18+0.07*Q18-14.9*DG18*DA18-0.08*LN(DB18)-3.62*(DH18+DI18)-1.1*DF18/(DF18+DD18)-0.18*LN(FG18)-0.027*AG18)</f>
         <v>1287.3207490003197</v>
       </c>
-      <c r="AF18" s="165">
+      <c r="AF18" s="140">
         <f ca="1">AE18-273.15</f>
         <v>1014.1707490003197</v>
       </c>
-      <c r="AG18" s="165">
+      <c r="AG18" s="140">
         <f ca="1">-26.2712+39.16138*AE18*FJ18/10^4-4.21676*LN(FI18)+78.43463*DC18+393.8126*(DH18+DI18)^2</f>
         <v>0.9527080420877736</v>
       </c>
-      <c r="AH18" s="91">
+      <c r="AH18" s="80">
         <f ca="1">AX18</f>
         <v>1408.8075371298269</v>
       </c>
-      <c r="AI18" s="91">
+      <c r="AI18" s="80">
         <f ca="1">AZ18</f>
         <v>1.2637889101478059</v>
       </c>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="91">
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>1387.1364189380727</v>
       </c>
-      <c r="AL18" s="91">
+      <c r="AL18" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>-2.1440159209469289E-2</v>
       </c>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="91">
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80">
         <f ca="1">10^4/(7.53-0.14*FK18+0.07*Q18-14.9*DG18*DA18-0.08*LN(DB18)-3.62*(DH18+DI18)-1.1*DF18/(DF18+DD18)-0.18*LN(FG18)-0.027*AP18)</f>
         <v>1266.4833880034246</v>
       </c>
-      <c r="AO18" s="91">
+      <c r="AO18" s="80">
         <f t="shared" ca="1" si="25"/>
         <v>993.3333880034246</v>
       </c>
-      <c r="AP18" s="91">
+      <c r="AP18" s="80">
         <f ca="1">IF(ABS(FB18)&gt;0,-54.3+299*(AN18)/10^4+36.4*(AN18)*FJ18/10^4+367*DH18*DC18,0)</f>
         <v>-3.7809042565301674</v>
       </c>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="91">
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80">
         <f ca="1">10^4/(6.39+0.076*Q18-5.55*DG18*DA18-0.386*LN(DF18)-0.046*AT18+2.2*10^-4*(AT18^2))</f>
         <v>1283.266495358735</v>
       </c>
-      <c r="AS18" s="91">
+      <c r="AS18" s="80">
         <f t="shared" ca="1" si="26"/>
         <v>1010.1164953587351</v>
       </c>
-      <c r="AT18" s="40">
+      <c r="AT18" s="36">
         <f t="shared" ca="1" si="27"/>
         <v>-3.1860254006884698</v>
       </c>
-      <c r="AV18" s="40">
+      <c r="AV18" s="36">
         <f>IF(ABS(FB18)&gt;0,10^4/(6.73-0.26*FK18-0.86*LN(FM18)+0.52*LN(DG18)),0)</f>
         <v>1403.3181652349751</v>
       </c>
-      <c r="AW18" s="40">
+      <c r="AW18" s="36">
         <f>IF(AV18&gt;0,AV18-273.15,0)</f>
         <v>1130.1681652349753</v>
       </c>
-      <c r="AX18" s="40">
+      <c r="AX18" s="36">
         <f ca="1">IF(ABS(FB18)&gt;0,10^4/(6.59-0.16*FK18-0.65*LN(FM18)+0.23*LN(DG18)-0.02*AZ18),0)</f>
         <v>1408.8075371298269</v>
       </c>
-      <c r="AY18" s="40">
+      <c r="AY18" s="36">
         <f ca="1">IF(AX18&gt;0,AX18-273.15,0)</f>
         <v>1135.6575371298268</v>
       </c>
-      <c r="AZ18" s="40">
+      <c r="AZ18" s="36">
         <f ca="1">IF(ABS(FB18)&gt;0,-54.3+299*(AX18)/10^4+36.4*(AX18)*FJ18/10^4+367*DH18*DC18,0)</f>
         <v>1.2637889101478059</v>
       </c>
-      <c r="BA18" s="40"/>
-      <c r="BB18" s="40">
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36">
         <f ca="1">IF(ABS(FB18)&gt;0,10^4/(4.6-0.437*FL18-0.654*LN(FM18)-0.326*LN(DH18)-0.92*LN(DA18)+0.274*LN(FB18)-0.00632*BC18),0)</f>
         <v>1387.1364189380727</v>
       </c>
-      <c r="BC18" s="40">
+      <c r="BC18" s="36">
         <f ca="1">IF(ABS(FB18)&gt;0,-88.3+0.00282*(BB18)*FJ18+0.0219*(BB18)-25.1*LN(DG18*DA18)+12.4*LN(DG18)+7.03*FM18,0)</f>
         <v>-2.1440159209469289E-2</v>
       </c>
-      <c r="BD18" s="40">
+      <c r="BD18" s="36">
         <f ca="1">BB18-273.15</f>
         <v>1113.9864189380728</v>
       </c>
-      <c r="BE18" s="40">
+      <c r="BE18" s="36">
         <f ca="1">-48.7+271.3*AH18/10^4+31.96*(AH18/10^4)*FJ18-8.2*LN(DD18)+4.6*LN(DF18)-0.96*LN(DI18)-2.2*LN(FI18)-31*FM18+56.2*(DH18+DI18)+0.76*Q18</f>
         <v>5.8594387983387897</v>
       </c>
-      <c r="BF18" s="40">
+      <c r="BF18" s="36">
         <f ca="1">-40.73+358*AH18/10^4+21.7*(AH18/10^4)*FJ18-106*DG18-166*(DH18+DI18)^2-50.2*DA18*(DD18+DF18)-3.2*LN(FI18)-2.2*LN(FG18)+0.86*LN(EQ18)+0.4*Q18</f>
         <v>6.7530336496901162</v>
       </c>
-      <c r="BG18" s="40">
+      <c r="BG18" s="36">
         <f ca="1">-273.15+10^4/(7.53+0.07*Q18-1.1*FM18-14.9*DG18*DA18-0.08*LN(DB18)-3.62*(DH18+DI18)-0.18*LN(FG18)-0.026*AI18-0.14*FL18)</f>
         <v>1015.3543099721982</v>
       </c>
-      <c r="BH18" s="40">
+      <c r="BH18" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q18-5.55*DG18*DA18-0.386*LN(DF18)-0.046*FO18+2.2*10^-4*AI18^2)</f>
         <v>1045.0606987280357</v>
       </c>
-      <c r="BI18" s="40">
+      <c r="BI18" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q18-5.55*(DG18*DA18)-0.386*LN(DF18)-0.046*AI18+0.00022*AI18^2)</f>
         <v>1045.0606987280357</v>
       </c>
-      <c r="BJ18" s="40">
+      <c r="BJ18" s="36">
         <f ca="1">10^4/(3.12-0.0259*BC18-0.37*LN(DF18/(DF18+DD18))+0.47*LN(DG18*(DF18+DD18)*DA18^2)-0.78*LN((DF18+DD18)^2*DA18^2)-0.34*LN(DG18*DC18^2*DA18))-273.15</f>
         <v>1146.0429467450385</v>
       </c>
-      <c r="BK18" s="70">
+      <c r="BK18" s="62">
         <f ca="1">EXP(-9.8+0.24*LN(DG18*(DD18+DF18)*DA18^2)+17558/AE18+8.7*LN(AE18/1670)-4.61*10^3*(FG18^2/AE18))</f>
         <v>1.130061694221981</v>
       </c>
-      <c r="BL18" s="70">
+      <c r="BL18" s="62">
         <f ca="1">EXP(-0.482-0.439*LN(DA18)+101.03*(DH18+DI18)^3-51.69*AG18/AE18-3742.5*FG18^2/AE18)</f>
         <v>0.82447830069610495</v>
       </c>
-      <c r="BM18" s="70">
+      <c r="BM18" s="62">
         <f ca="1">EXP(-6.96+18438/AE18+8*LN(AE18/1670)+0.66*LN((DD18+DF18)^2*DA18^2)-5.1*10^3*(FF18^2/AE18)+1.81*LN(DA18))</f>
         <v>0.10986343149152779</v>
       </c>
-      <c r="BN18" s="70">
+      <c r="BN18" s="62">
         <f ca="1">EXP(2.58+0.12*AI18/AN18-9*10^-7*AI18^2/AN18+0.78*LN(DG18*DC18^2*DA18)-4.3*10^3*(FF18^2/AN18))</f>
         <v>1.1907399205121873E-2</v>
       </c>
-      <c r="BO18" s="70">
+      <c r="BO18" s="62">
         <f ca="1">EXP(-1.06+0.23*AI18/AN18-6*10^-7*AI18^2/AN18+1.02*LN(DH18*DC18*DA18^2)-0.8*LN(DC18)-2.2*LN(DA18))</f>
         <v>1.932005083860059E-2</v>
       </c>
-      <c r="BP18" s="70">
+      <c r="BP18" s="62">
         <f ca="1">EXP(5.1+0.52*LN(DG18*DB18*DC18^2)+2.04*10^3*FF18^2/AN18-6.2*DA18+42.5*DH18*DC18-45.1*(DD18+DF18)*DC18)</f>
         <v>5.5579962577046629E-2</v>
       </c>
-      <c r="BQ18" s="70">
+      <c r="BQ18" s="62">
         <f>EXP(12.8)*DG18*DJ18^2*DA18</f>
         <v>0</v>
       </c>
-      <c r="BR18" s="40">
+      <c r="BR18" s="36">
         <f ca="1">SUM(BL18:BQ18)</f>
         <v>1.0211491448084018</v>
       </c>
-      <c r="BS18" s="53"/>
-      <c r="BT18" s="70">
+      <c r="BS18" s="47"/>
+      <c r="BT18" s="62">
         <f>FF18</f>
         <v>0.79604878654085576</v>
       </c>
-      <c r="BU18" s="70">
+      <c r="BU18" s="62">
         <f t="shared" si="6"/>
         <v>0.1145955081439623</v>
       </c>
-      <c r="BV18" s="70">
+      <c r="BV18" s="62">
         <f t="shared" si="7"/>
         <v>4.5827315358557691E-2</v>
       </c>
-      <c r="BW18" s="70">
+      <c r="BW18" s="62">
         <f t="shared" si="8"/>
         <v>1.6334601092911297E-2</v>
       </c>
-      <c r="BX18" s="70">
+      <c r="BX18" s="62">
         <f t="shared" si="9"/>
         <v>4.1197081002489463E-2</v>
       </c>
-      <c r="BY18" s="70">
+      <c r="BY18" s="62">
         <f t="shared" si="9"/>
         <v>3.9094880024166884E-3</v>
       </c>
-      <c r="BZ18" s="70">
+      <c r="BZ18" s="62">
         <f>SUM(BT18:BY18)</f>
         <v>1.0179127801411931</v>
       </c>
-      <c r="CA18" s="70">
+      <c r="CA18" s="62">
         <f>(ER18/ET18)/($G$8*DD18/DF18)</f>
         <v>0.22518337798188542</v>
       </c>
-      <c r="CB18" s="53"/>
-      <c r="CC18" s="40"/>
-      <c r="CD18" s="40">
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36">
         <f ca="1">3205-5.62*ET18+83.2*EV18+68.2*FI18+2.52*LN(EP18)-51.1*FI18^2+34.8*FG18^2+0.384*(AH18)-518*LN(AH18)</f>
         <v>2.1604494270181931</v>
       </c>
-      <c r="CE18" s="40">
+      <c r="CE18" s="36">
         <f ca="1">1458+0.197*(AH18)-241*LN(AH18)+0.453*Q18+55.5*EP18+8.05*ER18-277*EW18+18*FB18+44.1*FF18+2.2*LN(FB18)-27.7*EQ18^2+97.3*GI18^2+30.7*GK18^2-27.6*FF18^2</f>
         <v>3.875650604655636</v>
       </c>
-      <c r="CF18" s="40">
+      <c r="CF18" s="36">
         <f ca="1">-57.9+0.0475*(AH18)-40.6*DD18-47.7*FC18+0.67*Q18-153*DG18*DA18+6.89*(EQ18/DC18)</f>
         <v>7.808893483357588</v>
       </c>
-      <c r="CG18" s="40">
+      <c r="CG18" s="36">
         <f ca="1">-273.15+(93100+544*AI18)/(61.1+36.6*EN18+10.9*ER18-0.95*(EQ18+EX18-EV18-EW18)+0.395*(LN(FT18))^2)</f>
         <v>1151.6941899432718</v>
       </c>
-      <c r="CH18" s="54">
+      <c r="CH18" s="48">
         <f ca="1">EXP(-0.107-1719/AH18)</f>
         <v>0.26522391022485453</v>
       </c>
-      <c r="CJ18" s="40">
+      <c r="CJ18" s="36">
         <f>698.443+4.985*EO18-26.826*GJ18-3.764*EZ18+53.989*EP18+3.948*EN18+14.651*EX18-700.431*EU18-666.629*EV18-682.848*GK18-691.138*GI18-688.384*ES18-6.267*GK18^2-4.144*GI18^2</f>
         <v>1.1460946027634207</v>
       </c>
-      <c r="CK18" s="40">
+      <c r="CK18" s="36">
         <f>771.48+4.956*EO18-28.756*GJ18-5.345*EZ18+56.904*EP18+1.848*EN18+14.827*EX18-773.74*EU18-736.57*EV18-754.81*GK18-763.2*GI18-759.66*ES18-1.185*GK18^2-1.876*GI18^2</f>
         <v>0.9559260408480833</v>
       </c>
-      <c r="CL18" s="40">
+      <c r="CL18" s="36">
         <f ca="1">-273.15+(23166+39.28*AI18)/(13.25+15.35*EN18+4.5*ER18-1.55*(EQ18-EX18-EV18-EW18)+(LN(IF18))^2)</f>
         <v>885.28713770794332</v>
       </c>
@@ -11585,7 +11477,7 @@
         <f>SUM(DA18:DK18)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DM18" s="156">
+      <c r="DM18">
         <f t="shared" si="28"/>
         <v>52.524768075204399</v>
       </c>
@@ -11789,11 +11681,11 @@
         <f>DF18/(DF18+DD18)</f>
         <v>0.52524768075204398</v>
       </c>
-      <c r="FN18" s="67">
+      <c r="FN18" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1408.8075371298269</v>
       </c>
-      <c r="FO18" s="67">
+      <c r="FO18" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1.2637889101478059</v>
       </c>
@@ -11958,126 +11850,126 @@
         <v>1.1622640944065665</v>
       </c>
       <c r="HD18" s="4"/>
-      <c r="HE18" s="7">
+      <c r="HE18" s="6">
         <f>GI18+GJ18+ES18</f>
         <v>0.13755722878157653</v>
       </c>
-      <c r="HF18" s="7">
+      <c r="HF18" s="6">
         <f>GK18+GL18</f>
         <v>0.85185701376481848</v>
       </c>
-      <c r="HG18" s="7">
+      <c r="HG18" s="6">
         <f>IF(EV18&gt;EZ18,EZ18,EV18)</f>
         <v>1.6334601092911297E-2</v>
       </c>
-      <c r="HH18" s="7">
+      <c r="HH18" s="6">
         <f>EV18-HG18</f>
         <v>0</v>
       </c>
-      <c r="HI18" s="7">
+      <c r="HI18" s="6">
         <f>EZ18-HG18</f>
         <v>2.3524273236532094E-2</v>
       </c>
-      <c r="HJ18" s="7">
+      <c r="HJ18" s="6">
         <f>IF(HH18&gt;EP18,EP18,HH18)</f>
         <v>0</v>
       </c>
-      <c r="HK18" s="7">
+      <c r="HK18" s="6">
         <f>HH18-HJ18</f>
         <v>0</v>
       </c>
-      <c r="HL18" s="7">
+      <c r="HL18" s="6">
         <f>EP18-HJ18</f>
         <v>6.2161916451468985E-2</v>
       </c>
-      <c r="HM18" s="7">
+      <c r="HM18" s="6">
         <f>HL18+EX18+2*EN18</f>
         <v>0.10469720412700452</v>
       </c>
-      <c r="HN18" s="7">
+      <c r="HN18" s="6">
         <f>HE18/(HE18+HF18)</f>
         <v>0.13902895558442124</v>
       </c>
-      <c r="HO18" s="7">
+      <c r="HO18" s="6">
         <f>(EU18-HM18-HI18)*(1-HN18)</f>
         <v>0.65327141726481885</v>
       </c>
-      <c r="HP18" s="7">
+      <c r="HP18" s="6">
         <f>(EU18-HM18-HI18)*HN18</f>
         <v>0.10548977627596395</v>
       </c>
-      <c r="HQ18" s="7">
+      <c r="HQ18" s="6">
         <f>(1-HG18-HJ18-HI18-HM18-HO18-HP18)*(1-HN18)</f>
         <v>8.3241029305491585E-2</v>
       </c>
-      <c r="HR18" s="7">
+      <c r="HR18" s="6">
         <f>(1-HG18-HJ18-HI18-HM18-HO18-HP18)*HN18</f>
         <v>1.3441698697277691E-2</v>
       </c>
-      <c r="HS18" s="7">
+      <c r="HS18" s="6">
         <f>HJ18+HG18</f>
         <v>1.6334601092911297E-2</v>
       </c>
-      <c r="HT18" s="7"/>
-      <c r="HU18" s="16">
+      <c r="HT18" s="6"/>
+      <c r="HU18" s="15">
         <f>(-0.000000872*HO18)-(0.000000749*HQ18)-(0.000000993*HP18)-(0.00000087*(HM18+HI18))-(0.00000086*HS18)-(0.00000087*HR18)</f>
         <v>-8.7404627475957961E-7</v>
       </c>
-      <c r="HV18" s="16">
+      <c r="HV18" s="15">
         <f>(0.000000000001707*HO18)+(0.000000000000447*HQ18)+(0.0000000000014835*HP18)+(0.000000000002171*(HM18+HI18))+(0.000000000002149*HS18)+(0.0000000000002235*HR18)</f>
         <v>1.6253132372397391E-12</v>
       </c>
-      <c r="HW18" s="16">
+      <c r="HW18" s="15">
         <f>(0.000027795*HO18)+(0.000024656*HQ18)+(0.000031371*HP18)+(0.00002225*(HM18+HI18))+(0.000023118*HS18)+(0.000028232*HR18)</f>
         <v>2.712942685001127E-5</v>
       </c>
-      <c r="HX18" s="16">
+      <c r="HX18" s="15">
         <f>(0.0000000083082*HO18)+(0.000000007467*HQ18)+(0.0000000083672*HP18)+(0.0000000052863*(HM18+HI18))+(0.0000000025785*HS18)+(0.000000007526*HR18)</f>
         <v>7.7528225999005693E-9</v>
       </c>
-      <c r="HY18" s="7">
+      <c r="HY18" s="6">
         <f>GQ18</f>
         <v>2.1844149527858931</v>
       </c>
-      <c r="HZ18" s="7">
+      <c r="HZ18" s="6">
         <f t="shared" ca="1" si="32"/>
         <v>456.41849916636613</v>
       </c>
-      <c r="IA18" s="7">
+      <c r="IA18" s="6">
         <f t="shared" ca="1" si="33"/>
         <v>3.9400412653766343</v>
       </c>
-      <c r="IB18" s="7">
+      <c r="IB18" s="6">
         <f t="shared" ca="1" si="34"/>
         <v>456.4186647717197</v>
       </c>
-      <c r="IC18" s="7">
+      <c r="IC18" s="6">
         <f t="shared" ca="1" si="35"/>
         <v>3.5088329496210671</v>
       </c>
-      <c r="ID18" s="7">
+      <c r="ID18" s="6">
         <f t="shared" ca="1" si="36"/>
         <v>3.9400412653766343</v>
       </c>
-      <c r="IE18" s="7"/>
+      <c r="IE18" s="6"/>
       <c r="IF18" s="2">
         <f>(1-EU18-EV18-EW18)*(1-0.5*(EQ18+EX18+EV18+EW18))</f>
         <v>8.6311718200121498E-2</v>
       </c>
-      <c r="IG18" s="17">
+      <c r="IG18" s="16">
         <f ca="1">D18-25</f>
         <v>1088.9864189380728</v>
       </c>
-      <c r="IH18" s="17"/>
-      <c r="II18" s="7">
+      <c r="IH18" s="16"/>
+      <c r="II18" s="6">
         <f>1.4133+(0.05601*HB18)</f>
         <v>2.0722409448378243</v>
       </c>
-      <c r="IJ18" s="17">
+      <c r="IJ18" s="16">
         <f>(7500*HY18)/II18^3</f>
         <v>1841.0926848237059</v>
       </c>
-      <c r="IK18" s="16">
+      <c r="IK18" s="15">
         <f>0.0000329*(0.75-HY18/6)</f>
         <v>1.2697124675557353E-5</v>
       </c>
@@ -12085,342 +11977,342 @@
         <f t="shared" ref="IM18:IM19" si="41">SUM(IN18:IP18)</f>
         <v>1</v>
       </c>
-      <c r="IN18" s="166">
+      <c r="IN18" s="1">
         <f t="shared" ref="IN18:IN19" si="42">ET18/(ER18+ET18+EU18)</f>
         <v>0.4454800764378618</v>
       </c>
-      <c r="IO18" s="166">
+      <c r="IO18" s="1">
         <f t="shared" ref="IO18:IO19" si="43">ER18/(ER18+ET18+EU18)</f>
         <v>9.0670824888632609E-2</v>
       </c>
-      <c r="IP18" s="166">
+      <c r="IP18" s="1">
         <f t="shared" ref="IP18:IP19" si="44">EU18/(EU18+ET18+ER18)</f>
         <v>0.46384909867350554</v>
       </c>
-      <c r="IR18" s="167">
+      <c r="IR18" s="141">
         <f t="shared" ref="IR18:IR19" si="45">IO18/(COS(RADIANS(30)))+IP18*TAN(RADIANS(30))</f>
         <v>0.3725010522967086</v>
       </c>
-      <c r="IS18" s="167">
+      <c r="IS18" s="141">
         <f t="shared" ref="IS18:IS19" si="46">IP18</f>
         <v>0.46384909867350554</v>
       </c>
-      <c r="IU18" s="169">
+      <c r="IU18" s="3">
         <v>0</v>
       </c>
-      <c r="IV18" s="169">
+      <c r="IV18" s="3">
         <v>0.9</v>
       </c>
-      <c r="IW18" s="169">
+      <c r="IW18" s="3">
         <v>0.1</v>
       </c>
-      <c r="IX18" s="169"/>
-      <c r="IY18" s="167">
+      <c r="IX18" s="3"/>
+      <c r="IY18" s="141">
         <f t="shared" ref="IY18:IY19" si="47">IV18/(COS(RADIANS(30)))+IW18*TAN(RADIANS(30))</f>
         <v>1.0969655114602888</v>
       </c>
-      <c r="IZ18" s="167">
+      <c r="IZ18" s="141">
         <f t="shared" ref="IZ18:IZ19" si="48">IW18</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:260" ht="13.2">
-      <c r="A19" s="139" t="s">
+    <row r="19" spans="1:260">
+      <c r="A19" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="139" t="s">
+      <c r="B19" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="22">
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="99">
         <f ca="1">AK19-273.15</f>
         <v>1034.5076545409379</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <f ca="1">BL19-BT19</f>
         <v>8.5955901826140213E-3</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="106">
         <v>56.2</v>
       </c>
-      <c r="G19" s="123">
+      <c r="G19" s="106">
         <v>0.34</v>
       </c>
-      <c r="H19" s="123">
+      <c r="H19" s="106">
         <v>20.399999999999999</v>
       </c>
-      <c r="I19" s="123">
+      <c r="I19" s="106">
         <v>5.88</v>
       </c>
-      <c r="J19" s="123">
+      <c r="J19" s="106">
         <v>0.2</v>
       </c>
-      <c r="K19" s="132">
+      <c r="K19" s="114">
         <v>2.58</v>
       </c>
-      <c r="L19" s="123">
+      <c r="L19" s="106">
         <v>7.18</v>
       </c>
-      <c r="M19" s="123">
+      <c r="M19" s="106">
         <v>6.02</v>
       </c>
-      <c r="N19" s="123">
+      <c r="N19" s="106">
         <v>1.02</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="106">
         <v>0</v>
       </c>
-      <c r="P19" s="123">
+      <c r="P19" s="106">
         <v>0.23</v>
       </c>
-      <c r="Q19" s="123">
+      <c r="Q19" s="106">
         <v>6.2</v>
       </c>
-      <c r="R19" s="119">
+      <c r="R19" s="102">
         <f ca="1">0.7996+15.347*(AI19/10)^0.5-0.00233*(AH19-273.15)+0.06248*(N19+M19)</f>
         <v>5.1717845930272901</v>
       </c>
-      <c r="T19" s="123">
+      <c r="T19" s="106">
         <v>51</v>
       </c>
-      <c r="U19" s="123">
+      <c r="U19" s="106">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V19" s="123">
+      <c r="V19" s="106">
         <v>4.1399999999999997</v>
       </c>
-      <c r="W19" s="123">
+      <c r="W19" s="106">
         <v>7.33</v>
       </c>
-      <c r="X19" s="123">
+      <c r="X19" s="106">
         <v>0.2</v>
       </c>
-      <c r="Y19" s="123">
+      <c r="Y19" s="106">
         <v>14.4</v>
       </c>
-      <c r="Z19" s="123">
+      <c r="Z19" s="106">
         <v>22.4</v>
       </c>
-      <c r="AA19" s="123">
+      <c r="AA19" s="106">
         <v>0.31</v>
       </c>
-      <c r="AB19" s="123">
+      <c r="AB19" s="106">
         <v>0</v>
       </c>
-      <c r="AC19" s="123">
+      <c r="AC19" s="106">
         <v>0.09</v>
       </c>
-      <c r="AE19" s="112">
+      <c r="AE19" s="98">
         <f ca="1">10^4/(7.53-0.14*FK19+0.07*Q19-14.9*DG19*DA19-0.08*LN(DB19)-3.62*(DH19+DI19)-1.1*DF19/(DF19+DD19)-0.18*LN(FG19)-0.027*AG19)</f>
         <v>1246.895515051508</v>
       </c>
-      <c r="AF19" s="165">
+      <c r="AF19" s="140">
         <f t="shared" ref="AF19" ca="1" si="49">AE19-273.15</f>
         <v>973.74551505150805</v>
       </c>
-      <c r="AG19" s="165">
+      <c r="AG19" s="140">
         <f ca="1">-26.2712+39.16138*AE19*FJ19/10^4-4.21676*LN(FI19)+78.43463*DC19+393.8126*(DH19+DI19)^2</f>
         <v>3.5815691040872855</v>
       </c>
-      <c r="AH19" s="91">
+      <c r="AH19" s="80">
         <f ca="1">AX19</f>
         <v>1373.639596331624</v>
       </c>
-      <c r="AI19" s="91">
+      <c r="AI19" s="80">
         <f ca="1">AZ19</f>
         <v>1.7918736119682093</v>
       </c>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91">
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>1307.657654540938</v>
       </c>
-      <c r="AL19" s="91">
+      <c r="AL19" s="80">
         <f t="shared" ca="1" si="11"/>
         <v>-1.0028907061719696</v>
       </c>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91">
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="80">
         <f ca="1">10^4/(7.53-0.14*FK19+0.07*Q19-14.9*DG19*DA19-0.08*LN(DB19)-3.62*(DH19+DI19)-1.1*DF19/(DF19+DD19)-0.18*LN(FG19)-0.027*AP19)</f>
         <v>1217.3533398358118</v>
       </c>
-      <c r="AO19" s="91">
+      <c r="AO19" s="80">
         <f t="shared" ca="1" si="25"/>
         <v>944.20333983581179</v>
       </c>
-      <c r="AP19" s="91">
+      <c r="AP19" s="80">
         <f ca="1">IF(ABS(FB19)&gt;0,-54.3+299*(AN19)/10^4+36.4*(AN19)*FJ19/10^4+367*DH19*DC19,0)</f>
         <v>-3.6267165877393417</v>
       </c>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91">
+      <c r="AQ19" s="80"/>
+      <c r="AR19" s="80">
         <f ca="1">10^4/(6.39+0.076*Q19-5.55*DG19*DA19-0.386*LN(DF19)-0.046*AT19+2.2*10^-4*(AT19^2))</f>
         <v>1234.4104991632109</v>
       </c>
-      <c r="AS19" s="91">
+      <c r="AS19" s="80">
         <f t="shared" ca="1" si="26"/>
         <v>961.26049916321097</v>
       </c>
-      <c r="AT19" s="40">
+      <c r="AT19" s="36">
         <f t="shared" ca="1" si="27"/>
         <v>-3.0353289735074291</v>
       </c>
-      <c r="AV19" s="40">
+      <c r="AV19" s="36">
         <f t="shared" ref="AV19" si="50">IF(ABS(FB19)&gt;0,10^4/(6.73-0.26*FK19-0.86*LN(FM19)+0.52*LN(DG19)),0)</f>
         <v>1359.0062272359787</v>
       </c>
-      <c r="AW19" s="40">
+      <c r="AW19" s="36">
         <f t="shared" ref="AW19" si="51">IF(AV19&gt;0,AV19-273.15,0)</f>
         <v>1085.8562272359786</v>
       </c>
-      <c r="AX19" s="40">
+      <c r="AX19" s="36">
         <f ca="1">IF(ABS(FB19)&gt;0,10^4/(6.59-0.16*FK19-0.65*LN(FM19)+0.23*LN(DG19)-0.02*AZ19),0)</f>
         <v>1373.639596331624</v>
       </c>
-      <c r="AY19" s="40">
+      <c r="AY19" s="36">
         <f t="shared" ref="AY19" ca="1" si="52">IF(AX19&gt;0,AX19-273.15,0)</f>
         <v>1100.4895963316239</v>
       </c>
-      <c r="AZ19" s="40">
+      <c r="AZ19" s="36">
         <f ca="1">IF(ABS(FB19)&gt;0,-54.3+299*(AX19)/10^4+36.4*(AX19)*FJ19/10^4+367*DH19*DC19,0)</f>
         <v>1.7918736119682093</v>
       </c>
-      <c r="BA19" s="40"/>
-      <c r="BB19" s="40">
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36">
         <f ca="1">IF(ABS(FB19)&gt;0,10^4/(4.6-0.437*FL19-0.654*LN(FM19)-0.326*LN(DH19)-0.92*LN(DA19)+0.274*LN(FB19)-0.00632*BC19),0)</f>
         <v>1307.657654540938</v>
       </c>
-      <c r="BC19" s="40">
+      <c r="BC19" s="36">
         <f ca="1">IF(ABS(FB19)&gt;0,-88.3+0.00282*(BB19)*FJ19+0.0219*(BB19)-25.1*LN(DG19*DA19)+12.4*LN(DG19)+7.03*FM19,0)</f>
         <v>-1.0028907061719696</v>
       </c>
-      <c r="BD19" s="40">
+      <c r="BD19" s="36">
         <f t="shared" ref="BD19" ca="1" si="53">BB19-273.15</f>
         <v>1034.5076545409379</v>
       </c>
-      <c r="BE19" s="40">
+      <c r="BE19" s="36">
         <f ca="1">-48.7+271.3*AH19/10^4+31.96*(AH19/10^4)*FJ19-8.2*LN(DD19)+4.6*LN(DF19)-0.96*LN(DI19)-2.2*LN(FI19)-31*FM19+56.2*(DH19+DI19)+0.76*Q19</f>
         <v>6.8400750927357681</v>
       </c>
-      <c r="BF19" s="40">
+      <c r="BF19" s="36">
         <f ca="1">-40.73+358*AH19/10^4+21.7*(AH19/10^4)*FJ19-106*DG19-166*(DH19+DI19)^2-50.2*DA19*(DD19+DF19)-3.2*LN(FI19)-2.2*LN(FG19)+0.86*LN(EQ19)+0.4*Q19</f>
         <v>7.2486860825286445</v>
       </c>
-      <c r="BG19" s="40">
+      <c r="BG19" s="36">
         <f ca="1">-273.15+10^4/(7.53+0.07*Q19-1.1*FM19-14.9*DG19*DA19-0.08*LN(DB19)-3.62*(DH19+DI19)-0.18*LN(FG19)-0.026*AI19-0.14*FL19)</f>
         <v>966.00248637975949</v>
       </c>
-      <c r="BH19" s="40">
+      <c r="BH19" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q19-5.55*DG19*DA19-0.386*LN(DF19)-0.046*FO19+2.2*10^-4*AI19^2)</f>
         <v>996.26231263617649</v>
       </c>
-      <c r="BI19" s="40">
+      <c r="BI19" s="36">
         <f ca="1">-273.15+10^4/(6.39+0.076*Q19-5.55*(DG19*DA19)-0.386*LN(DF19)-0.046*AI19+0.00022*AI19^2)</f>
         <v>996.26231263617649</v>
       </c>
-      <c r="BJ19" s="40">
+      <c r="BJ19" s="36">
         <f ca="1">10^4/(3.12-0.0259*BC19-0.37*LN(DF19/(DF19+DD19))+0.47*LN(DG19*(DF19+DD19)*DA19^2)-0.78*LN((DF19+DD19)^2*DA19^2)-0.34*LN(DG19*DC19^2*DA19))-273.15</f>
         <v>1051.6922627717481</v>
       </c>
-      <c r="BK19" s="70">
+      <c r="BK19" s="62">
         <f ca="1">EXP(-9.8+0.24*LN(DG19*(DD19+DF19)*DA19^2)+17558/AE19+8.7*LN(AE19/1670)-4.61*10^3*(FG19^2/AE19))</f>
         <v>1.1353673458986895</v>
       </c>
-      <c r="BL19" s="70">
+      <c r="BL19" s="62">
         <f ca="1">EXP(-0.482-0.439*LN(DA19)+101.03*(DH19+DI19)^3-51.69*AG19/AE19-3742.5*FG19^2/AE19)</f>
         <v>0.81528921480177019</v>
       </c>
-      <c r="BM19" s="70">
+      <c r="BM19" s="62">
         <f ca="1">EXP(-6.96+18438/AE19+8*LN(AE19/1670)+0.66*LN((DD19+DF19)^2*DA19^2)-5.1*10^3*(FF19^2/AE19)+1.81*LN(DA19))</f>
         <v>7.2428622266528866E-2</v>
       </c>
-      <c r="BN19" s="70">
+      <c r="BN19" s="62">
         <f ca="1">EXP(2.58+0.12*AI19/AN19-9*10^-7*AI19^2/AN19+0.78*LN(DG19*DC19^2*DA19)-4.3*10^3*(FF19^2/AN19))</f>
         <v>9.1163349941311023E-3</v>
       </c>
-      <c r="BO19" s="70">
+      <c r="BO19" s="62">
         <f ca="1">EXP(-1.06+0.23*AI19/AN19-6*10^-7*AI19^2/AN19+1.02*LN(DH19*DC19*DA19^2)-0.8*LN(DC19)-2.2*LN(DA19))</f>
         <v>2.7937710393484964E-2</v>
       </c>
-      <c r="BP19" s="70">
+      <c r="BP19" s="62">
         <f ca="1">EXP(5.1+0.52*LN(DG19*DB19*DC19^2)+2.04*10^3*FF19^2/AN19-6.2*DA19+42.5*DH19*DC19-45.1*(DD19+DF19)*DC19)</f>
         <v>5.5408062065709904E-2</v>
       </c>
-      <c r="BQ19" s="70">
+      <c r="BQ19" s="62">
         <f t="shared" ref="BQ19" si="54">EXP(12.8)*DG19*DJ19^2*DA19</f>
         <v>0</v>
       </c>
-      <c r="BR19" s="40">
+      <c r="BR19" s="36">
         <f t="shared" ref="BR19" ca="1" si="55">SUM(BL19:BQ19)</f>
         <v>0.98017994452162505</v>
       </c>
-      <c r="BS19" s="53"/>
-      <c r="BT19" s="70">
+      <c r="BS19" s="47"/>
+      <c r="BT19" s="62">
         <f t="shared" ref="BT19" si="56">FF19</f>
         <v>0.80669362461915617</v>
       </c>
-      <c r="BU19" s="70">
+      <c r="BU19" s="62">
         <f t="shared" ref="BU19" si="57">FG19</f>
         <v>0.10665186218694606</v>
       </c>
-      <c r="BV19" s="70">
+      <c r="BV19" s="62">
         <f t="shared" ref="BV19" si="58">FC19</f>
         <v>4.3110290586671068E-2</v>
       </c>
-      <c r="BW19" s="70">
+      <c r="BW19" s="62">
         <f t="shared" ref="BW19" si="59">FB19</f>
         <v>2.2215002217011448E-2</v>
       </c>
-      <c r="BX19" s="70">
+      <c r="BX19" s="62">
         <f t="shared" ref="BX19" si="60">FD19</f>
         <v>3.595277320074379E-2</v>
       </c>
-      <c r="BY19" s="70">
+      <c r="BY19" s="62">
         <f t="shared" ref="BY19" si="61">FE19</f>
         <v>1.3149298975326765E-3</v>
       </c>
-      <c r="BZ19" s="70">
+      <c r="BZ19" s="62">
         <f t="shared" ref="BZ19" si="62">SUM(BT19:BY19)</f>
         <v>1.0159384827080611</v>
       </c>
-      <c r="CA19" s="70">
+      <c r="CA19" s="62">
         <f>(ER19/ET19)/($G$8*DD19/DF19)</f>
         <v>0.22334892290249428</v>
       </c>
-      <c r="CB19" s="53"/>
-      <c r="CC19" s="40"/>
-      <c r="CD19" s="40">
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36">
         <f ca="1">3205-5.62*ET19+83.2*EV19+68.2*FI19+2.52*LN(EP19)-51.1*FI19^2+34.8*FG19^2+0.384*(AH19)-518*LN(AH19)</f>
         <v>2.4865789361983843</v>
       </c>
-      <c r="CE19" s="40">
+      <c r="CE19" s="36">
         <f ca="1">1458+0.197*(AH19)-241*LN(AH19)+0.453*Q19+55.5*EP19+8.05*ER19-277*EW19+18*FB19+44.1*FF19+2.2*LN(FB19)-27.7*EQ19^2+97.3*GI19^2+30.7*GK19^2-27.6*FF19^2</f>
         <v>4.5040358741330735</v>
       </c>
-      <c r="CF19" s="40">
+      <c r="CF19" s="36">
         <f ca="1">-57.9+0.0475*(AH19)-40.6*DD19-47.7*FC19+0.67*Q19-153*DG19*DA19+6.89*(EQ19/DC19)</f>
         <v>7.8974324807345813</v>
       </c>
-      <c r="CG19" s="40">
+      <c r="CG19" s="36">
         <f ca="1">-273.15+(93100+544*AI19)/(61.1+36.6*EN19+10.9*ER19-0.95*(EQ19+EX19-EV19-EW19)+0.395*(LN(FT19))^2)</f>
         <v>1142.1074879083444</v>
       </c>
-      <c r="CH19" s="54">
+      <c r="CH19" s="48">
         <f ca="1">EXP(-0.107-1719/AH19)</f>
         <v>0.25706663342392488</v>
       </c>
-      <c r="CJ19" s="40">
+      <c r="CJ19" s="36">
         <f t="shared" ref="CJ19" si="63">698.443+4.985*EO19-26.826*GJ19-3.764*EZ19+53.989*EP19+3.948*EN19+14.651*EX19-700.431*EU19-666.629*EV19-682.848*GK19-691.138*GI19-688.384*ES19-6.267*GK19^2-4.144*GI19^2</f>
         <v>-0.1392070298915197</v>
       </c>
-      <c r="CK19" s="40">
+      <c r="CK19" s="36">
         <f t="shared" ref="CK19" si="64">771.48+4.956*EO19-28.756*GJ19-5.345*EZ19+56.904*EP19+1.848*EN19+14.827*EX19-773.74*EU19-736.57*EV19-754.81*GK19-763.2*GI19-759.66*ES19-1.185*GK19^2-1.876*GI19^2</f>
         <v>-0.40685688956204485</v>
       </c>
-      <c r="CL19" s="40">
+      <c r="CL19" s="36">
         <f ca="1">-273.15+(23166+39.28*AI19)/(13.25+15.35*EN19+4.5*ER19-1.55*(EQ19-EX19-EV19-EW19)+(LN(IF19))^2)</f>
         <v>857.07575045431724</v>
       </c>
@@ -12521,7 +12413,7 @@
         <f t="shared" ref="DL19" si="66">SUM(DA19:DK19)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="DM19" s="156">
+      <c r="DM19">
         <f t="shared" si="28"/>
         <v>43.888277268649858</v>
       </c>
@@ -12725,11 +12617,11 @@
         <f t="shared" ref="FM19" si="96">DF19/(DF19+DD19)</f>
         <v>0.43888277268649861</v>
       </c>
-      <c r="FN19" s="67">
+      <c r="FN19" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1373.639596331624</v>
       </c>
-      <c r="FO19" s="67">
+      <c r="FO19" s="60">
         <f t="shared" ca="1" si="22"/>
         <v>1.7918736119682093</v>
       </c>
@@ -12894,126 +12786,126 @@
         <v>-0.18169054921810357</v>
       </c>
       <c r="HD19" s="4"/>
-      <c r="HE19" s="7">
+      <c r="HE19" s="6">
         <f t="shared" ref="HE19" si="125">GI19+GJ19+ES19</f>
         <v>0.19469047497676914</v>
       </c>
-      <c r="HF19" s="7">
+      <c r="HF19" s="6">
         <f t="shared" ref="HF19" si="126">GK19+GL19</f>
         <v>0.79342990860015794</v>
       </c>
-      <c r="HG19" s="7">
+      <c r="HG19" s="6">
         <f t="shared" ref="HG19" si="127">IF(EV19&gt;EZ19,EZ19,EV19)</f>
         <v>2.2215002217011448E-2</v>
       </c>
-      <c r="HH19" s="7">
+      <c r="HH19" s="6">
         <f t="shared" ref="HH19" si="128">EV19-HG19</f>
         <v>0</v>
       </c>
-      <c r="HI19" s="7">
+      <c r="HI19" s="6">
         <f t="shared" ref="HI19" si="129">EZ19-HG19</f>
         <v>1.5923092207075447E-2</v>
       </c>
-      <c r="HJ19" s="7">
+      <c r="HJ19" s="6">
         <f t="shared" ref="HJ19" si="130">IF(HH19&gt;EP19,EP19,HH19)</f>
         <v>0</v>
       </c>
-      <c r="HK19" s="7">
+      <c r="HK19" s="6">
         <f t="shared" ref="HK19" si="131">HH19-HJ19</f>
         <v>0</v>
       </c>
-      <c r="HL19" s="7">
+      <c r="HL19" s="6">
         <f t="shared" ref="HL19" si="132">EP19-HJ19</f>
         <v>6.5325292803682516E-2</v>
       </c>
-      <c r="HM19" s="7">
+      <c r="HM19" s="6">
         <f t="shared" ref="HM19" si="133">HL19+EX19+2*EN19</f>
         <v>9.9092744781083208E-2</v>
       </c>
-      <c r="HN19" s="7">
+      <c r="HN19" s="6">
         <f t="shared" ref="HN19" si="134">HE19/(HE19+HF19)</f>
         <v>0.19703112921525123</v>
       </c>
-      <c r="HO19" s="7">
+      <c r="HO19" s="6">
         <f t="shared" ref="HO19" si="135">(EU19-HM19-HI19)*(1-HN19)</f>
         <v>0.61993675890610134</v>
       </c>
-      <c r="HP19" s="7">
+      <c r="HP19" s="6">
         <f t="shared" ref="HP19" si="136">(EU19-HM19-HI19)*HN19</f>
         <v>0.15211902240984371</v>
       </c>
-      <c r="HQ19" s="7">
+      <c r="HQ19" s="6">
         <f t="shared" ref="HQ19" si="137">(1-HG19-HJ19-HI19-HM19-HO19-HP19)*(1-HN19)</f>
         <v>7.2840019885228577E-2</v>
       </c>
-      <c r="HR19" s="7">
+      <c r="HR19" s="6">
         <f t="shared" ref="HR19" si="138">(1-HG19-HJ19-HI19-HM19-HO19-HP19)*HN19</f>
         <v>1.7873359593656282E-2</v>
       </c>
-      <c r="HS19" s="7">
+      <c r="HS19" s="6">
         <f t="shared" ref="HS19" si="139">HJ19+HG19</f>
         <v>2.2215002217011448E-2</v>
       </c>
-      <c r="HT19" s="7"/>
-      <c r="HU19" s="16">
+      <c r="HT19" s="6"/>
+      <c r="HU19" s="15">
         <f t="shared" ref="HU19" si="140">(-0.000000872*HO19)-(0.000000749*HQ19)-(0.000000993*HP19)-(0.00000087*(HM19+HI19))-(0.00000086*HS19)-(0.00000087*HR19)</f>
         <v>-8.8091472084594021E-7</v>
       </c>
-      <c r="HV19" s="16">
+      <c r="HV19" s="15">
         <f t="shared" ref="HV19" si="141">(0.000000000001707*HO19)+(0.000000000000447*HQ19)+(0.0000000000014835*HP19)+(0.000000000002171*(HM19+HI19))+(0.000000000002149*HS19)+(0.0000000000002235*HR19)</f>
         <v>1.6178942238212475E-12</v>
       </c>
-      <c r="HW19" s="16">
+      <c r="HW19" s="15">
         <f t="shared" ref="HW19" si="142">(0.000027795*HO19)+(0.000024656*HQ19)+(0.000031371*HP19)+(0.00002225*(HM19+HI19))+(0.000023118*HS19)+(0.000028232*HR19)</f>
         <v>2.7376481078391994E-5</v>
       </c>
-      <c r="HX19" s="16">
+      <c r="HX19" s="15">
         <f t="shared" ref="HX19" si="143">(0.0000000083082*HO19)+(0.000000007467*HQ19)+(0.0000000083672*HP19)+(0.0000000052863*(HM19+HI19))+(0.0000000025785*HS19)+(0.000000007526*HR19)</f>
         <v>7.7670697997232403E-9</v>
       </c>
-      <c r="HY19" s="7">
+      <c r="HY19" s="6">
         <f t="shared" ref="HY19" si="144">GQ19</f>
         <v>2.1753689336292594</v>
       </c>
-      <c r="HZ19" s="7">
+      <c r="HZ19" s="6">
         <f t="shared" ca="1" si="32"/>
         <v>455.51888331477357</v>
       </c>
-      <c r="IA19" s="7">
+      <c r="IA19" s="6">
         <f t="shared" ca="1" si="33"/>
         <v>4.7510091202546878</v>
       </c>
-      <c r="IB19" s="7">
+      <c r="IB19" s="6">
         <f t="shared" ca="1" si="34"/>
         <v>455.51885814045102</v>
       </c>
-      <c r="IC19" s="7">
+      <c r="IC19" s="6">
         <f t="shared" ca="1" si="35"/>
         <v>4.8159765108176797</v>
       </c>
-      <c r="ID19" s="7">
+      <c r="ID19" s="6">
         <f t="shared" ca="1" si="36"/>
         <v>4.8159765108176797</v>
       </c>
-      <c r="IE19" s="7"/>
+      <c r="IE19" s="6"/>
       <c r="IF19" s="2">
         <f t="shared" ref="IF19" si="145">(1-EU19-EV19-EW19)*(1-0.5*(EQ19+EX19+EV19+EW19))</f>
         <v>8.140682210975482E-2</v>
       </c>
-      <c r="IG19" s="17">
+      <c r="IG19" s="16">
         <f ca="1">D19-25</f>
         <v>1009.5076545409379</v>
       </c>
-      <c r="IH19" s="17"/>
-      <c r="II19" s="7">
+      <c r="IH19" s="16"/>
+      <c r="II19" s="6">
         <f t="shared" ref="II19" si="146">1.4133+(0.05601*HB19)</f>
         <v>2.0746980640864501</v>
       </c>
-      <c r="IJ19" s="17">
+      <c r="IJ19" s="16">
         <f t="shared" ref="IJ19" si="147">(7500*HY19)/II19^3</f>
         <v>1826.9618572528918</v>
       </c>
-      <c r="IK19" s="16">
+      <c r="IK19" s="15">
         <f t="shared" ref="IK19" si="148">0.0000329*(0.75-HY19/6)</f>
         <v>1.2746727013932894E-5</v>
       </c>
@@ -13021,41 +12913,41 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="IN19" s="166">
+      <c r="IN19" s="1">
         <f t="shared" si="42"/>
         <v>0.41604678289357788</v>
       </c>
-      <c r="IO19" s="166">
+      <c r="IO19" s="1">
         <f t="shared" si="43"/>
         <v>0.11880400985917129</v>
       </c>
-      <c r="IP19" s="166">
+      <c r="IP19" s="1">
         <f t="shared" si="44"/>
         <v>0.4651492072472509</v>
       </c>
-      <c r="IR19" s="167">
+      <c r="IR19" s="141">
         <f t="shared" si="45"/>
         <v>0.40573707416354032</v>
       </c>
-      <c r="IS19" s="167">
+      <c r="IS19" s="141">
         <f t="shared" si="46"/>
         <v>0.4651492072472509</v>
       </c>
-      <c r="IU19" s="169">
+      <c r="IU19" s="3">
         <v>0</v>
       </c>
-      <c r="IV19" s="169">
+      <c r="IV19" s="3">
         <v>0.9</v>
       </c>
-      <c r="IW19" s="169">
+      <c r="IW19" s="3">
         <v>0.1</v>
       </c>
-      <c r="IX19" s="169"/>
-      <c r="IY19" s="167">
+      <c r="IX19" s="3"/>
+      <c r="IY19" s="141">
         <f t="shared" si="47"/>
         <v>1.0969655114602888</v>
       </c>
-      <c r="IZ19" s="167">
+      <c r="IZ19" s="141">
         <f t="shared" si="48"/>
         <v>0.1</v>
       </c>
@@ -13067,12 +12959,12 @@
       <c r="IQ20"/>
       <c r="IR20"/>
       <c r="IS20"/>
-      <c r="IU20" s="169"/>
-      <c r="IV20" s="169"/>
-      <c r="IW20" s="169"/>
-      <c r="IX20" s="169"/>
-      <c r="IY20" s="169"/>
-      <c r="IZ20" s="169"/>
+      <c r="IU20" s="3"/>
+      <c r="IV20" s="3"/>
+      <c r="IW20" s="3"/>
+      <c r="IX20" s="3"/>
+      <c r="IY20" s="3"/>
+      <c r="IZ20" s="3"/>
     </row>
     <row r="21" spans="1:260">
       <c r="IN21"/>
@@ -13081,12 +12973,12 @@
       <c r="IQ21"/>
       <c r="IR21"/>
       <c r="IS21"/>
-      <c r="IU21" s="169"/>
-      <c r="IV21" s="169"/>
-      <c r="IW21" s="169"/>
-      <c r="IX21" s="169"/>
-      <c r="IY21" s="169"/>
-      <c r="IZ21" s="169"/>
+      <c r="IU21" s="3"/>
+      <c r="IV21" s="3"/>
+      <c r="IW21" s="3"/>
+      <c r="IX21" s="3"/>
+      <c r="IY21" s="3"/>
+      <c r="IZ21" s="3"/>
     </row>
     <row r="22" spans="1:260">
       <c r="IN22"/>
@@ -13095,12 +12987,12 @@
       <c r="IQ22"/>
       <c r="IR22"/>
       <c r="IS22"/>
-      <c r="IU22" s="169"/>
-      <c r="IV22" s="169"/>
-      <c r="IW22" s="169"/>
-      <c r="IX22" s="169"/>
-      <c r="IY22" s="169"/>
-      <c r="IZ22" s="169"/>
+      <c r="IU22" s="3"/>
+      <c r="IV22" s="3"/>
+      <c r="IW22" s="3"/>
+      <c r="IX22" s="3"/>
+      <c r="IY22" s="3"/>
+      <c r="IZ22" s="3"/>
     </row>
     <row r="23" spans="1:260">
       <c r="IN23"/>
@@ -13109,12 +13001,12 @@
       <c r="IQ23"/>
       <c r="IR23"/>
       <c r="IS23"/>
-      <c r="IU23" s="169"/>
-      <c r="IV23" s="169"/>
-      <c r="IW23" s="169"/>
-      <c r="IX23" s="169"/>
-      <c r="IY23" s="169"/>
-      <c r="IZ23" s="169"/>
+      <c r="IU23" s="3"/>
+      <c r="IV23" s="3"/>
+      <c r="IW23" s="3"/>
+      <c r="IX23" s="3"/>
+      <c r="IY23" s="3"/>
+      <c r="IZ23" s="3"/>
     </row>
     <row r="24" spans="1:260">
       <c r="IN24"/>
@@ -13123,12 +13015,12 @@
       <c r="IQ24"/>
       <c r="IR24"/>
       <c r="IS24"/>
-      <c r="IU24" s="169"/>
-      <c r="IV24" s="169"/>
-      <c r="IW24" s="169"/>
-      <c r="IX24" s="169"/>
-      <c r="IY24" s="169"/>
-      <c r="IZ24" s="169"/>
+      <c r="IU24" s="3"/>
+      <c r="IV24" s="3"/>
+      <c r="IW24" s="3"/>
+      <c r="IX24" s="3"/>
+      <c r="IY24" s="3"/>
+      <c r="IZ24" s="3"/>
     </row>
     <row r="25" spans="1:260">
       <c r="IN25"/>
@@ -13137,12 +13029,12 @@
       <c r="IQ25"/>
       <c r="IR25"/>
       <c r="IS25"/>
-      <c r="IU25" s="169"/>
-      <c r="IV25" s="169"/>
-      <c r="IW25" s="169"/>
-      <c r="IX25" s="169"/>
-      <c r="IY25" s="169"/>
-      <c r="IZ25" s="169"/>
+      <c r="IU25" s="3"/>
+      <c r="IV25" s="3"/>
+      <c r="IW25" s="3"/>
+      <c r="IX25" s="3"/>
+      <c r="IY25" s="3"/>
+      <c r="IZ25" s="3"/>
     </row>
     <row r="26" spans="1:260">
       <c r="IN26"/>
@@ -13151,12 +13043,12 @@
       <c r="IQ26"/>
       <c r="IR26"/>
       <c r="IS26"/>
-      <c r="IU26" s="169"/>
-      <c r="IV26" s="169"/>
-      <c r="IW26" s="169"/>
-      <c r="IX26" s="169"/>
-      <c r="IY26" s="169"/>
-      <c r="IZ26" s="169"/>
+      <c r="IU26" s="3"/>
+      <c r="IV26" s="3"/>
+      <c r="IW26" s="3"/>
+      <c r="IX26" s="3"/>
+      <c r="IY26" s="3"/>
+      <c r="IZ26" s="3"/>
     </row>
     <row r="27" spans="1:260">
       <c r="IN27"/>
@@ -13165,12 +13057,12 @@
       <c r="IQ27"/>
       <c r="IR27"/>
       <c r="IS27"/>
-      <c r="IU27" s="169"/>
-      <c r="IV27" s="169"/>
-      <c r="IW27" s="169"/>
-      <c r="IX27" s="169"/>
-      <c r="IY27" s="169"/>
-      <c r="IZ27" s="169"/>
+      <c r="IU27" s="3"/>
+      <c r="IV27" s="3"/>
+      <c r="IW27" s="3"/>
+      <c r="IX27" s="3"/>
+      <c r="IY27" s="3"/>
+      <c r="IZ27" s="3"/>
     </row>
     <row r="28" spans="1:260">
       <c r="IN28"/>
@@ -13179,12 +13071,12 @@
       <c r="IQ28"/>
       <c r="IR28"/>
       <c r="IS28"/>
-      <c r="IU28" s="169"/>
-      <c r="IV28" s="169"/>
-      <c r="IW28" s="169"/>
-      <c r="IX28" s="169"/>
-      <c r="IY28" s="169"/>
-      <c r="IZ28" s="169"/>
+      <c r="IU28" s="3"/>
+      <c r="IV28" s="3"/>
+      <c r="IW28" s="3"/>
+      <c r="IX28" s="3"/>
+      <c r="IY28" s="3"/>
+      <c r="IZ28" s="3"/>
     </row>
     <row r="29" spans="1:260">
       <c r="IN29"/>
@@ -13193,12 +13085,12 @@
       <c r="IQ29"/>
       <c r="IR29"/>
       <c r="IS29"/>
-      <c r="IU29" s="169"/>
-      <c r="IV29" s="169"/>
-      <c r="IW29" s="169"/>
-      <c r="IX29" s="169"/>
-      <c r="IY29" s="169"/>
-      <c r="IZ29" s="169"/>
+      <c r="IU29" s="3"/>
+      <c r="IV29" s="3"/>
+      <c r="IW29" s="3"/>
+      <c r="IX29" s="3"/>
+      <c r="IY29" s="3"/>
+      <c r="IZ29" s="3"/>
     </row>
     <row r="30" spans="1:260">
       <c r="IN30"/>
@@ -13207,12 +13099,12 @@
       <c r="IQ30"/>
       <c r="IR30"/>
       <c r="IS30"/>
-      <c r="IU30" s="169"/>
-      <c r="IV30" s="169"/>
-      <c r="IW30" s="169"/>
-      <c r="IX30" s="169"/>
-      <c r="IY30" s="169"/>
-      <c r="IZ30" s="169"/>
+      <c r="IU30" s="3"/>
+      <c r="IV30" s="3"/>
+      <c r="IW30" s="3"/>
+      <c r="IX30" s="3"/>
+      <c r="IY30" s="3"/>
+      <c r="IZ30" s="3"/>
     </row>
     <row r="31" spans="1:260">
       <c r="IN31"/>
@@ -13221,12 +13113,12 @@
       <c r="IQ31"/>
       <c r="IR31"/>
       <c r="IS31"/>
-      <c r="IU31" s="169"/>
-      <c r="IV31" s="169"/>
-      <c r="IW31" s="169"/>
-      <c r="IX31" s="169"/>
-      <c r="IY31" s="169"/>
-      <c r="IZ31" s="169"/>
+      <c r="IU31" s="3"/>
+      <c r="IV31" s="3"/>
+      <c r="IW31" s="3"/>
+      <c r="IX31" s="3"/>
+      <c r="IY31" s="3"/>
+      <c r="IZ31" s="3"/>
     </row>
     <row r="32" spans="1:260">
       <c r="IN32"/>
@@ -13235,12 +13127,12 @@
       <c r="IQ32"/>
       <c r="IR32"/>
       <c r="IS32"/>
-      <c r="IU32" s="169"/>
-      <c r="IV32" s="169"/>
-      <c r="IW32" s="169"/>
-      <c r="IX32" s="169"/>
-      <c r="IY32" s="169"/>
-      <c r="IZ32" s="169"/>
+      <c r="IU32" s="3"/>
+      <c r="IV32" s="3"/>
+      <c r="IW32" s="3"/>
+      <c r="IX32" s="3"/>
+      <c r="IY32" s="3"/>
+      <c r="IZ32" s="3"/>
     </row>
     <row r="33" spans="248:260">
       <c r="IN33"/>
@@ -13249,12 +13141,12 @@
       <c r="IQ33"/>
       <c r="IR33"/>
       <c r="IS33"/>
-      <c r="IU33" s="169"/>
-      <c r="IV33" s="169"/>
-      <c r="IW33" s="169"/>
-      <c r="IX33" s="169"/>
-      <c r="IY33" s="169"/>
-      <c r="IZ33" s="169"/>
+      <c r="IU33" s="3"/>
+      <c r="IV33" s="3"/>
+      <c r="IW33" s="3"/>
+      <c r="IX33" s="3"/>
+      <c r="IY33" s="3"/>
+      <c r="IZ33" s="3"/>
     </row>
     <row r="34" spans="248:260">
       <c r="IN34"/>
@@ -13263,12 +13155,12 @@
       <c r="IQ34"/>
       <c r="IR34"/>
       <c r="IS34"/>
-      <c r="IU34" s="169"/>
-      <c r="IV34" s="169"/>
-      <c r="IW34" s="169"/>
-      <c r="IX34" s="169"/>
-      <c r="IY34" s="169"/>
-      <c r="IZ34" s="169"/>
+      <c r="IU34" s="3"/>
+      <c r="IV34" s="3"/>
+      <c r="IW34" s="3"/>
+      <c r="IX34" s="3"/>
+      <c r="IY34" s="3"/>
+      <c r="IZ34" s="3"/>
     </row>
     <row r="35" spans="248:260">
       <c r="IN35"/>
@@ -13277,12 +13169,12 @@
       <c r="IQ35"/>
       <c r="IR35"/>
       <c r="IS35"/>
-      <c r="IU35" s="169"/>
-      <c r="IV35" s="169"/>
-      <c r="IW35" s="169"/>
-      <c r="IX35" s="169"/>
-      <c r="IY35" s="169"/>
-      <c r="IZ35" s="169"/>
+      <c r="IU35" s="3"/>
+      <c r="IV35" s="3"/>
+      <c r="IW35" s="3"/>
+      <c r="IX35" s="3"/>
+      <c r="IY35" s="3"/>
+      <c r="IZ35" s="3"/>
     </row>
     <row r="36" spans="248:260">
       <c r="IN36"/>
@@ -13291,12 +13183,12 @@
       <c r="IQ36"/>
       <c r="IR36"/>
       <c r="IS36"/>
-      <c r="IU36" s="169"/>
-      <c r="IV36" s="169"/>
-      <c r="IW36" s="169"/>
-      <c r="IX36" s="169"/>
-      <c r="IY36" s="169"/>
-      <c r="IZ36" s="169"/>
+      <c r="IU36" s="3"/>
+      <c r="IV36" s="3"/>
+      <c r="IW36" s="3"/>
+      <c r="IX36" s="3"/>
+      <c r="IY36" s="3"/>
+      <c r="IZ36" s="3"/>
     </row>
     <row r="37" spans="248:260">
       <c r="IN37"/>
@@ -13375,428 +13267,428 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:24" ht="13.8">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:24" ht="14">
+      <c r="B1" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="X1" s="172" t="s">
+      <c r="X1" s="110" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="13.2">
-      <c r="B2" s="123">
+    <row r="2" spans="2:24">
+      <c r="B2" s="106">
         <v>51.1</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="106">
         <v>0.93</v>
       </c>
-      <c r="D2" s="123">
+      <c r="D2" s="106">
         <v>17.5</v>
       </c>
-      <c r="E2" s="123">
+      <c r="E2" s="106">
         <v>8.91</v>
       </c>
-      <c r="F2" s="123">
+      <c r="F2" s="106">
         <v>0.18</v>
       </c>
-      <c r="G2" s="132">
+      <c r="G2" s="114">
         <v>6.09</v>
       </c>
-      <c r="H2" s="123">
+      <c r="H2" s="106">
         <v>11.5</v>
       </c>
-      <c r="I2" s="123">
+      <c r="I2" s="106">
         <v>3.53</v>
       </c>
-      <c r="J2" s="123">
+      <c r="J2" s="106">
         <v>0.17</v>
       </c>
-      <c r="K2" s="123">
+      <c r="K2" s="106">
         <v>0</v>
       </c>
-      <c r="L2" s="123">
+      <c r="L2" s="106">
         <v>0.15</v>
       </c>
-      <c r="M2" s="123">
+      <c r="M2" s="106">
         <v>3.8</v>
       </c>
-      <c r="N2" s="123">
+      <c r="N2" s="106">
         <v>51.5</v>
       </c>
-      <c r="O2" s="123">
+      <c r="O2" s="106">
         <v>0.5</v>
       </c>
-      <c r="P2" s="123">
+      <c r="P2" s="106">
         <v>3.7</v>
       </c>
-      <c r="Q2" s="123">
+      <c r="Q2" s="106">
         <v>5.18</v>
       </c>
-      <c r="R2" s="123">
+      <c r="R2" s="106">
         <v>0.09</v>
       </c>
-      <c r="S2" s="123">
+      <c r="S2" s="106">
         <v>15.8</v>
       </c>
-      <c r="T2" s="123">
+      <c r="T2" s="106">
         <v>22.8</v>
       </c>
-      <c r="U2" s="123">
+      <c r="U2" s="106">
         <v>0.24</v>
       </c>
-      <c r="V2" s="123">
+      <c r="V2" s="106">
         <v>0</v>
       </c>
-      <c r="W2" s="123">
+      <c r="W2" s="106">
         <v>0.66</v>
       </c>
       <c r="X2">
         <v>5.5451056411643203</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="13.2">
-      <c r="B3" s="123">
+    <row r="3" spans="2:24">
+      <c r="B3" s="106">
         <v>51.5</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="106">
         <v>1.19</v>
       </c>
-      <c r="D3" s="123">
+      <c r="D3" s="106">
         <v>19.2</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="106">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="106">
         <v>0.19</v>
       </c>
-      <c r="G3" s="132">
+      <c r="G3" s="114">
         <v>4.9800000000000004</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="106">
         <v>10</v>
       </c>
-      <c r="I3" s="123">
+      <c r="I3" s="106">
         <v>3.72</v>
       </c>
-      <c r="J3" s="123">
+      <c r="J3" s="106">
         <v>0.42</v>
       </c>
-      <c r="K3" s="123">
+      <c r="K3" s="106">
         <v>0</v>
       </c>
-      <c r="L3" s="123">
+      <c r="L3" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M3" s="123">
+      <c r="M3" s="106">
         <v>6.2</v>
       </c>
-      <c r="N3" s="123">
+      <c r="N3" s="106">
         <v>50.3</v>
       </c>
-      <c r="O3" s="123">
+      <c r="O3" s="106">
         <v>0.73</v>
       </c>
-      <c r="P3" s="123">
+      <c r="P3" s="106">
         <v>4.12</v>
       </c>
-      <c r="Q3" s="123">
+      <c r="Q3" s="106">
         <v>5.83</v>
       </c>
-      <c r="R3" s="123">
+      <c r="R3" s="106">
         <v>0</v>
       </c>
-      <c r="S3" s="123">
+      <c r="S3" s="106">
         <v>15</v>
       </c>
-      <c r="T3" s="123">
+      <c r="T3" s="106">
         <v>22.7</v>
       </c>
-      <c r="U3" s="123">
+      <c r="U3" s="106">
         <v>0.24</v>
       </c>
-      <c r="V3" s="123">
+      <c r="V3" s="106">
         <v>0</v>
       </c>
-      <c r="W3" s="123">
+      <c r="W3" s="106">
         <v>0.28000000000000003</v>
       </c>
       <c r="X3">
         <v>7.5741126487404928</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="13.2">
-      <c r="B4" s="123">
+    <row r="4" spans="2:24">
+      <c r="B4" s="106">
         <v>59.1</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="106">
         <v>0.54</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="106">
         <v>19.100000000000001</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="106">
         <v>5.22</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="106">
         <v>0.19</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="114">
         <v>3.25</v>
       </c>
-      <c r="H4" s="123">
+      <c r="H4" s="106">
         <v>7.45</v>
       </c>
-      <c r="I4" s="123">
+      <c r="I4" s="106">
         <v>4</v>
       </c>
-      <c r="J4" s="123">
+      <c r="J4" s="106">
         <v>0.88</v>
       </c>
-      <c r="K4" s="123">
+      <c r="K4" s="106">
         <v>0</v>
       </c>
-      <c r="L4" s="123">
+      <c r="L4" s="106">
         <v>0.31</v>
       </c>
-      <c r="M4" s="123">
+      <c r="M4" s="106">
         <v>6.2</v>
       </c>
-      <c r="N4" s="123">
+      <c r="N4" s="106">
         <v>47.3</v>
       </c>
-      <c r="O4" s="123">
+      <c r="O4" s="106">
         <v>1.75</v>
       </c>
-      <c r="P4" s="123">
+      <c r="P4" s="106">
         <v>7.85</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="Q4" s="106">
         <v>6.51</v>
       </c>
-      <c r="R4" s="123">
+      <c r="R4" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S4" s="123">
+      <c r="S4" s="106">
         <v>13.1</v>
       </c>
-      <c r="T4" s="123">
+      <c r="T4" s="106">
         <v>22.5</v>
       </c>
-      <c r="U4" s="123">
+      <c r="U4" s="106">
         <v>0.25</v>
       </c>
-      <c r="V4" s="123">
+      <c r="V4" s="106">
         <v>0</v>
       </c>
-      <c r="W4" s="123">
+      <c r="W4" s="106">
         <v>0.22</v>
       </c>
       <c r="X4">
         <v>12.169878382061086</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="13.2">
-      <c r="B5" s="123">
+    <row r="5" spans="2:24">
+      <c r="B5" s="106">
         <v>52.5</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="106">
         <v>0.98</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="106">
         <v>19.2</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="106">
         <v>8.0399999999999991</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="106">
         <v>0.2</v>
       </c>
-      <c r="G5" s="132">
+      <c r="G5" s="114">
         <v>4.99</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="106">
         <v>9.64</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="106">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="106">
         <v>0.21</v>
       </c>
-      <c r="K5" s="123">
+      <c r="K5" s="106">
         <v>0</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="106">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M5" s="123">
+      <c r="M5" s="106">
         <v>6.2</v>
       </c>
-      <c r="N5" s="123">
+      <c r="N5" s="106">
         <v>51.1</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="106">
         <v>0.63</v>
       </c>
-      <c r="P5" s="123">
+      <c r="P5" s="106">
         <v>4.41</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="Q5" s="106">
         <v>5.66</v>
       </c>
-      <c r="R5" s="123">
+      <c r="R5" s="106">
         <v>0.13</v>
       </c>
-      <c r="S5" s="123">
+      <c r="S5" s="106">
         <v>15.6</v>
       </c>
-      <c r="T5" s="123">
+      <c r="T5" s="106">
         <v>22.6</v>
       </c>
-      <c r="U5" s="123">
+      <c r="U5" s="106">
         <v>0.23</v>
       </c>
-      <c r="V5" s="123">
+      <c r="V5" s="106">
         <v>0</v>
       </c>
-      <c r="W5" s="123">
+      <c r="W5" s="106">
         <v>0.27</v>
       </c>
       <c r="X5">
         <v>7.808893483357588</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="13.2">
-      <c r="B6" s="123">
+    <row r="6" spans="2:24">
+      <c r="B6" s="106">
         <v>56.2</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="106">
         <v>0.34</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="106">
         <v>20.399999999999999</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="106">
         <v>5.88</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="106">
         <v>0.2</v>
       </c>
-      <c r="G6" s="132">
+      <c r="G6" s="114">
         <v>2.58</v>
       </c>
-      <c r="H6" s="123">
+      <c r="H6" s="106">
         <v>7.18</v>
       </c>
-      <c r="I6" s="123">
+      <c r="I6" s="106">
         <v>6.02</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="106">
         <v>1.02</v>
       </c>
-      <c r="K6" s="123">
+      <c r="K6" s="106">
         <v>0</v>
       </c>
-      <c r="L6" s="123">
+      <c r="L6" s="106">
         <v>0.23</v>
       </c>
-      <c r="M6" s="123">
+      <c r="M6" s="106">
         <v>6.2</v>
       </c>
-      <c r="N6" s="123">
+      <c r="N6" s="106">
         <v>51</v>
       </c>
-      <c r="O6" s="123">
+      <c r="O6" s="106">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P6" s="123">
+      <c r="P6" s="106">
         <v>4.1399999999999997</v>
       </c>
-      <c r="Q6" s="123">
+      <c r="Q6" s="106">
         <v>7.33</v>
       </c>
-      <c r="R6" s="123">
+      <c r="R6" s="106">
         <v>0.2</v>
       </c>
-      <c r="S6" s="123">
+      <c r="S6" s="106">
         <v>14.4</v>
       </c>
-      <c r="T6" s="123">
+      <c r="T6" s="106">
         <v>22.4</v>
       </c>
-      <c r="U6" s="123">
+      <c r="U6" s="106">
         <v>0.31</v>
       </c>
-      <c r="V6" s="123">
+      <c r="V6" s="106">
         <v>0</v>
       </c>
-      <c r="W6" s="123">
+      <c r="W6" s="106">
         <v>0.09</v>
       </c>
       <c r="X6">
@@ -13816,63 +13708,63 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="4.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.8">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:14" ht="23">
+      <c r="A1" s="122" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" thickBot="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1">
-      <c r="B4" s="149"/>
-      <c r="C4" s="150">
+      <c r="B4" s="126"/>
+      <c r="C4" s="127">
         <v>0.27</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="128"/>
     </row>
     <row r="5" spans="1:14" ht="18" thickBot="1">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="148"/>
-      <c r="G5" s="153" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="125"/>
+      <c r="G5" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="130" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1">
-      <c r="B6" s="154"/>
-      <c r="C6" s="150">
+      <c r="B6" s="131"/>
+      <c r="C6" s="127">
         <v>0.03</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="G6" s="155">
+      <c r="D6" s="128"/>
+      <c r="G6" s="132">
         <f>C4-C6</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="L6" s="155">
+      <c r="L6" s="132">
         <f>C4+C6</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2">
-      <c r="A7" s="153"/>
-      <c r="B7" s="153"/>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
     </row>
     <row r="8" spans="1:14">
       <c r="C8" t="s">
@@ -13895,44 +13787,44 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.2">
+    <row r="10" spans="1:14" ht="15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -13940,11 +13832,11 @@
         <f t="shared" ref="B10:B41" si="0">$C$4*A10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="153">
+      <c r="C10" s="130">
         <f>100*B10/(B10+1)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="153">
+      <c r="D10" s="130">
         <f>100*A10/(A10+1)</f>
         <v>0</v>
       </c>
@@ -13956,11 +13848,11 @@
         <f t="shared" ref="G10:G41" si="1">$G$6*A10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="153">
+      <c r="H10" s="130">
         <f t="shared" ref="H10:H40" si="2">100*G10/(G10+1)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="153">
+      <c r="I10" s="130">
         <f t="shared" ref="I10:I41" si="3">100*F10/(F10+1)</f>
         <v>0</v>
       </c>
@@ -13972,16 +13864,16 @@
         <f t="shared" ref="L10:L41" si="4">$L$6*K10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="153">
+      <c r="M10" s="130">
         <f>100*L10/(L10+1)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="153">
+      <c r="N10" s="130">
         <f>100*K10/(K10+1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.2">
+    <row r="11" spans="1:14" ht="15">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -13989,11 +13881,11 @@
         <f t="shared" si="0"/>
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="130">
         <f t="shared" ref="C11:C41" si="5">100*B11/(B11+1)</f>
         <v>2.6290165530671863</v>
       </c>
-      <c r="D11" s="153">
+      <c r="D11" s="130">
         <f t="shared" ref="D11:D41" si="6">100*A11/(A11+1)</f>
         <v>9.0909090909090899</v>
       </c>
@@ -14005,11 +13897,11 @@
         <f t="shared" si="1"/>
         <v>2.4000000000000004E-2</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="130">
         <f t="shared" si="2"/>
         <v>2.3437500000000004</v>
       </c>
-      <c r="I11" s="153">
+      <c r="I11" s="130">
         <f t="shared" si="3"/>
         <v>9.0909090909090899</v>
       </c>
@@ -14021,16 +13913,16 @@
         <f t="shared" si="4"/>
         <v>3.0000000000000006E-2</v>
       </c>
-      <c r="M11" s="153">
+      <c r="M11" s="130">
         <f t="shared" ref="M11:M41" si="9">100*L11/(L11+1)</f>
         <v>2.9126213592233015</v>
       </c>
-      <c r="N11" s="153">
+      <c r="N11" s="130">
         <f t="shared" ref="N11:N41" si="10">100*K11/(K11+1)</f>
         <v>9.0909090909090899</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.2">
+    <row r="12" spans="1:14" ht="15">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -14038,11 +13930,11 @@
         <f t="shared" si="0"/>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="C12" s="153">
+      <c r="C12" s="130">
         <f t="shared" si="5"/>
         <v>5.1233396584440225</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="130">
         <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
@@ -14054,11 +13946,11 @@
         <f t="shared" si="1"/>
         <v>4.8000000000000008E-2</v>
       </c>
-      <c r="H12" s="153">
+      <c r="H12" s="130">
         <f t="shared" si="2"/>
         <v>4.5801526717557257</v>
       </c>
-      <c r="I12" s="153">
+      <c r="I12" s="130">
         <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
@@ -14070,16 +13962,16 @@
         <f t="shared" si="4"/>
         <v>6.0000000000000012E-2</v>
       </c>
-      <c r="M12" s="153">
+      <c r="M12" s="130">
         <f t="shared" si="9"/>
         <v>5.6603773584905666</v>
       </c>
-      <c r="N12" s="153">
+      <c r="N12" s="130">
         <f t="shared" si="10"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.2">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -14087,11 +13979,11 @@
         <f t="shared" si="0"/>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="130">
         <f>100*B13/(B13+1)</f>
         <v>7.4930619796484734</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="130">
         <f t="shared" si="6"/>
         <v>23.076923076923077</v>
       </c>
@@ -14103,11 +13995,11 @@
         <f t="shared" si="1"/>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="130">
         <f t="shared" si="2"/>
         <v>6.7164179104477615</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="130">
         <f t="shared" si="3"/>
         <v>23.076923076923077</v>
       </c>
@@ -14119,16 +14011,16 @@
         <f t="shared" si="4"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M13" s="153">
+      <c r="M13" s="130">
         <f t="shared" si="9"/>
         <v>8.2568807339449553</v>
       </c>
-      <c r="N13" s="153">
+      <c r="N13" s="130">
         <f t="shared" si="10"/>
         <v>23.076923076923077</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.2">
+    <row r="14" spans="1:14" ht="15">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -14136,11 +14028,11 @@
         <f t="shared" si="0"/>
         <v>0.10800000000000001</v>
       </c>
-      <c r="C14" s="153">
+      <c r="C14" s="130">
         <f t="shared" si="5"/>
         <v>9.7472924187725631</v>
       </c>
-      <c r="D14" s="153">
+      <c r="D14" s="130">
         <f t="shared" si="6"/>
         <v>28.571428571428573</v>
       </c>
@@ -14152,11 +14044,11 @@
         <f t="shared" si="1"/>
         <v>9.6000000000000016E-2</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="130">
         <f t="shared" si="2"/>
         <v>8.7591240875912408</v>
       </c>
-      <c r="I14" s="153">
+      <c r="I14" s="130">
         <f t="shared" si="3"/>
         <v>28.571428571428573</v>
       </c>
@@ -14168,16 +14060,16 @@
         <f t="shared" si="4"/>
         <v>0.12000000000000002</v>
       </c>
-      <c r="M14" s="153">
+      <c r="M14" s="130">
         <f t="shared" si="9"/>
         <v>10.714285714285715</v>
       </c>
-      <c r="N14" s="153">
+      <c r="N14" s="130">
         <f t="shared" si="10"/>
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.2">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -14185,11 +14077,11 @@
         <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="130">
         <f t="shared" si="5"/>
         <v>11.894273127753303</v>
       </c>
-      <c r="D15" s="153">
+      <c r="D15" s="130">
         <f t="shared" si="6"/>
         <v>33.333333333333336</v>
       </c>
@@ -14201,11 +14093,11 @@
         <f t="shared" si="1"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="130">
         <f t="shared" si="2"/>
         <v>10.714285714285715</v>
       </c>
-      <c r="I15" s="153">
+      <c r="I15" s="130">
         <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
@@ -14217,16 +14109,16 @@
         <f t="shared" si="4"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="M15" s="153">
+      <c r="M15" s="130">
         <f t="shared" si="9"/>
         <v>13.043478260869568</v>
       </c>
-      <c r="N15" s="153">
+      <c r="N15" s="130">
         <f t="shared" si="10"/>
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2">
+    <row r="16" spans="1:14" ht="15">
       <c r="A16">
         <v>0.6</v>
       </c>
@@ -14234,11 +14126,11 @@
         <f t="shared" si="0"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="C16" s="153">
+      <c r="C16" s="130">
         <f t="shared" si="5"/>
         <v>13.941480206540447</v>
       </c>
-      <c r="D16" s="153">
+      <c r="D16" s="130">
         <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
@@ -14250,11 +14142,11 @@
         <f t="shared" si="1"/>
         <v>0.14400000000000002</v>
       </c>
-      <c r="H16" s="153">
+      <c r="H16" s="130">
         <f t="shared" si="2"/>
         <v>12.587412587412588</v>
       </c>
-      <c r="I16" s="153">
+      <c r="I16" s="130">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
@@ -14266,16 +14158,16 @@
         <f t="shared" si="4"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="M16" s="153">
+      <c r="M16" s="130">
         <f t="shared" si="9"/>
         <v>15.254237288135597</v>
       </c>
-      <c r="N16" s="153">
+      <c r="N16" s="130">
         <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.2">
+    <row r="17" spans="1:14" ht="15">
       <c r="A17">
         <v>0.7</v>
       </c>
@@ -14283,11 +14175,11 @@
         <f t="shared" si="0"/>
         <v>0.189</v>
       </c>
-      <c r="C17" s="153">
+      <c r="C17" s="130">
         <f t="shared" si="5"/>
         <v>15.895710681244742</v>
       </c>
-      <c r="D17" s="153">
+      <c r="D17" s="130">
         <f t="shared" si="6"/>
         <v>41.176470588235297</v>
       </c>
@@ -14299,11 +14191,11 @@
         <f t="shared" si="1"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="130">
         <f t="shared" si="2"/>
         <v>14.383561643835618</v>
       </c>
-      <c r="I17" s="153">
+      <c r="I17" s="130">
         <f t="shared" si="3"/>
         <v>41.176470588235297</v>
       </c>
@@ -14315,16 +14207,16 @@
         <f t="shared" si="4"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="M17" s="153">
+      <c r="M17" s="130">
         <f t="shared" si="9"/>
         <v>17.355371900826448</v>
       </c>
-      <c r="N17" s="153">
+      <c r="N17" s="130">
         <f t="shared" si="10"/>
         <v>41.176470588235297</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.2">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -14332,11 +14224,11 @@
         <f t="shared" si="0"/>
         <v>0.21600000000000003</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="130">
         <f t="shared" si="5"/>
         <v>17.763157894736842</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="130">
         <f t="shared" si="6"/>
         <v>44.444444444444443</v>
       </c>
@@ -14348,11 +14240,11 @@
         <f t="shared" si="1"/>
         <v>0.19200000000000003</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="130">
         <f t="shared" si="2"/>
         <v>16.107382550335572</v>
       </c>
-      <c r="I18" s="153">
+      <c r="I18" s="130">
         <f t="shared" si="3"/>
         <v>44.444444444444443</v>
       </c>
@@ -14364,16 +14256,16 @@
         <f t="shared" si="4"/>
         <v>0.24000000000000005</v>
       </c>
-      <c r="M18" s="153">
+      <c r="M18" s="130">
         <f t="shared" si="9"/>
         <v>19.354838709677423</v>
       </c>
-      <c r="N18" s="153">
+      <c r="N18" s="130">
         <f t="shared" si="10"/>
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.2">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -14381,11 +14273,11 @@
         <f t="shared" si="0"/>
         <v>0.24300000000000002</v>
       </c>
-      <c r="C19" s="153">
+      <c r="C19" s="130">
         <f t="shared" si="5"/>
         <v>19.549477071600965</v>
       </c>
-      <c r="D19" s="153">
+      <c r="D19" s="130">
         <f t="shared" si="6"/>
         <v>47.368421052631582</v>
       </c>
@@ -14397,11 +14289,11 @@
         <f t="shared" si="1"/>
         <v>0.21600000000000003</v>
       </c>
-      <c r="H19" s="153">
+      <c r="H19" s="130">
         <f t="shared" si="2"/>
         <v>17.763157894736842</v>
       </c>
-      <c r="I19" s="153">
+      <c r="I19" s="130">
         <f t="shared" si="3"/>
         <v>47.368421052631582</v>
       </c>
@@ -14413,16 +14305,16 @@
         <f t="shared" si="4"/>
         <v>0.27000000000000007</v>
       </c>
-      <c r="M19" s="153">
+      <c r="M19" s="130">
         <f t="shared" si="9"/>
         <v>21.259842519685044</v>
       </c>
-      <c r="N19" s="153">
+      <c r="N19" s="130">
         <f t="shared" si="10"/>
         <v>47.368421052631582</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.2">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -14430,11 +14322,11 @@
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="130">
         <f t="shared" si="5"/>
         <v>21.259842519685041</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="130">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -14446,11 +14338,11 @@
         <f t="shared" si="1"/>
         <v>0.24000000000000002</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="130">
         <f t="shared" si="2"/>
         <v>19.354838709677423</v>
       </c>
-      <c r="I20" s="153">
+      <c r="I20" s="130">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -14462,16 +14354,16 @@
         <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="M20" s="153">
+      <c r="M20" s="130">
         <f t="shared" si="9"/>
         <v>23.07692307692308</v>
       </c>
-      <c r="N20" s="153">
+      <c r="N20" s="130">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.2">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -14479,11 +14371,11 @@
         <f t="shared" si="0"/>
         <v>0.29700000000000004</v>
       </c>
-      <c r="C21" s="153">
+      <c r="C21" s="130">
         <f t="shared" si="5"/>
         <v>22.898997686969931</v>
       </c>
-      <c r="D21" s="153">
+      <c r="D21" s="130">
         <f t="shared" si="6"/>
         <v>52.380952380952387</v>
       </c>
@@ -14495,11 +14387,11 @@
         <f t="shared" si="1"/>
         <v>0.26400000000000007</v>
       </c>
-      <c r="H21" s="153">
+      <c r="H21" s="130">
         <f t="shared" si="2"/>
         <v>20.886075949367093</v>
       </c>
-      <c r="I21" s="153">
+      <c r="I21" s="130">
         <f t="shared" si="3"/>
         <v>52.380952380952387</v>
       </c>
@@ -14511,16 +14403,16 @@
         <f t="shared" si="4"/>
         <v>0.33000000000000007</v>
       </c>
-      <c r="M21" s="153">
+      <c r="M21" s="130">
         <f t="shared" si="9"/>
         <v>24.812030075187973</v>
       </c>
-      <c r="N21" s="153">
+      <c r="N21" s="130">
         <f t="shared" si="10"/>
         <v>52.380952380952387</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.2">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22">
         <v>1.2</v>
       </c>
@@ -14528,11 +14420,11 @@
         <f t="shared" si="0"/>
         <v>0.32400000000000001</v>
       </c>
-      <c r="C22" s="153">
+      <c r="C22" s="130">
         <f t="shared" si="5"/>
         <v>24.471299093655588</v>
       </c>
-      <c r="D22" s="153">
+      <c r="D22" s="130">
         <f t="shared" si="6"/>
         <v>54.54545454545454</v>
       </c>
@@ -14544,11 +14436,11 @@
         <f t="shared" si="1"/>
         <v>0.28800000000000003</v>
       </c>
-      <c r="H22" s="153">
+      <c r="H22" s="130">
         <f t="shared" si="2"/>
         <v>22.36024844720497</v>
       </c>
-      <c r="I22" s="153">
+      <c r="I22" s="130">
         <f t="shared" si="3"/>
         <v>54.54545454545454</v>
       </c>
@@ -14560,16 +14452,16 @@
         <f t="shared" si="4"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="M22" s="153">
+      <c r="M22" s="130">
         <f t="shared" si="9"/>
         <v>26.47058823529412</v>
       </c>
-      <c r="N22" s="153">
+      <c r="N22" s="130">
         <f t="shared" si="10"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.2">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23">
         <v>1.3</v>
       </c>
@@ -14577,11 +14469,11 @@
         <f t="shared" si="0"/>
         <v>0.35100000000000003</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="130">
         <f t="shared" si="5"/>
         <v>25.980754996299041</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="130">
         <f t="shared" si="6"/>
         <v>56.521739130434788</v>
       </c>
@@ -14593,11 +14485,11 @@
         <f t="shared" si="1"/>
         <v>0.31200000000000006</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="130">
         <f t="shared" si="2"/>
         <v>23.780487804878053</v>
       </c>
-      <c r="I23" s="153">
+      <c r="I23" s="130">
         <f t="shared" si="3"/>
         <v>56.521739130434788</v>
       </c>
@@ -14609,16 +14501,16 @@
         <f t="shared" si="4"/>
         <v>0.39000000000000007</v>
       </c>
-      <c r="M23" s="153">
+      <c r="M23" s="130">
         <f t="shared" si="9"/>
         <v>28.057553956834536</v>
       </c>
-      <c r="N23" s="153">
+      <c r="N23" s="130">
         <f t="shared" si="10"/>
         <v>56.521739130434788</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.2">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24">
         <v>1.4</v>
       </c>
@@ -14626,11 +14518,11 @@
         <f t="shared" si="0"/>
         <v>0.378</v>
       </c>
-      <c r="C24" s="153">
+      <c r="C24" s="130">
         <f t="shared" si="5"/>
         <v>27.431059506531199</v>
       </c>
-      <c r="D24" s="153">
+      <c r="D24" s="130">
         <f t="shared" si="6"/>
         <v>58.333333333333336</v>
       </c>
@@ -14642,11 +14534,11 @@
         <f t="shared" si="1"/>
         <v>0.33600000000000002</v>
       </c>
-      <c r="H24" s="153">
+      <c r="H24" s="130">
         <f t="shared" si="2"/>
         <v>25.149700598802394</v>
       </c>
-      <c r="I24" s="153">
+      <c r="I24" s="130">
         <f t="shared" si="3"/>
         <v>58.333333333333336</v>
       </c>
@@ -14658,16 +14550,16 @@
         <f t="shared" si="4"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="M24" s="153">
+      <c r="M24" s="130">
         <f t="shared" si="9"/>
         <v>29.577464788732399</v>
       </c>
-      <c r="N24" s="153">
+      <c r="N24" s="130">
         <f t="shared" si="10"/>
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.2">
+    <row r="25" spans="1:14" ht="15">
       <c r="A25">
         <v>1.5</v>
       </c>
@@ -14675,11 +14567,11 @@
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="C25" s="153">
+      <c r="C25" s="130">
         <f t="shared" si="5"/>
         <v>28.82562277580071</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="130">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
@@ -14691,11 +14583,11 @@
         <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
-      <c r="H25" s="153">
+      <c r="H25" s="130">
         <f t="shared" si="2"/>
         <v>26.47058823529412</v>
       </c>
-      <c r="I25" s="153">
+      <c r="I25" s="130">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
@@ -14707,16 +14599,16 @@
         <f t="shared" si="4"/>
         <v>0.45000000000000007</v>
       </c>
-      <c r="M25" s="153">
+      <c r="M25" s="130">
         <f t="shared" si="9"/>
         <v>31.03448275862069</v>
       </c>
-      <c r="N25" s="153">
+      <c r="N25" s="130">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.2">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26">
         <v>1.6</v>
       </c>
@@ -14724,11 +14616,11 @@
         <f t="shared" si="0"/>
         <v>0.43200000000000005</v>
       </c>
-      <c r="C26" s="153">
+      <c r="C26" s="130">
         <f t="shared" si="5"/>
         <v>30.16759776536313</v>
       </c>
-      <c r="D26" s="153">
+      <c r="D26" s="130">
         <f t="shared" si="6"/>
         <v>61.538461538461533</v>
       </c>
@@ -14740,11 +14632,11 @@
         <f t="shared" si="1"/>
         <v>0.38400000000000006</v>
       </c>
-      <c r="H26" s="153">
+      <c r="H26" s="130">
         <f t="shared" si="2"/>
         <v>27.745664739884393</v>
       </c>
-      <c r="I26" s="153">
+      <c r="I26" s="130">
         <f t="shared" si="3"/>
         <v>61.538461538461533</v>
       </c>
@@ -14756,16 +14648,16 @@
         <f t="shared" si="4"/>
         <v>0.48000000000000009</v>
       </c>
-      <c r="M26" s="153">
+      <c r="M26" s="130">
         <f t="shared" si="9"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="N26" s="153">
+      <c r="N26" s="130">
         <f t="shared" si="10"/>
         <v>61.538461538461533</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.2">
+    <row r="27" spans="1:14" ht="15">
       <c r="A27">
         <v>1.7</v>
       </c>
@@ -14773,11 +14665,11 @@
         <f t="shared" si="0"/>
         <v>0.45900000000000002</v>
       </c>
-      <c r="C27" s="153">
+      <c r="C27" s="130">
         <f t="shared" si="5"/>
         <v>31.459904043865659</v>
       </c>
-      <c r="D27" s="153">
+      <c r="D27" s="130">
         <f t="shared" si="6"/>
         <v>62.962962962962962</v>
       </c>
@@ -14789,11 +14681,11 @@
         <f t="shared" si="1"/>
         <v>0.40800000000000003</v>
       </c>
-      <c r="H27" s="153">
+      <c r="H27" s="130">
         <f t="shared" si="2"/>
         <v>28.977272727272734</v>
       </c>
-      <c r="I27" s="153">
+      <c r="I27" s="130">
         <f t="shared" si="3"/>
         <v>62.962962962962962</v>
       </c>
@@ -14805,16 +14697,16 @@
         <f t="shared" si="4"/>
         <v>0.51</v>
       </c>
-      <c r="M27" s="153">
+      <c r="M27" s="130">
         <f t="shared" si="9"/>
         <v>33.774834437086092</v>
       </c>
-      <c r="N27" s="153">
+      <c r="N27" s="130">
         <f t="shared" si="10"/>
         <v>62.962962962962962</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.2">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28">
         <v>2.2000000000000002</v>
       </c>
@@ -14822,11 +14714,11 @@
         <f t="shared" si="0"/>
         <v>0.59400000000000008</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28" s="130">
         <f t="shared" si="5"/>
         <v>37.264742785445421</v>
       </c>
-      <c r="D28" s="153">
+      <c r="D28" s="130">
         <f t="shared" si="6"/>
         <v>68.75</v>
       </c>
@@ -14838,11 +14730,11 @@
         <f t="shared" si="1"/>
         <v>0.52800000000000014</v>
       </c>
-      <c r="H28" s="153">
+      <c r="H28" s="130">
         <f t="shared" si="2"/>
         <v>34.554973821989535</v>
       </c>
-      <c r="I28" s="153">
+      <c r="I28" s="130">
         <f t="shared" si="3"/>
         <v>68.75</v>
       </c>
@@ -14854,16 +14746,16 @@
         <f t="shared" si="4"/>
         <v>0.66000000000000014</v>
       </c>
-      <c r="M28" s="153">
+      <c r="M28" s="130">
         <f t="shared" si="9"/>
         <v>39.759036144578317</v>
       </c>
-      <c r="N28" s="153">
+      <c r="N28" s="130">
         <f t="shared" si="10"/>
         <v>68.75</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.2">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29">
         <v>2.7</v>
       </c>
@@ -14871,11 +14763,11 @@
         <f t="shared" si="0"/>
         <v>0.72900000000000009</v>
       </c>
-      <c r="C29" s="153">
+      <c r="C29" s="130">
         <f t="shared" si="5"/>
         <v>42.1631000578369</v>
       </c>
-      <c r="D29" s="153">
+      <c r="D29" s="130">
         <f t="shared" si="6"/>
         <v>72.972972972972968</v>
       </c>
@@ -14887,11 +14779,11 @@
         <f t="shared" si="1"/>
         <v>0.64800000000000013</v>
       </c>
-      <c r="H29" s="153">
+      <c r="H29" s="130">
         <f t="shared" si="2"/>
         <v>39.320388349514566</v>
       </c>
-      <c r="I29" s="153">
+      <c r="I29" s="130">
         <f t="shared" si="3"/>
         <v>72.972972972972968</v>
       </c>
@@ -14903,16 +14795,16 @@
         <f t="shared" si="4"/>
         <v>0.81000000000000016</v>
       </c>
-      <c r="M29" s="153">
+      <c r="M29" s="130">
         <f t="shared" si="9"/>
         <v>44.751381215469621</v>
       </c>
-      <c r="N29" s="153">
+      <c r="N29" s="130">
         <f t="shared" si="10"/>
         <v>72.972972972972968</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.2">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30">
         <v>3.2</v>
       </c>
@@ -14920,11 +14812,11 @@
         <f t="shared" si="0"/>
         <v>0.8640000000000001</v>
       </c>
-      <c r="C30" s="153">
+      <c r="C30" s="130">
         <f t="shared" si="5"/>
         <v>46.351931330472105</v>
       </c>
-      <c r="D30" s="153">
+      <c r="D30" s="130">
         <f t="shared" si="6"/>
         <v>76.19047619047619</v>
       </c>
@@ -14936,11 +14828,11 @@
         <f t="shared" si="1"/>
         <v>0.76800000000000013</v>
       </c>
-      <c r="H30" s="153">
+      <c r="H30" s="130">
         <f t="shared" si="2"/>
         <v>43.438914027149323</v>
       </c>
-      <c r="I30" s="153">
+      <c r="I30" s="130">
         <f t="shared" si="3"/>
         <v>76.19047619047619</v>
       </c>
@@ -14952,16 +14844,16 @@
         <f t="shared" si="4"/>
         <v>0.96000000000000019</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M30" s="130">
         <f t="shared" si="9"/>
         <v>48.979591836734699</v>
       </c>
-      <c r="N30" s="153">
+      <c r="N30" s="130">
         <f t="shared" si="10"/>
         <v>76.19047619047619</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.2">
+    <row r="31" spans="1:14" ht="15">
       <c r="A31">
         <v>3.7</v>
       </c>
@@ -14969,11 +14861,11 @@
         <f t="shared" si="0"/>
         <v>0.99900000000000011</v>
       </c>
-      <c r="C31" s="153">
+      <c r="C31" s="130">
         <f t="shared" si="5"/>
         <v>49.974987493746873</v>
       </c>
-      <c r="D31" s="153">
+      <c r="D31" s="130">
         <f t="shared" si="6"/>
         <v>78.723404255319153</v>
       </c>
@@ -14985,11 +14877,11 @@
         <f t="shared" si="1"/>
         <v>0.88800000000000012</v>
       </c>
-      <c r="H31" s="153">
+      <c r="H31" s="130">
         <f t="shared" si="2"/>
         <v>47.033898305084747</v>
       </c>
-      <c r="I31" s="153">
+      <c r="I31" s="130">
         <f t="shared" si="3"/>
         <v>78.723404255319153</v>
       </c>
@@ -15001,16 +14893,16 @@
         <f t="shared" si="4"/>
         <v>1.1100000000000003</v>
       </c>
-      <c r="M31" s="153">
+      <c r="M31" s="130">
         <f t="shared" si="9"/>
         <v>52.606635071090054</v>
       </c>
-      <c r="N31" s="153">
+      <c r="N31" s="130">
         <f t="shared" si="10"/>
         <v>78.723404255319153</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.2">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32">
         <v>4.2</v>
       </c>
@@ -15018,11 +14910,11 @@
         <f t="shared" si="0"/>
         <v>1.1340000000000001</v>
       </c>
-      <c r="C32" s="153">
+      <c r="C32" s="130">
         <f t="shared" si="5"/>
         <v>53.139643861293337</v>
       </c>
-      <c r="D32" s="153">
+      <c r="D32" s="130">
         <f t="shared" si="6"/>
         <v>80.769230769230759</v>
       </c>
@@ -15034,11 +14926,11 @@
         <f t="shared" si="1"/>
         <v>1.0080000000000002</v>
       </c>
-      <c r="H32" s="153">
+      <c r="H32" s="130">
         <f t="shared" si="2"/>
         <v>50.199203187251008</v>
       </c>
-      <c r="I32" s="153">
+      <c r="I32" s="130">
         <f t="shared" si="3"/>
         <v>80.769230769230759</v>
       </c>
@@ -15050,16 +14942,16 @@
         <f t="shared" si="4"/>
         <v>1.2600000000000002</v>
       </c>
-      <c r="M32" s="153">
+      <c r="M32" s="130">
         <f t="shared" si="9"/>
         <v>55.752212389380539</v>
       </c>
-      <c r="N32" s="153">
+      <c r="N32" s="130">
         <f t="shared" si="10"/>
         <v>80.769230769230759</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.2">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33">
         <v>5.2</v>
       </c>
@@ -15067,11 +14959,11 @@
         <f t="shared" si="0"/>
         <v>1.4040000000000001</v>
       </c>
-      <c r="C33" s="153">
+      <c r="C33" s="130">
         <f t="shared" si="5"/>
         <v>58.402662229617306</v>
       </c>
-      <c r="D33" s="153">
+      <c r="D33" s="130">
         <f t="shared" si="6"/>
         <v>83.870967741935488</v>
       </c>
@@ -15083,11 +14975,11 @@
         <f t="shared" si="1"/>
         <v>1.2480000000000002</v>
       </c>
-      <c r="H33" s="153">
+      <c r="H33" s="130">
         <f t="shared" si="2"/>
         <v>55.516014234875449</v>
       </c>
-      <c r="I33" s="153">
+      <c r="I33" s="130">
         <f t="shared" si="3"/>
         <v>83.870967741935488</v>
       </c>
@@ -15099,16 +14991,16 @@
         <f t="shared" si="4"/>
         <v>1.5600000000000003</v>
       </c>
-      <c r="M33" s="153">
+      <c r="M33" s="130">
         <f t="shared" si="9"/>
         <v>60.9375</v>
       </c>
-      <c r="N33" s="153">
+      <c r="N33" s="130">
         <f t="shared" si="10"/>
         <v>83.870967741935488</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.2">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34">
         <v>6.2</v>
       </c>
@@ -15116,11 +15008,11 @@
         <f t="shared" si="0"/>
         <v>1.6740000000000002</v>
       </c>
-      <c r="C34" s="153">
+      <c r="C34" s="130">
         <f t="shared" si="5"/>
         <v>62.602842183994007</v>
       </c>
-      <c r="D34" s="153">
+      <c r="D34" s="130">
         <f t="shared" si="6"/>
         <v>86.111111111111114</v>
       </c>
@@ -15132,11 +15024,11 @@
         <f t="shared" si="1"/>
         <v>1.4880000000000002</v>
       </c>
-      <c r="H34" s="153">
+      <c r="H34" s="130">
         <f t="shared" si="2"/>
         <v>59.80707395498392</v>
       </c>
-      <c r="I34" s="153">
+      <c r="I34" s="130">
         <f t="shared" si="3"/>
         <v>86.111111111111114</v>
       </c>
@@ -15148,16 +15040,16 @@
         <f t="shared" si="4"/>
         <v>1.8600000000000003</v>
       </c>
-      <c r="M34" s="153">
+      <c r="M34" s="130">
         <f t="shared" si="9"/>
         <v>65.03496503496504</v>
       </c>
-      <c r="N34" s="153">
+      <c r="N34" s="130">
         <f t="shared" si="10"/>
         <v>86.111111111111114</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.2">
+    <row r="35" spans="1:14" ht="15">
       <c r="A35">
         <v>7.2</v>
       </c>
@@ -15165,11 +15057,11 @@
         <f t="shared" si="0"/>
         <v>1.9440000000000002</v>
       </c>
-      <c r="C35" s="153">
+      <c r="C35" s="130">
         <f t="shared" si="5"/>
         <v>66.032608695652172</v>
       </c>
-      <c r="D35" s="153">
+      <c r="D35" s="130">
         <f t="shared" si="6"/>
         <v>87.804878048780495</v>
       </c>
@@ -15181,11 +15073,11 @@
         <f t="shared" si="1"/>
         <v>1.7280000000000002</v>
       </c>
-      <c r="H35" s="153">
+      <c r="H35" s="130">
         <f t="shared" si="2"/>
         <v>63.343108504398828</v>
       </c>
-      <c r="I35" s="153">
+      <c r="I35" s="130">
         <f t="shared" si="3"/>
         <v>87.804878048780495</v>
       </c>
@@ -15197,16 +15089,16 @@
         <f t="shared" si="4"/>
         <v>2.1600000000000006</v>
       </c>
-      <c r="M35" s="153">
+      <c r="M35" s="130">
         <f t="shared" si="9"/>
         <v>68.354430379746844</v>
       </c>
-      <c r="N35" s="153">
+      <c r="N35" s="130">
         <f t="shared" si="10"/>
         <v>87.804878048780495</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.2">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36">
         <v>10</v>
       </c>
@@ -15214,11 +15106,11 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="C36" s="153">
+      <c r="C36" s="130">
         <f t="shared" si="5"/>
         <v>72.972972972972968</v>
       </c>
-      <c r="D36" s="153">
+      <c r="D36" s="130">
         <f t="shared" si="6"/>
         <v>90.909090909090907</v>
       </c>
@@ -15230,11 +15122,11 @@
         <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H36" s="153">
+      <c r="H36" s="130">
         <f t="shared" si="2"/>
         <v>70.588235294117652</v>
       </c>
-      <c r="I36" s="153">
+      <c r="I36" s="130">
         <f t="shared" si="3"/>
         <v>90.909090909090907</v>
       </c>
@@ -15246,16 +15138,16 @@
         <f t="shared" si="4"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="M36" s="153">
+      <c r="M36" s="130">
         <f t="shared" si="9"/>
         <v>75.000000000000014</v>
       </c>
-      <c r="N36" s="153">
+      <c r="N36" s="130">
         <f t="shared" si="10"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.2">
+    <row r="37" spans="1:14" ht="15">
       <c r="A37">
         <v>20</v>
       </c>
@@ -15263,11 +15155,11 @@
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="C37" s="153">
+      <c r="C37" s="130">
         <f t="shared" si="5"/>
         <v>84.375</v>
       </c>
-      <c r="D37" s="153">
+      <c r="D37" s="130">
         <f t="shared" si="6"/>
         <v>95.238095238095241</v>
       </c>
@@ -15279,11 +15171,11 @@
         <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H37" s="153">
+      <c r="H37" s="130">
         <f t="shared" si="2"/>
         <v>82.758620689655174</v>
       </c>
-      <c r="I37" s="153">
+      <c r="I37" s="130">
         <f t="shared" si="3"/>
         <v>95.238095238095241</v>
       </c>
@@ -15295,16 +15187,16 @@
         <f t="shared" si="4"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="M37" s="153">
+      <c r="M37" s="130">
         <f t="shared" si="9"/>
         <v>85.714285714285722</v>
       </c>
-      <c r="N37" s="153">
+      <c r="N37" s="130">
         <f t="shared" si="10"/>
         <v>95.238095238095241</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.2">
+    <row r="38" spans="1:14" ht="15">
       <c r="A38">
         <v>40</v>
       </c>
@@ -15312,11 +15204,11 @@
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="C38" s="153">
+      <c r="C38" s="130">
         <f t="shared" si="5"/>
         <v>91.52542372881355</v>
       </c>
-      <c r="D38" s="153">
+      <c r="D38" s="130">
         <f t="shared" si="6"/>
         <v>97.560975609756099</v>
       </c>
@@ -15328,11 +15220,11 @@
         <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="H38" s="153">
+      <c r="H38" s="130">
         <f t="shared" si="2"/>
         <v>90.566037735849051</v>
       </c>
-      <c r="I38" s="153">
+      <c r="I38" s="130">
         <f t="shared" si="3"/>
         <v>97.560975609756099</v>
       </c>
@@ -15344,16 +15236,16 @@
         <f t="shared" si="4"/>
         <v>12.000000000000002</v>
       </c>
-      <c r="M38" s="153">
+      <c r="M38" s="130">
         <f t="shared" si="9"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="N38" s="153">
+      <c r="N38" s="130">
         <f t="shared" si="10"/>
         <v>97.560975609756099</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.2">
+    <row r="39" spans="1:14" ht="15">
       <c r="A39">
         <v>80</v>
       </c>
@@ -15361,11 +15253,11 @@
         <f t="shared" si="0"/>
         <v>21.6</v>
       </c>
-      <c r="C39" s="153">
+      <c r="C39" s="130">
         <f t="shared" si="5"/>
         <v>95.575221238938042</v>
       </c>
-      <c r="D39" s="153">
+      <c r="D39" s="130">
         <f t="shared" si="6"/>
         <v>98.76543209876543</v>
       </c>
@@ -15377,11 +15269,11 @@
         <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="H39" s="153">
+      <c r="H39" s="130">
         <f t="shared" si="2"/>
         <v>95.049504950495049</v>
       </c>
-      <c r="I39" s="153">
+      <c r="I39" s="130">
         <f t="shared" si="3"/>
         <v>98.76543209876543</v>
       </c>
@@ -15393,16 +15285,16 @@
         <f t="shared" si="4"/>
         <v>24.000000000000004</v>
       </c>
-      <c r="M39" s="153">
+      <c r="M39" s="130">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="N39" s="153">
+      <c r="N39" s="130">
         <f t="shared" si="10"/>
         <v>98.76543209876543</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.2">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40">
         <v>200</v>
       </c>
@@ -15410,11 +15302,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C40" s="153">
+      <c r="C40" s="130">
         <f t="shared" si="5"/>
         <v>98.181818181818187</v>
       </c>
-      <c r="D40" s="153">
+      <c r="D40" s="130">
         <f t="shared" si="6"/>
         <v>99.50248756218906</v>
       </c>
@@ -15426,11 +15318,11 @@
         <f t="shared" si="1"/>
         <v>48.000000000000007</v>
       </c>
-      <c r="H40" s="153">
+      <c r="H40" s="130">
         <f t="shared" si="2"/>
         <v>97.959183673469397</v>
       </c>
-      <c r="I40" s="153">
+      <c r="I40" s="130">
         <f t="shared" si="3"/>
         <v>99.50248756218906</v>
       </c>
@@ -15442,16 +15334,16 @@
         <f t="shared" si="4"/>
         <v>60.000000000000007</v>
       </c>
-      <c r="M40" s="153">
+      <c r="M40" s="130">
         <f t="shared" si="9"/>
         <v>98.360655737704917</v>
       </c>
-      <c r="N40" s="153">
+      <c r="N40" s="130">
         <f t="shared" si="10"/>
         <v>99.50248756218906</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.2">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -15459,11 +15351,11 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="C41" s="153">
+      <c r="C41" s="130">
         <f t="shared" si="5"/>
         <v>99.630996309963095</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="130">
         <f t="shared" si="6"/>
         <v>99.900099900099903</v>
       </c>
@@ -15475,11 +15367,11 @@
         <f t="shared" si="1"/>
         <v>240.00000000000003</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="130">
         <f>100*G41/(G41+1)</f>
         <v>99.585062240663902</v>
       </c>
-      <c r="I41" s="153">
+      <c r="I41" s="130">
         <f t="shared" si="3"/>
         <v>99.900099900099903</v>
       </c>
@@ -15491,16 +15383,16 @@
         <f t="shared" si="4"/>
         <v>300.00000000000006</v>
       </c>
-      <c r="M41" s="153">
+      <c r="M41" s="130">
         <f t="shared" si="9"/>
         <v>99.667774086378742</v>
       </c>
-      <c r="N41" s="153">
+      <c r="N41" s="130">
         <f t="shared" si="10"/>
         <v>99.900099900099903</v>
       </c>
     </row>
-    <row r="141" spans="1:72" s="63" customFormat="1">
+    <row r="141" spans="1:72" s="56" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -15574,7 +15466,7 @@
       <c r="BS141"/>
       <c r="BT141"/>
     </row>
-    <row r="150" spans="1:72" s="63" customFormat="1">
+    <row r="150" spans="1:72" s="56" customFormat="1">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -15648,7 +15540,7 @@
       <c r="BS150"/>
       <c r="BT150"/>
     </row>
-    <row r="158" spans="1:72" s="63" customFormat="1">
+    <row r="158" spans="1:72" s="56" customFormat="1">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -15722,7 +15614,7 @@
       <c r="BS158"/>
       <c r="BT158"/>
     </row>
-    <row r="162" spans="1:72" s="63" customFormat="1">
+    <row r="162" spans="1:72" s="56" customFormat="1">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
